--- a/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
@@ -963,19 +963,19 @@
         <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
@@ -1147,7 +1147,7 @@
         <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1284,22 +1284,22 @@
         <v>2.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T7" t="n">
         <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1311,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
@@ -1335,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -2355,31 +2355,31 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M16" t="n">
         <v>2.38</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="N16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
         <v>1.57</v>
@@ -2388,31 +2388,31 @@
         <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
         <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2421,13 +2421,13 @@
         <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="n">
         <v>501</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>1.14</v>
@@ -2498,10 +2498,10 @@
         <v>2.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
         <v>1.67</v>
@@ -2519,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
         <v>11</v>
@@ -2549,7 +2549,7 @@
         <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -2599,19 +2599,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2620,10 +2620,10 @@
         <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.57</v>
@@ -2644,10 +2644,10 @@
         <v>15</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X18" t="n">
         <v>34</v>
@@ -2674,13 +2674,13 @@
         <v>6</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
         <v>1.14</v>
@@ -2882,7 +2882,7 @@
         <v>1.53</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
         <v>11</v>
@@ -2891,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X20" t="n">
         <v>29</v>
@@ -2915,16 +2915,16 @@
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
         <v>34</v>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
         <v>3.75</v>
@@ -3828,10 +3828,10 @@
         <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
@@ -3840,16 +3840,16 @@
         <v>4.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R28" t="n">
         <v>1.57</v>
@@ -3861,7 +3861,7 @@
         <v>9.5</v>
       </c>
       <c r="U28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
         <v>8.5</v>
@@ -3894,7 +3894,7 @@
         <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -3903,7 +3903,7 @@
         <v>41</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
         <v>29</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
@@ -4102,7 +4102,7 @@
         <v>2.63</v>
       </c>
       <c r="T30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U30" t="n">
         <v>12</v>
@@ -4144,13 +4144,13 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H32" t="n">
         <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4346,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
         <v>8</v>
@@ -4379,13 +4379,13 @@
         <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>51</v>
@@ -4441,13 +4441,13 @@
         <v>1.06</v>
       </c>
       <c r="K33" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L33" t="n">
         <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N33" t="n">
         <v>1.91</v>
@@ -4456,10 +4456,10 @@
         <v>1.8</v>
       </c>
       <c r="P33" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R33" t="n">
         <v>1.72</v>
@@ -4468,10 +4468,10 @@
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U33" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V33" t="n">
         <v>8.75</v>
@@ -4480,13 +4480,13 @@
         <v>21</v>
       </c>
       <c r="X33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA33" t="n">
         <v>6.3</v>
@@ -4501,22 +4501,22 @@
         <v>450</v>
       </c>
       <c r="AE33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
         <v>40</v>
       </c>
       <c r="AI33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ33" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -4921,19 +4921,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
         <v>1.33</v>
@@ -4948,10 +4948,10 @@
         <v>1.75</v>
       </c>
       <c r="P39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R39" t="n">
         <v>1.91</v>
@@ -4969,7 +4969,7 @@
         <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
@@ -4993,13 +4993,13 @@
         <v>301</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
         <v>41</v>
@@ -5186,10 +5186,10 @@
         <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P41" t="n">
         <v>1.33</v>
@@ -5552,10 +5552,10 @@
         <v>3.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H47" t="n">
         <v>4.2</v>
@@ -5786,10 +5786,10 @@
         <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -5798,10 +5798,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O47" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="P47" t="n">
         <v>1.36</v>
@@ -5840,7 +5840,7 @@
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
         <v>67</v>
@@ -5908,16 +5908,16 @@
         <v>3.25</v>
       </c>
       <c r="J48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N48" t="n">
         <v>2.5</v>
@@ -6021,13 +6021,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
@@ -6048,10 +6048,10 @@
         <v>1.62</v>
       </c>
       <c r="P49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R49" t="n">
         <v>1.95</v>
@@ -6069,7 +6069,7 @@
         <v>11</v>
       </c>
       <c r="W49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X49" t="n">
         <v>26</v>
@@ -6096,13 +6096,13 @@
         <v>7</v>
       </c>
       <c r="AF49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG49" t="n">
         <v>10</v>
       </c>
-      <c r="AG49" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
         <v>21</v>
@@ -6143,13 +6143,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J50" t="n">
         <v>1.08</v>
@@ -6164,10 +6164,10 @@
         <v>2.75</v>
       </c>
       <c r="N50" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P50" t="n">
         <v>1.5</v>
@@ -6212,7 +6212,7 @@
         <v>67</v>
       </c>
       <c r="AD50" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE50" t="n">
         <v>7.5</v>
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J51" t="n">
         <v>1.1</v>
@@ -6286,10 +6286,10 @@
         <v>2.75</v>
       </c>
       <c r="N51" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O51" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -6307,7 +6307,7 @@
         <v>6.5</v>
       </c>
       <c r="U51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V51" t="n">
         <v>9.5</v>
@@ -6331,16 +6331,16 @@
         <v>17</v>
       </c>
       <c r="AC51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD51" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE51" t="n">
         <v>8.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
@@ -6997,19 +6997,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H57" t="n">
         <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="J57" t="n">
         <v>1.06</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.33</v>
@@ -7018,31 +7018,31 @@
         <v>3.25</v>
       </c>
       <c r="N57" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P57" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W57" t="n">
         <v>51</v>
@@ -7051,7 +7051,7 @@
         <v>41</v>
       </c>
       <c r="Y57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z57" t="n">
         <v>9.5</v>
@@ -7060,7 +7060,7 @@
         <v>7.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC57" t="n">
         <v>67</v>
@@ -7069,16 +7069,16 @@
         <v>1250</v>
       </c>
       <c r="AE57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG57" t="n">
         <v>8.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI57" t="n">
         <v>15</v>
@@ -7233,7 +7233,7 @@
         <v>4.4</v>
       </c>
       <c r="I59" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -7247,7 +7247,7 @@
         <v>1.72</v>
       </c>
       <c r="O59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -7258,7 +7258,7 @@
         <v>1.62</v>
       </c>
       <c r="T59" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U59" t="n">
         <v>5.1</v>
@@ -7276,10 +7276,10 @@
         <v>25</v>
       </c>
       <c r="Z59" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA59" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB59" t="n">
         <v>18.5</v>
@@ -7306,7 +7306,7 @@
         <v>70</v>
       </c>
       <c r="AJ59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="H64" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="J64" t="n">
         <v>1.08</v>
@@ -7766,7 +7766,7 @@
         <v>6.8</v>
       </c>
       <c r="L64" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M64" t="n">
         <v>2.82</v>
@@ -7784,25 +7784,25 @@
         <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T64" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="U64" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="V64" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W64" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X64" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y64" t="n">
         <v>40</v>
@@ -7811,34 +7811,34 @@
         <v>6.8</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB64" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD64" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF64" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI64" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ64" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -7882,7 +7882,7 @@
         <v>2.18</v>
       </c>
       <c r="J65" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K65" t="n">
         <v>7.6</v>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -8016,10 +8016,10 @@
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P66" t="n">
         <v>1.36</v>
@@ -8361,37 +8361,37 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="H69" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="J69" t="n">
         <v>1.09</v>
       </c>
       <c r="K69" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L69" t="n">
         <v>1.42</v>
       </c>
       <c r="M69" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N69" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="O69" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P69" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="R69" t="n">
         <v>1.98</v>
@@ -8400,55 +8400,55 @@
         <v>1.75</v>
       </c>
       <c r="T69" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="U69" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="V69" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W69" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="X69" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y69" t="n">
         <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB69" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC69" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD69" t="n">
         <v>1250</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70">
@@ -8983,7 +8983,7 @@
         <v>1.03</v>
       </c>
       <c r="K74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L74" t="n">
         <v>1.17</v>
@@ -9092,36 +9092,92 @@
           <t>Nantong Zhiyun</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.8</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="inlineStr"/>
-      <c r="AJ75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U75" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>14</v>
+      </c>
+      <c r="X75" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9154,36 +9210,92 @@
           <t>Shenzhen Juniors</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.5</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr"/>
-      <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr"/>
-      <c r="AJ76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T76" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U76" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V76" t="n">
+        <v>9</v>
+      </c>
+      <c r="W76" t="n">
+        <v>20</v>
+      </c>
+      <c r="X76" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9216,36 +9328,92 @@
           <t>Liaoning Tieren</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T77" t="n">
+        <v>10</v>
+      </c>
+      <c r="U77" t="n">
+        <v>23</v>
+      </c>
+      <c r="V77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>75</v>
+      </c>
+      <c r="X77" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9278,36 +9446,92 @@
           <t>Chongqing Tonglianglong</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T78" t="n">
+        <v>10</v>
+      </c>
+      <c r="U78" t="n">
+        <v>23</v>
+      </c>
+      <c r="V78" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W78" t="n">
+        <v>75</v>
+      </c>
+      <c r="X78" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9594,10 +9818,10 @@
         <v>6.5</v>
       </c>
       <c r="J81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K81" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.4</v>
@@ -9633,7 +9857,7 @@
         <v>9</v>
       </c>
       <c r="W81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X81" t="n">
         <v>15</v>
@@ -9666,13 +9890,13 @@
         <v>21</v>
       </c>
       <c r="AH81" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI81" t="n">
         <v>51</v>
       </c>
       <c r="AJ81" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82">
@@ -9707,7 +9931,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H82" t="n">
         <v>2.9</v>
@@ -9716,10 +9940,10 @@
         <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K82" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L82" t="n">
         <v>1.44</v>
@@ -10079,13 +10303,13 @@
         <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J85" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L85" t="n">
         <v>1.3</v>
@@ -10100,10 +10324,10 @@
         <v>1.8</v>
       </c>
       <c r="P85" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R85" t="n">
         <v>1.91</v>
@@ -10121,7 +10345,7 @@
         <v>8.5</v>
       </c>
       <c r="W85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X85" t="n">
         <v>15</v>
@@ -10142,13 +10366,13 @@
         <v>51</v>
       </c>
       <c r="AD85" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE85" t="n">
         <v>13</v>
       </c>
       <c r="AF85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG85" t="n">
         <v>17</v>
@@ -10601,7 +10825,7 @@
         <v>1.9</v>
       </c>
       <c r="S91" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T91" t="n">
         <v>8.75</v>
@@ -10687,19 +10911,19 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H92" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I92" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="J92" t="n">
         <v>1.06</v>
       </c>
       <c r="K92" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L92" t="n">
         <v>1.29</v>
@@ -10717,19 +10941,19 @@
         <v>1.42</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="R92" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S92" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T92" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U92" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V92" t="n">
         <v>13.5</v>
@@ -10744,13 +10968,13 @@
         <v>45</v>
       </c>
       <c r="Z92" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA92" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB92" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC92" t="n">
         <v>70</v>
@@ -10759,22 +10983,22 @@
         <v>600</v>
       </c>
       <c r="AE92" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AF92" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG92" t="n">
         <v>8.75</v>
       </c>
       <c r="AH92" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI92" t="n">
         <v>16</v>
       </c>
       <c r="AJ92" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -10818,13 +11042,13 @@
         <v>1.8</v>
       </c>
       <c r="J93" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K93" t="n">
         <v>15</v>
       </c>
       <c r="L93" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M93" t="n">
         <v>4.5</v>
@@ -10940,13 +11164,13 @@
         <v>3.7</v>
       </c>
       <c r="J94" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K94" t="n">
         <v>9</v>
       </c>
       <c r="L94" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M94" t="n">
         <v>3.25</v>
@@ -11062,13 +11286,13 @@
         <v>1.44</v>
       </c>
       <c r="J95" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K95" t="n">
         <v>12</v>
       </c>
       <c r="L95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M95" t="n">
         <v>3.75</v>
@@ -11297,19 +11521,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H97" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I97" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L97" t="n">
         <v>1.22</v>
@@ -11318,16 +11542,16 @@
         <v>4</v>
       </c>
       <c r="N97" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O97" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P97" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q97" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R97" t="n">
         <v>1.83</v>
@@ -11339,25 +11563,25 @@
         <v>7.5</v>
       </c>
       <c r="U97" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
       </c>
       <c r="W97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X97" t="n">
         <v>12</v>
       </c>
       <c r="Y97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z97" t="n">
         <v>13</v>
       </c>
       <c r="AA97" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB97" t="n">
         <v>19</v>
@@ -11366,7 +11590,7 @@
         <v>51</v>
       </c>
       <c r="AD97" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE97" t="n">
         <v>15</v>
@@ -11378,7 +11602,7 @@
         <v>17</v>
       </c>
       <c r="AH97" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI97" t="n">
         <v>41</v>
@@ -12172,10 +12396,10 @@
         <v>3.5</v>
       </c>
       <c r="N104" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O104" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P104" t="n">
         <v>1.4</v>
@@ -13148,10 +13372,10 @@
         <v>3.4</v>
       </c>
       <c r="N112" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O112" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P112" t="n">
         <v>1.4</v>
@@ -13383,7 +13607,7 @@
         <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L114" t="n">
         <v>1.25</v>
@@ -13502,10 +13726,10 @@
         <v>2.5</v>
       </c>
       <c r="J115" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L115" t="n">
         <v>1.3</v>
@@ -13514,16 +13738,16 @@
         <v>3.4</v>
       </c>
       <c r="N115" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O115" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P115" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R115" t="n">
         <v>1.8</v>
@@ -13544,10 +13768,10 @@
         <v>29</v>
       </c>
       <c r="X115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z115" t="n">
         <v>9.5</v>
@@ -13565,7 +13789,7 @@
         <v>251</v>
       </c>
       <c r="AE115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF115" t="n">
         <v>12</v>
@@ -13990,10 +14214,10 @@
         <v>2.1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L119" t="n">
         <v>1.3</v>
@@ -14008,10 +14232,10 @@
         <v>1.83</v>
       </c>
       <c r="P119" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R119" t="n">
         <v>1.8</v>
@@ -14020,7 +14244,7 @@
         <v>1.95</v>
       </c>
       <c r="T119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U119" t="n">
         <v>17</v>
@@ -14029,7 +14253,7 @@
         <v>12</v>
       </c>
       <c r="W119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X119" t="n">
         <v>29</v>
@@ -14038,7 +14262,7 @@
         <v>34</v>
       </c>
       <c r="Z119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA119" t="n">
         <v>6.5</v>
@@ -14347,13 +14571,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I122" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J122" t="n">
         <v>1.06</v>
@@ -14374,10 +14598,10 @@
         <v>1.75</v>
       </c>
       <c r="P122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R122" t="n">
         <v>1.8</v>
@@ -14386,7 +14610,7 @@
         <v>1.95</v>
       </c>
       <c r="T122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U122" t="n">
         <v>13</v>
@@ -14395,7 +14619,7 @@
         <v>10</v>
       </c>
       <c r="W122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X122" t="n">
         <v>23</v>
@@ -14404,7 +14628,7 @@
         <v>34</v>
       </c>
       <c r="Z122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA122" t="n">
         <v>6.5</v>
@@ -14416,7 +14640,7 @@
         <v>51</v>
       </c>
       <c r="AD122" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE122" t="n">
         <v>8</v>
@@ -14434,7 +14658,7 @@
         <v>21</v>
       </c>
       <c r="AJ122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
@@ -15079,31 +15303,31 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>3.6</v>
       </c>
       <c r="I128" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J128" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L128" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M128" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N128" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O128" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P128" t="n">
         <v>1.36</v>
@@ -15112,19 +15336,19 @@
         <v>3</v>
       </c>
       <c r="R128" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S128" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U128" t="n">
         <v>15</v>
       </c>
       <c r="V128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W128" t="n">
         <v>29</v>
@@ -15136,13 +15360,13 @@
         <v>29</v>
       </c>
       <c r="Z128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA128" t="n">
         <v>7</v>
       </c>
       <c r="AB128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC128" t="n">
         <v>41</v>
@@ -15201,19 +15425,19 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H129" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I129" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J129" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L129" t="n">
         <v>1.2</v>
@@ -15222,16 +15446,16 @@
         <v>4.33</v>
       </c>
       <c r="N129" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O129" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P129" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R129" t="n">
         <v>1.91</v>
@@ -15243,16 +15467,16 @@
         <v>7.5</v>
       </c>
       <c r="U129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V129" t="n">
         <v>8.5</v>
       </c>
       <c r="W129" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X129" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y129" t="n">
         <v>26</v>
@@ -15261,28 +15485,28 @@
         <v>13</v>
       </c>
       <c r="AA129" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC129" t="n">
         <v>51</v>
       </c>
       <c r="AD129" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF129" t="n">
         <v>41</v>
       </c>
       <c r="AG129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH129" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI129" t="n">
         <v>51</v>
@@ -15457,25 +15681,25 @@
         <v>1.06</v>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L131" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M131" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N131" t="n">
         <v>2.05</v>
       </c>
       <c r="O131" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P131" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R131" t="n">
         <v>1.8</v>
@@ -15493,16 +15717,16 @@
         <v>10</v>
       </c>
       <c r="W131" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X131" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y131" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z131" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA131" t="n">
         <v>6.5</v>
@@ -15567,13 +15791,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>3.6</v>
       </c>
       <c r="I132" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J132" t="n">
         <v>1.05</v>
@@ -15588,16 +15812,16 @@
         <v>3.5</v>
       </c>
       <c r="N132" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O132" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P132" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R132" t="n">
         <v>1.73</v>
@@ -15621,7 +15845,7 @@
         <v>23</v>
       </c>
       <c r="Y132" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z132" t="n">
         <v>11</v>
@@ -15636,13 +15860,13 @@
         <v>51</v>
       </c>
       <c r="AD132" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE132" t="n">
         <v>8</v>
       </c>
       <c r="AF132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG132" t="n">
         <v>9</v>
@@ -15689,13 +15913,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H133" t="n">
         <v>3.5</v>
       </c>
       <c r="I133" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J133" t="n">
         <v>1.06</v>
@@ -15710,10 +15934,10 @@
         <v>3</v>
       </c>
       <c r="N133" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O133" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P133" t="n">
         <v>1.44</v>
@@ -15728,10 +15952,10 @@
         <v>1.8</v>
       </c>
       <c r="T133" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V133" t="n">
         <v>9</v>
@@ -15764,7 +15988,7 @@
         <v>9</v>
       </c>
       <c r="AF133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG133" t="n">
         <v>12</v>
@@ -15936,16 +16160,16 @@
         <v>1.5</v>
       </c>
       <c r="H135" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I135" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J135" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K135" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L135" t="n">
         <v>1.29</v>
@@ -15981,7 +16205,7 @@
         <v>8.5</v>
       </c>
       <c r="W135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X135" t="n">
         <v>13</v>
@@ -16002,7 +16226,7 @@
         <v>67</v>
       </c>
       <c r="AD135" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE135" t="n">
         <v>15</v>
@@ -16014,7 +16238,7 @@
         <v>21</v>
       </c>
       <c r="AH135" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI135" t="n">
         <v>51</v>
@@ -16054,36 +16278,88 @@
           <t>Parnu JK Vaprus</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.65</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.98</v>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
-      <c r="AC136" t="inlineStr"/>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
-      <c r="AF136" t="inlineStr"/>
-      <c r="AG136" t="inlineStr"/>
-      <c r="AH136" t="inlineStr"/>
-      <c r="AI136" t="inlineStr"/>
-      <c r="AJ136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S136" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T136" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U136" t="n">
+        <v>10</v>
+      </c>
+      <c r="V136" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W136" t="n">
+        <v>20</v>
+      </c>
+      <c r="X136" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16116,9 +16392,15 @@
           <t>Paide</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H137" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.19</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
@@ -16178,36 +16460,88 @@
           <t>Tammeka</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9.6</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O138" t="n">
+        <v>2.19</v>
+      </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
-      <c r="AF138" t="inlineStr"/>
-      <c r="AG138" t="inlineStr"/>
-      <c r="AH138" t="inlineStr"/>
-      <c r="AI138" t="inlineStr"/>
-      <c r="AJ138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S138" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T138" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U138" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="V138" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W138" t="n">
+        <v>6</v>
+      </c>
+      <c r="X138" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16256,16 +16590,16 @@
         <v>11</v>
       </c>
       <c r="L139" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M139" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N139" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O139" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P139" t="n">
         <v>1.36</v>
@@ -16378,16 +16712,16 @@
         <v>11</v>
       </c>
       <c r="L140" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M140" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N140" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O140" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P140" t="n">
         <v>1.36</v>
@@ -16690,10 +17024,10 @@
         <v>3.5</v>
       </c>
       <c r="N143" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O143" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P143" t="n">
         <v>1.4</v>
@@ -16791,7 +17125,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H144" t="n">
         <v>5.5</v>
@@ -16839,7 +17173,7 @@
         <v>9</v>
       </c>
       <c r="W144" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X144" t="n">
         <v>11</v>
@@ -16863,7 +17197,7 @@
         <v>351</v>
       </c>
       <c r="AE144" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF144" t="n">
         <v>51</v>
@@ -17535,19 +17869,19 @@
         <v>1.02</v>
       </c>
       <c r="K150" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L150" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M150" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N150" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O150" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P150" t="n">
         <v>1.25</v>
@@ -17767,13 +18101,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H152" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I152" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J152" t="n">
         <v>1.02</v>
@@ -17788,10 +18122,10 @@
         <v>5.5</v>
       </c>
       <c r="N152" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O152" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P152" t="n">
         <v>1.25</v>
@@ -17821,13 +18155,13 @@
         <v>11</v>
       </c>
       <c r="Y152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z152" t="n">
         <v>19</v>
       </c>
       <c r="AA152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB152" t="n">
         <v>15</v>
@@ -17839,10 +18173,10 @@
         <v>151</v>
       </c>
       <c r="AE152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF152" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG152" t="n">
         <v>17</v>
@@ -17898,22 +18232,22 @@
         <v>1.62</v>
       </c>
       <c r="J153" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L153" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M153" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N153" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O153" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P153" t="n">
         <v>1.25</v>
@@ -18255,13 +18589,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H156" t="n">
         <v>3.2</v>
       </c>
       <c r="I156" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J156" t="n">
         <v>1.08</v>
@@ -18327,19 +18661,19 @@
         <v>501</v>
       </c>
       <c r="AE156" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF156" t="n">
         <v>11</v>
       </c>
       <c r="AG156" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH156" t="n">
         <v>26</v>
       </c>
       <c r="AI156" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ156" t="n">
         <v>41</v>
@@ -19524,7 +19858,7 @@
         <v>110</v>
       </c>
       <c r="AD168" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE168" t="n">
         <v>7.5</v>
@@ -19539,7 +19873,7 @@
         <v>7.9</v>
       </c>
       <c r="AI168" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ168" t="n">
         <v>28</v>
@@ -19699,7 +20033,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H170" t="n">
         <v>3.2</v>
@@ -19759,7 +20093,7 @@
         <v>8.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB170" t="n">
         <v>15</v>
@@ -20309,19 +20643,19 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H175" t="n">
         <v>3.2</v>
       </c>
       <c r="I175" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J175" t="n">
         <v>1.08</v>
       </c>
       <c r="K175" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L175" t="n">
         <v>1.44</v>
@@ -20336,10 +20670,10 @@
         <v>1.57</v>
       </c>
       <c r="P175" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R175" t="n">
         <v>2</v>
@@ -20354,13 +20688,13 @@
         <v>15</v>
       </c>
       <c r="V175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W175" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X175" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y175" t="n">
         <v>41</v>
@@ -20452,10 +20786,10 @@
         <v>2.5</v>
       </c>
       <c r="N176" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O176" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P176" t="n">
         <v>1.57</v>
@@ -20553,13 +20887,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="H177" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I177" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -20576,43 +20910,43 @@
         <v>1.72</v>
       </c>
       <c r="P177" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R177" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S177" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T177" t="n">
         <v>7</v>
       </c>
       <c r="U177" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V177" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W177" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="X177" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y177" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z177" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB177" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC177" t="n">
         <v>45</v>
@@ -20621,22 +20955,22 @@
         <v>300</v>
       </c>
       <c r="AE177" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF177" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG177" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH177" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ177" t="n">
         <v>23</v>
-      </c>
-      <c r="AI177" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ177" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="178">
@@ -20682,10 +21016,10 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M178" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="N178" t="n">
         <v>2.02</v>
@@ -20700,10 +21034,10 @@
         <v>2.22</v>
       </c>
       <c r="R178" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S178" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="T178" t="n">
         <v>8</v>
@@ -20789,10 +21123,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H179" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I179" t="n">
         <v>2.3</v>
@@ -20812,43 +21146,43 @@
         <v>1.6</v>
       </c>
       <c r="P179" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q179" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R179" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S179" t="n">
         <v>1.84</v>
       </c>
       <c r="T179" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="U179" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V179" t="n">
         <v>9</v>
       </c>
       <c r="W179" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X179" t="n">
         <v>22</v>
       </c>
       <c r="Y179" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z179" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA179" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AB179" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC179" t="n">
         <v>50</v>
@@ -20857,7 +21191,7 @@
         <v>350</v>
       </c>
       <c r="AE179" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF179" t="n">
         <v>9.25</v>
@@ -20866,7 +21200,7 @@
         <v>7.6</v>
       </c>
       <c r="AH179" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI179" t="n">
         <v>16</v>
@@ -20906,36 +21240,88 @@
           <t>Atl. Morelia</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I180" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1.87</v>
+      </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
-      <c r="Z180" t="inlineStr"/>
-      <c r="AA180" t="inlineStr"/>
-      <c r="AB180" t="inlineStr"/>
-      <c r="AC180" t="inlineStr"/>
-      <c r="AD180" t="inlineStr"/>
-      <c r="AE180" t="inlineStr"/>
-      <c r="AF180" t="inlineStr"/>
-      <c r="AG180" t="inlineStr"/>
-      <c r="AH180" t="inlineStr"/>
-      <c r="AI180" t="inlineStr"/>
-      <c r="AJ180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T180" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U180" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V180" t="n">
+        <v>8</v>
+      </c>
+      <c r="W180" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20968,36 +21354,88 @@
           <t>Tampico Madero</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1.83</v>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
-      <c r="AB181" t="inlineStr"/>
-      <c r="AC181" t="inlineStr"/>
-      <c r="AD181" t="inlineStr"/>
-      <c r="AE181" t="inlineStr"/>
-      <c r="AF181" t="inlineStr"/>
-      <c r="AG181" t="inlineStr"/>
-      <c r="AH181" t="inlineStr"/>
-      <c r="AI181" t="inlineStr"/>
-      <c r="AJ181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T181" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U181" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V181" t="n">
+        <v>8</v>
+      </c>
+      <c r="W181" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X181" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21408,10 +21846,10 @@
         <v>1.65</v>
       </c>
       <c r="J186" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K186" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L186" t="n">
         <v>1.33</v>
@@ -21652,16 +22090,16 @@
         <v>2.8</v>
       </c>
       <c r="J188" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K188" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L188" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M188" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N188" t="n">
         <v>2.1</v>
@@ -21765,13 +22203,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H189" t="n">
         <v>3.5</v>
       </c>
       <c r="I189" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J189" t="n">
         <v>1.04</v>
@@ -21786,10 +22224,10 @@
         <v>4.33</v>
       </c>
       <c r="N189" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O189" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P189" t="n">
         <v>1.33</v>
@@ -21840,7 +22278,7 @@
         <v>11</v>
       </c>
       <c r="AF189" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG189" t="n">
         <v>11</v>
@@ -22375,13 +22813,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H194" t="n">
         <v>3.1</v>
       </c>
       <c r="I194" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J194" t="n">
         <v>1.08</v>
@@ -22462,7 +22900,7 @@
         <v>41</v>
       </c>
       <c r="AJ194" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="195">
@@ -22628,10 +23066,10 @@
         <v>1.53</v>
       </c>
       <c r="J196" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L196" t="n">
         <v>1.3</v>
@@ -22640,10 +23078,10 @@
         <v>3.4</v>
       </c>
       <c r="N196" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="O196" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -22884,10 +23322,10 @@
         <v>3.5</v>
       </c>
       <c r="N198" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O198" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P198" t="n">
         <v>1.4</v>
@@ -23002,7 +23440,7 @@
         <v>2.75</v>
       </c>
       <c r="N199" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O199" t="n">
         <v>1.65</v>
@@ -23032,7 +23470,7 @@
         <v>32</v>
       </c>
       <c r="X199" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y199" t="n">
         <v>35</v>
@@ -23053,7 +23491,7 @@
         <v>600</v>
       </c>
       <c r="AE199" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF199" t="n">
         <v>12</v>
@@ -23575,87 +24013,87 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I204" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M204" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N204" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O204" t="n">
         <v>1.65</v>
       </c>
       <c r="P204" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="R204" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S204" t="n">
         <v>1.78</v>
       </c>
-      <c r="S204" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T204" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U204" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V204" t="n">
         <v>8.5</v>
       </c>
       <c r="W204" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X204" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y204" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z204" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA204" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB204" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC204" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD204" t="n">
         <v>700</v>
       </c>
       <c r="AE204" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF204" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AG204" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH204" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI204" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ204" t="n">
         <v>45</v>
@@ -23945,7 +24383,7 @@
         <v>1.07</v>
       </c>
       <c r="K207" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L207" t="n">
         <v>1.36</v>
@@ -25534,10 +25972,10 @@
         <v>3.5</v>
       </c>
       <c r="N224" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O224" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P224" t="n">
         <v>1.4</v>
@@ -26382,22 +26820,22 @@
         <v>8</v>
       </c>
       <c r="L231" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M231" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N231" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O231" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P231" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q231" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R231" t="n">
         <v>2</v>
@@ -26917,13 +27355,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H236" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I236" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="J236" t="n">
         <v>1.03</v>
@@ -26935,19 +27373,19 @@
         <v>1.17</v>
       </c>
       <c r="M236" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="N236" t="n">
         <v>1.52</v>
       </c>
       <c r="O236" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="P236" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Q236" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R236" t="n">
         <v>1.47</v>
@@ -26956,52 +27394,52 @@
         <v>2.5</v>
       </c>
       <c r="T236" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U236" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V236" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="W236" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X236" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y236" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z236" t="n">
         <v>10</v>
       </c>
       <c r="AA236" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB236" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC236" t="n">
         <v>40</v>
       </c>
       <c r="AD236" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE236" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF236" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG236" t="n">
         <v>9.25</v>
       </c>
       <c r="AH236" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI236" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ236" t="n">
         <v>20</v>
@@ -27039,70 +27477,70 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H237" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I237" t="n">
         <v>3.15</v>
       </c>
       <c r="J237" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K237" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="L237" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M237" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N237" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O237" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P237" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q237" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="R237" t="n">
         <v>1.7</v>
       </c>
       <c r="S237" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T237" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U237" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="V237" t="n">
         <v>8.75</v>
       </c>
       <c r="W237" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X237" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y237" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z237" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AA237" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB237" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC237" t="n">
         <v>55</v>
@@ -27111,22 +27549,22 @@
         <v>400</v>
       </c>
       <c r="AE237" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF237" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG237" t="n">
         <v>10.75</v>
       </c>
       <c r="AH237" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI237" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ237" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238">
@@ -27304,10 +27742,10 @@
         <v>3.4</v>
       </c>
       <c r="N239" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O239" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P239" t="n">
         <v>1.4</v>
@@ -27411,19 +27849,19 @@
         <v>3.3</v>
       </c>
       <c r="I240" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J240" t="n">
         <v>1.06</v>
       </c>
       <c r="K240" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L240" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M240" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N240" t="n">
         <v>2.05</v>
@@ -27432,10 +27870,10 @@
         <v>1.75</v>
       </c>
       <c r="P240" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q240" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R240" t="n">
         <v>1.8</v>
@@ -27527,13 +27965,13 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H241" t="n">
         <v>3.5</v>
       </c>
       <c r="I241" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J241" t="n">
         <v>1.06</v>
@@ -27608,7 +28046,7 @@
         <v>10</v>
       </c>
       <c r="AH241" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI241" t="n">
         <v>21</v>
@@ -27780,10 +28218,10 @@
         <v>5.75</v>
       </c>
       <c r="J243" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L243" t="n">
         <v>1.3</v>
@@ -27792,10 +28230,10 @@
         <v>3.4</v>
       </c>
       <c r="N243" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O243" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P243" t="n">
         <v>1.44</v>
@@ -27893,22 +28331,22 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H244" t="n">
         <v>3.3</v>
       </c>
       <c r="I244" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J244" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K244" t="n">
         <v>8.5</v>
       </c>
       <c r="L244" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M244" t="n">
         <v>3</v>
@@ -27944,7 +28382,7 @@
         <v>34</v>
       </c>
       <c r="X244" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y244" t="n">
         <v>41</v>
@@ -28015,13 +28453,13 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H245" t="n">
         <v>4.75</v>
       </c>
       <c r="I245" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J245" t="n">
         <v>1.04</v>
@@ -28063,7 +28501,7 @@
         <v>8.5</v>
       </c>
       <c r="W245" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X245" t="n">
         <v>12</v>
@@ -28084,13 +28522,13 @@
         <v>67</v>
       </c>
       <c r="AD245" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE245" t="n">
         <v>17</v>
       </c>
       <c r="AF245" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG245" t="n">
         <v>21</v>
@@ -28137,19 +28575,19 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H246" t="n">
         <v>3.1</v>
       </c>
       <c r="I246" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J246" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K246" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L246" t="n">
         <v>1.36</v>
@@ -28158,10 +28596,10 @@
         <v>3</v>
       </c>
       <c r="N246" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O246" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P246" t="n">
         <v>1.44</v>
@@ -28179,13 +28617,13 @@
         <v>7</v>
       </c>
       <c r="U246" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V246" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W246" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X246" t="n">
         <v>21</v>
@@ -28209,7 +28647,7 @@
         <v>301</v>
       </c>
       <c r="AE246" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF246" t="n">
         <v>15</v>
@@ -28221,7 +28659,7 @@
         <v>34</v>
       </c>
       <c r="AI246" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ246" t="n">
         <v>41</v>
@@ -28262,16 +28700,16 @@
         <v>2.15</v>
       </c>
       <c r="H247" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I247" t="n">
         <v>3.5</v>
       </c>
       <c r="J247" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K247" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L247" t="n">
         <v>1.33</v>
@@ -28280,16 +28718,16 @@
         <v>3.25</v>
       </c>
       <c r="N247" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O247" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P247" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q247" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R247" t="n">
         <v>1.83</v>
@@ -28301,10 +28739,10 @@
         <v>7</v>
       </c>
       <c r="U247" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V247" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W247" t="n">
         <v>19</v>
@@ -28313,10 +28751,10 @@
         <v>19</v>
       </c>
       <c r="Y247" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z247" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA247" t="n">
         <v>6</v>
@@ -28328,7 +28766,7 @@
         <v>51</v>
       </c>
       <c r="AD247" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE247" t="n">
         <v>9.5</v>
@@ -28381,13 +28819,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H248" t="n">
         <v>3.1</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J248" t="n">
         <v>1.08</v>
@@ -28402,10 +28840,10 @@
         <v>2.75</v>
       </c>
       <c r="N248" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O248" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P248" t="n">
         <v>1.5</v>
@@ -28453,7 +28891,7 @@
         <v>351</v>
       </c>
       <c r="AE248" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF248" t="n">
         <v>15</v>
@@ -28503,13 +28941,13 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H249" t="n">
         <v>2.9</v>
       </c>
       <c r="I249" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J249" t="n">
         <v>1.11</v>
@@ -28518,16 +28956,16 @@
         <v>6.5</v>
       </c>
       <c r="L249" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M249" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N249" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O249" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P249" t="n">
         <v>1.57</v>
@@ -28536,22 +28974,22 @@
         <v>2.25</v>
       </c>
       <c r="R249" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S249" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T249" t="n">
         <v>5.5</v>
       </c>
       <c r="U249" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V249" t="n">
         <v>9.5</v>
       </c>
       <c r="W249" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X249" t="n">
         <v>21</v>
@@ -28566,7 +29004,7 @@
         <v>6</v>
       </c>
       <c r="AB249" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC249" t="n">
         <v>81</v>
@@ -28575,7 +29013,7 @@
         <v>101</v>
       </c>
       <c r="AE249" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF249" t="n">
         <v>21</v>
@@ -28625,64 +29063,64 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H250" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I250" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J250" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K250" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L250" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M250" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N250" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O250" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="P250" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R250" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S250" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T250" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U250" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V250" t="n">
         <v>9.5</v>
       </c>
       <c r="W250" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X250" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y250" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z250" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA250" t="n">
         <v>6</v>
@@ -28691,7 +29129,7 @@
         <v>13</v>
       </c>
       <c r="AC250" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD250" t="n">
         <v>500</v>
@@ -28709,10 +29147,10 @@
         <v>34</v>
       </c>
       <c r="AI250" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ250" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251">
@@ -28869,13 +29307,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H252" t="n">
         <v>3.2</v>
       </c>
       <c r="I252" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J252" t="n">
         <v>1.07</v>
@@ -28890,16 +29328,16 @@
         <v>3</v>
       </c>
       <c r="N252" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O252" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P252" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q252" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R252" t="n">
         <v>1.91</v>
@@ -28917,10 +29355,10 @@
         <v>12</v>
       </c>
       <c r="W252" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X252" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y252" t="n">
         <v>41</v>
@@ -28991,13 +29429,13 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I253" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J253" t="n">
         <v>1.1</v>
@@ -29018,10 +29456,10 @@
         <v>1.5</v>
       </c>
       <c r="P253" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q253" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R253" t="n">
         <v>2.2</v>
@@ -29030,19 +29468,19 @@
         <v>1.62</v>
       </c>
       <c r="T253" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U253" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V253" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W253" t="n">
         <v>17</v>
       </c>
       <c r="X253" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y253" t="n">
         <v>41</v>
@@ -29051,7 +29489,7 @@
         <v>6.5</v>
       </c>
       <c r="AA253" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB253" t="n">
         <v>19</v>
@@ -29116,7 +29554,7 @@
         <v>2.1</v>
       </c>
       <c r="H254" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I254" t="n">
         <v>3.3</v>
@@ -29146,13 +29584,13 @@
         <v>2.63</v>
       </c>
       <c r="R254" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S254" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T254" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U254" t="n">
         <v>9.5</v>
@@ -29170,10 +29608,10 @@
         <v>34</v>
       </c>
       <c r="Z254" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA254" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB254" t="n">
         <v>17</v>
@@ -29235,19 +29673,19 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I255" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J255" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K255" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L255" t="n">
         <v>1.4</v>
@@ -29256,49 +29694,49 @@
         <v>2.75</v>
       </c>
       <c r="N255" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O255" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P255" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q255" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R255" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S255" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T255" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U255" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V255" t="n">
         <v>9.5</v>
       </c>
-      <c r="V255" t="n">
-        <v>10</v>
-      </c>
       <c r="W255" t="n">
+        <v>17</v>
+      </c>
+      <c r="X255" t="n">
         <v>19</v>
-      </c>
-      <c r="X255" t="n">
-        <v>21</v>
       </c>
       <c r="Y255" t="n">
         <v>34</v>
       </c>
       <c r="Z255" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA255" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB255" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC255" t="n">
         <v>67</v>
@@ -29307,16 +29745,16 @@
         <v>1000</v>
       </c>
       <c r="AE255" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF255" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG255" t="n">
         <v>15</v>
       </c>
-      <c r="AG255" t="n">
-        <v>13</v>
-      </c>
       <c r="AH255" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI255" t="n">
         <v>34</v>
@@ -29357,13 +29795,13 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H256" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I256" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J256" t="n">
         <v>1.1</v>
@@ -29390,22 +29828,22 @@
         <v>2.38</v>
       </c>
       <c r="R256" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S256" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T256" t="n">
         <v>5.5</v>
       </c>
       <c r="U256" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V256" t="n">
         <v>9.5</v>
       </c>
       <c r="W256" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X256" t="n">
         <v>19</v>
@@ -29414,7 +29852,7 @@
         <v>41</v>
       </c>
       <c r="Z256" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA256" t="n">
         <v>6.5</v>
@@ -29423,22 +29861,22 @@
         <v>21</v>
       </c>
       <c r="AC256" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD256" t="n">
         <v>900</v>
       </c>
       <c r="AE256" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF256" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG256" t="n">
         <v>17</v>
       </c>
       <c r="AH256" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI256" t="n">
         <v>41</v>
@@ -30098,10 +30536,10 @@
         <v>3.2</v>
       </c>
       <c r="J262" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K262" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L262" t="n">
         <v>1.44</v>
@@ -30110,10 +30548,10 @@
         <v>2.63</v>
       </c>
       <c r="N262" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O262" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P262" t="n">
         <v>1.53</v>
@@ -30333,13 +30771,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="H264" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="I264" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="J264" t="n">
         <v>1.11</v>
@@ -30360,43 +30798,43 @@
         <v>1.45</v>
       </c>
       <c r="P264" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R264" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S264" t="n">
         <v>1.65</v>
       </c>
       <c r="T264" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="U264" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="V264" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="W264" t="n">
+        <v>32</v>
+      </c>
+      <c r="X264" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y264" t="n">
         <v>45</v>
       </c>
-      <c r="X264" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y264" t="n">
-        <v>50</v>
-      </c>
       <c r="Z264" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA264" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB264" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC264" t="n">
         <v>110</v>
@@ -30405,22 +30843,22 @@
         <v>101</v>
       </c>
       <c r="AE264" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AF264" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG264" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG264" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AH264" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI264" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AJ264" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="265">
@@ -30455,66 +30893,66 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H265" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I265" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M265" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="N265" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="O265" t="n">
         <v>1.47</v>
       </c>
       <c r="P265" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q265" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R265" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S265" t="n">
         <v>1.65</v>
       </c>
       <c r="T265" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U265" t="n">
         <v>14</v>
       </c>
       <c r="V265" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W265" t="n">
         <v>40</v>
       </c>
       <c r="X265" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y265" t="n">
         <v>50</v>
       </c>
       <c r="Z265" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA265" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB265" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC265" t="n">
         <v>110</v>
@@ -30523,19 +30961,19 @@
         <v>800</v>
       </c>
       <c r="AE265" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AF265" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AG265" t="n">
         <v>9.75</v>
       </c>
       <c r="AH265" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI265" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ265" t="n">
         <v>40</v>
@@ -31179,13 +31617,13 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H271" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I271" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -31205,64 +31643,64 @@
         <v>1.5</v>
       </c>
       <c r="Q271" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R271" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S271" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T271" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U271" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="V271" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W271" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="X271" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y271" t="n">
         <v>40</v>
       </c>
       <c r="Z271" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA271" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB271" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC271" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD271" t="n">
         <v>700</v>
       </c>
       <c r="AE271" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF271" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG271" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH271" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI271" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ271" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272">
@@ -31297,24 +31735,24 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.67</v>
+        <v>2.37</v>
       </c>
       <c r="H272" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="I272" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M272" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="N272" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O272" t="n">
         <v>1.53</v>
@@ -31323,64 +31761,64 @@
         <v>1.47</v>
       </c>
       <c r="Q272" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R272" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S272" t="n">
         <v>1.75</v>
       </c>
       <c r="T272" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U272" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V272" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="W272" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="X272" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y272" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z272" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA272" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB272" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC272" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD272" t="n">
         <v>800</v>
       </c>
       <c r="AE272" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AF272" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG272" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AH272" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI272" t="n">
         <v>32</v>
       </c>
-      <c r="AI272" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ272" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273">
@@ -31424,22 +31862,22 @@
         <v>5</v>
       </c>
       <c r="J273" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K273" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L273" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M273" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N273" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O273" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P273" t="n">
         <v>1.33</v>
@@ -31662,16 +32100,16 @@
         <v>1.8</v>
       </c>
       <c r="H275" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I275" t="n">
         <v>4.5</v>
       </c>
       <c r="J275" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K275" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L275" t="n">
         <v>1.3</v>
@@ -31680,10 +32118,10 @@
         <v>3.4</v>
       </c>
       <c r="N275" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O275" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P275" t="n">
         <v>1.4</v>
@@ -31692,16 +32130,16 @@
         <v>2.75</v>
       </c>
       <c r="R275" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S275" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T275" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U275" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V275" t="n">
         <v>8.5</v>
@@ -31713,10 +32151,10 @@
         <v>15</v>
       </c>
       <c r="Y275" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z275" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA275" t="n">
         <v>6.5</v>
@@ -31728,10 +32166,10 @@
         <v>51</v>
       </c>
       <c r="AD275" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE275" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF275" t="n">
         <v>23</v>
@@ -31743,7 +32181,7 @@
         <v>51</v>
       </c>
       <c r="AI275" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ275" t="n">
         <v>41</v>
@@ -31784,7 +32222,7 @@
         <v>1.73</v>
       </c>
       <c r="H276" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I276" t="n">
         <v>4.5</v>
@@ -31820,7 +32258,7 @@
         <v>2.25</v>
       </c>
       <c r="T276" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U276" t="n">
         <v>10</v>
@@ -31835,16 +32273,16 @@
         <v>12</v>
       </c>
       <c r="Y276" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z276" t="n">
         <v>17</v>
       </c>
       <c r="AA276" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB276" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC276" t="n">
         <v>41</v>
@@ -31862,7 +32300,7 @@
         <v>15</v>
       </c>
       <c r="AH276" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI276" t="n">
         <v>29</v>
@@ -32046,10 +32484,10 @@
         <v>4</v>
       </c>
       <c r="N278" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O278" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P278" t="n">
         <v>1.33</v>
@@ -32269,7 +32707,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H280" t="n">
         <v>3.9</v>
@@ -32278,10 +32716,10 @@
         <v>4.5</v>
       </c>
       <c r="J280" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K280" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L280" t="n">
         <v>1.2</v>
@@ -32296,28 +32734,28 @@
         <v>2.15</v>
       </c>
       <c r="P280" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q280" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R280" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S280" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T280" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U280" t="n">
         <v>9</v>
-      </c>
-      <c r="U280" t="n">
-        <v>9.5</v>
       </c>
       <c r="V280" t="n">
         <v>8.5</v>
       </c>
       <c r="W280" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X280" t="n">
         <v>13</v>
@@ -32326,10 +32764,10 @@
         <v>21</v>
       </c>
       <c r="Z280" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA280" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB280" t="n">
         <v>13</v>
@@ -32344,7 +32782,7 @@
         <v>15</v>
       </c>
       <c r="AF280" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG280" t="n">
         <v>15</v>
@@ -32516,7 +32954,7 @@
         <v>1.9</v>
       </c>
       <c r="H282" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I282" t="n">
         <v>4.1</v>
@@ -32540,10 +32978,10 @@
         <v>2.1</v>
       </c>
       <c r="P282" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q282" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R282" t="n">
         <v>1.62</v>
@@ -32552,7 +32990,7 @@
         <v>2.2</v>
       </c>
       <c r="T282" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U282" t="n">
         <v>10</v>
@@ -32564,7 +33002,7 @@
         <v>17</v>
       </c>
       <c r="X282" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y282" t="n">
         <v>21</v>
@@ -32582,13 +33020,13 @@
         <v>41</v>
       </c>
       <c r="AD282" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE282" t="n">
         <v>15</v>
       </c>
       <c r="AF282" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG282" t="n">
         <v>13</v>
@@ -32788,10 +33226,10 @@
         <v>2.05</v>
       </c>
       <c r="T284" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U284" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V284" t="n">
         <v>11</v>
@@ -32803,10 +33241,10 @@
         <v>26</v>
       </c>
       <c r="Y284" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z284" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA284" t="n">
         <v>6.6</v>
@@ -32821,7 +33259,7 @@
         <v>350</v>
       </c>
       <c r="AE284" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF284" t="n">
         <v>10.75</v>
@@ -32833,7 +33271,7 @@
         <v>20</v>
       </c>
       <c r="AI284" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ284" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
         <v>1.17</v>
@@ -1528,10 +1528,10 @@
         <v>2.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R9" t="n">
         <v>1.57</v>
@@ -1552,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
@@ -2852,10 +2852,10 @@
         <v>2.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>1.62</v>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.67</v>
@@ -3126,7 +3126,7 @@
         <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22" t="n">
         <v>7</v>
@@ -3150,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
         <v>126</v>
@@ -3453,31 +3453,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K25" t="n">
         <v>5</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>1.78</v>
@@ -3495,16 +3495,16 @@
         <v>4.33</v>
       </c>
       <c r="U25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V25" t="n">
         <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>51</v>
@@ -3516,7 +3516,7 @@
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
         <v>151</v>
@@ -3525,16 +3525,16 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="n">
         <v>51</v>
@@ -3968,10 +3968,10 @@
         <v>3.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
         <v>1.3</v>
@@ -3998,7 +3998,7 @@
         <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H32" t="n">
         <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4346,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
         <v>8</v>
@@ -4379,13 +4379,13 @@
         <v>201</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH32" t="n">
         <v>51</v>
@@ -4432,7 +4432,7 @@
         <v>2.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
         <v>3.15</v>
@@ -4456,10 +4456,10 @@
         <v>1.8</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R33" t="n">
         <v>1.72</v>
@@ -4468,16 +4468,16 @@
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U33" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V33" t="n">
         <v>8.75</v>
       </c>
       <c r="W33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X33" t="n">
         <v>17.5</v>
@@ -4504,7 +4504,7 @@
         <v>9.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4550,36 +4550,92 @@
           <t>Zira</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.66</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T34" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>22</v>
+      </c>
+      <c r="V34" t="n">
+        <v>14</v>
+      </c>
+      <c r="W34" t="n">
+        <v>80</v>
+      </c>
+      <c r="X34" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5165,13 +5221,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
         <v>1.04</v>
@@ -5192,10 +5248,10 @@
         <v>2.1</v>
       </c>
       <c r="P41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R41" t="n">
         <v>1.75</v>
@@ -5249,7 +5305,7 @@
         <v>51</v>
       </c>
       <c r="AI41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="n">
         <v>41</v>
@@ -5421,7 +5477,7 @@
         <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L43" t="n">
         <v>1.17</v>
@@ -5792,10 +5848,10 @@
         <v>11</v>
       </c>
       <c r="L47" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N47" t="n">
         <v>1.89</v>
@@ -6021,13 +6077,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
@@ -6048,10 +6104,10 @@
         <v>1.62</v>
       </c>
       <c r="P49" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
         <v>1.95</v>
@@ -6060,7 +6116,7 @@
         <v>1.8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U49" t="n">
         <v>13</v>
@@ -7233,7 +7289,7 @@
         <v>4.4</v>
       </c>
       <c r="I59" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -7247,7 +7303,7 @@
         <v>1.72</v>
       </c>
       <c r="O59" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -7258,7 +7314,7 @@
         <v>1.62</v>
       </c>
       <c r="T59" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U59" t="n">
         <v>5.1</v>
@@ -7276,10 +7332,10 @@
         <v>25</v>
       </c>
       <c r="Z59" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA59" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB59" t="n">
         <v>18.5</v>
@@ -7306,7 +7362,7 @@
         <v>70</v>
       </c>
       <c r="AJ59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -7784,16 +7840,16 @@
         <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S64" t="n">
         <v>1.8</v>
       </c>
       <c r="T64" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U64" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V64" t="n">
         <v>10</v>
@@ -7805,7 +7861,7 @@
         <v>22</v>
       </c>
       <c r="Y64" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z64" t="n">
         <v>6.8</v>
@@ -7823,7 +7879,7 @@
         <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF64" t="n">
         <v>15.5</v>
@@ -8483,28 +8539,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H70" t="n">
         <v>3.15</v>
       </c>
       <c r="I70" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="n">
         <v>1.09</v>
       </c>
       <c r="K70" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M70" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N70" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O70" t="n">
         <v>1.62</v>
@@ -8513,40 +8569,40 @@
         <v>1.47</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R70" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S70" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T70" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U70" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V70" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W70" t="n">
         <v>21</v>
       </c>
       <c r="X70" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z70" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA70" t="n">
         <v>6.4</v>
       </c>
       <c r="AB70" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC70" t="n">
         <v>100</v>
@@ -8727,10 +8783,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H72" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I72" t="n">
         <v>1.48</v>
@@ -8742,16 +8798,16 @@
         <v>17</v>
       </c>
       <c r="L72" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N72" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O72" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P72" t="n">
         <v>1.29</v>
@@ -8760,22 +8816,22 @@
         <v>3.5</v>
       </c>
       <c r="R72" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T72" t="n">
         <v>17</v>
       </c>
       <c r="U72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V72" t="n">
         <v>17</v>
       </c>
       <c r="W72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X72" t="n">
         <v>41</v>
@@ -8849,31 +8905,31 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I73" t="n">
         <v>2.5</v>
       </c>
       <c r="J73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L73" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M73" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N73" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O73" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="P73" t="n">
         <v>1.4</v>
@@ -8882,13 +8938,13 @@
         <v>2.75</v>
       </c>
       <c r="R73" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T73" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U73" t="n">
         <v>13</v>
@@ -8897,40 +8953,40 @@
         <v>10</v>
       </c>
       <c r="W73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z73" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA73" t="n">
         <v>6.5</v>
       </c>
       <c r="AB73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG73" t="n">
         <v>10</v>
       </c>
       <c r="AH73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI73" t="n">
         <v>21</v>
@@ -9128,10 +9184,10 @@
         <v>1.62</v>
       </c>
       <c r="T75" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U75" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V75" t="n">
         <v>8.5</v>
@@ -9140,28 +9196,28 @@
         <v>14</v>
       </c>
       <c r="X75" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y75" t="n">
         <v>35</v>
       </c>
       <c r="Z75" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA75" t="n">
         <v>6.3</v>
       </c>
       <c r="AB75" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC75" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD75" t="n">
         <v>101</v>
       </c>
       <c r="AE75" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF75" t="n">
         <v>26</v>
@@ -9170,13 +9226,13 @@
         <v>16.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI75" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ75" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
@@ -9225,13 +9281,13 @@
         <v>1.39</v>
       </c>
       <c r="M76" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N76" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O76" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P76" t="n">
         <v>1.5</v>
@@ -9249,7 +9305,7 @@
         <v>6.2</v>
       </c>
       <c r="U76" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V76" t="n">
         <v>9</v>
@@ -9329,7 +9385,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H77" t="n">
         <v>3.2</v>
@@ -9382,7 +9438,7 @@
         <v>60</v>
       </c>
       <c r="Z77" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA77" t="n">
         <v>6.3</v>
@@ -9400,7 +9456,7 @@
         <v>5.8</v>
       </c>
       <c r="AF77" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AG77" t="n">
         <v>8.5</v>
@@ -9447,7 +9503,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H78" t="n">
         <v>3.2</v>
@@ -9464,10 +9520,10 @@
         <v>2.55</v>
       </c>
       <c r="N78" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O78" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P78" t="n">
         <v>1.5</v>
@@ -9482,10 +9538,10 @@
         <v>1.7</v>
       </c>
       <c r="T78" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V78" t="n">
         <v>14.5</v>
@@ -9515,10 +9571,10 @@
         <v>101</v>
       </c>
       <c r="AE78" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AG78" t="n">
         <v>8.5</v>
@@ -10911,13 +10967,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H92" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I92" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J92" t="n">
         <v>1.06</v>
@@ -10941,31 +10997,31 @@
         <v>1.42</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="R92" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S92" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T92" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="U92" t="n">
         <v>23</v>
       </c>
       <c r="V92" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W92" t="n">
         <v>60</v>
       </c>
       <c r="X92" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y92" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z92" t="n">
         <v>7.9</v>
@@ -10974,28 +11030,28 @@
         <v>7</v>
       </c>
       <c r="AB92" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC92" t="n">
         <v>70</v>
       </c>
       <c r="AD92" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE92" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF92" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG92" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH92" t="n">
         <v>18</v>
       </c>
       <c r="AI92" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ92" t="n">
         <v>28</v>
@@ -11042,13 +11098,13 @@
         <v>1.8</v>
       </c>
       <c r="J93" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K93" t="n">
         <v>15</v>
       </c>
       <c r="L93" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M93" t="n">
         <v>4.5</v>
@@ -11164,13 +11220,13 @@
         <v>3.7</v>
       </c>
       <c r="J94" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K94" t="n">
         <v>9</v>
       </c>
       <c r="L94" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M94" t="n">
         <v>3.25</v>
@@ -11286,13 +11342,13 @@
         <v>1.44</v>
       </c>
       <c r="J95" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K95" t="n">
         <v>12</v>
       </c>
       <c r="L95" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M95" t="n">
         <v>3.75</v>
@@ -12741,31 +12797,31 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H107" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L107" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M107" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N107" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O107" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="P107" t="n">
         <v>1.4</v>
@@ -12774,10 +12830,10 @@
         <v>2.75</v>
       </c>
       <c r="R107" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S107" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T107" t="n">
         <v>8</v>
@@ -12786,46 +12842,46 @@
         <v>11</v>
       </c>
       <c r="V107" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y107" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z107" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC107" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD107" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE107" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH107" t="n">
         <v>34</v>
       </c>
       <c r="AI107" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ107" t="n">
         <v>34</v>
@@ -12878,10 +12934,10 @@
         <v>6.5</v>
       </c>
       <c r="L108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M108" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N108" t="n">
         <v>2.63</v>
@@ -12985,13 +13041,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H109" t="n">
         <v>4.33</v>
       </c>
       <c r="I109" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J109" t="n">
         <v>1.03</v>
@@ -13012,10 +13068,10 @@
         <v>2.5</v>
       </c>
       <c r="P109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q109" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R109" t="n">
         <v>1.62</v>
@@ -13060,7 +13116,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG109" t="n">
         <v>17</v>
@@ -13110,7 +13166,7 @@
         <v>2.25</v>
       </c>
       <c r="H110" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I110" t="n">
         <v>3.3</v>
@@ -13134,10 +13190,10 @@
         <v>1.57</v>
       </c>
       <c r="P110" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R110" t="n">
         <v>2</v>
@@ -13229,19 +13285,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>3.2</v>
       </c>
       <c r="I111" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J111" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L111" t="n">
         <v>1.4</v>
@@ -13256,10 +13312,10 @@
         <v>1.67</v>
       </c>
       <c r="P111" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R111" t="n">
         <v>1.83</v>
@@ -13268,22 +13324,22 @@
         <v>1.83</v>
       </c>
       <c r="T111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V111" t="n">
         <v>11</v>
       </c>
       <c r="W111" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y111" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z111" t="n">
         <v>8.5</v>
@@ -13301,16 +13357,16 @@
         <v>301</v>
       </c>
       <c r="AE111" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI111" t="n">
         <v>21</v>
@@ -13372,10 +13428,10 @@
         <v>3.4</v>
       </c>
       <c r="N112" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O112" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P112" t="n">
         <v>1.4</v>
@@ -13598,7 +13654,7 @@
         <v>3</v>
       </c>
       <c r="H114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I114" t="n">
         <v>2.2</v>
@@ -13607,25 +13663,25 @@
         <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L114" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M114" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N114" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O114" t="n">
         <v>2</v>
       </c>
       <c r="P114" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q114" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R114" t="n">
         <v>1.67</v>
@@ -13655,7 +13711,7 @@
         <v>12</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB114" t="n">
         <v>13</v>
@@ -13667,10 +13723,10 @@
         <v>151</v>
       </c>
       <c r="AE114" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG114" t="n">
         <v>9</v>
@@ -13682,7 +13738,7 @@
         <v>17</v>
       </c>
       <c r="AJ114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -14205,19 +14261,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H119" t="n">
         <v>3.3</v>
       </c>
       <c r="I119" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J119" t="n">
         <v>1.06</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L119" t="n">
         <v>1.3</v>
@@ -14226,10 +14282,10 @@
         <v>3.4</v>
       </c>
       <c r="N119" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O119" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P119" t="n">
         <v>1.4</v>
@@ -14244,25 +14300,25 @@
         <v>1.95</v>
       </c>
       <c r="T119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y119" t="n">
         <v>34</v>
       </c>
       <c r="Z119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA119" t="n">
         <v>6.5</v>
@@ -14280,16 +14336,16 @@
         <v>7.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG119" t="n">
         <v>9</v>
       </c>
       <c r="AH119" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI119" t="n">
         <v>19</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>17</v>
       </c>
       <c r="AJ119" t="n">
         <v>29</v>
@@ -14327,13 +14383,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H120" t="n">
         <v>3.7</v>
       </c>
       <c r="I120" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J120" t="n">
         <v>1.03</v>
@@ -14369,19 +14425,19 @@
         <v>12</v>
       </c>
       <c r="U120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V120" t="n">
         <v>10</v>
       </c>
       <c r="W120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X120" t="n">
         <v>19</v>
       </c>
       <c r="Y120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z120" t="n">
         <v>17</v>
@@ -14937,7 +14993,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H125" t="n">
         <v>3.4</v>
@@ -14946,10 +15002,10 @@
         <v>3.2</v>
       </c>
       <c r="J125" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L125" t="n">
         <v>1.33</v>
@@ -14958,10 +15014,10 @@
         <v>3.25</v>
       </c>
       <c r="N125" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O125" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P125" t="n">
         <v>1.44</v>
@@ -14982,7 +15038,7 @@
         <v>10</v>
       </c>
       <c r="V125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W125" t="n">
         <v>21</v>
@@ -15021,7 +15077,7 @@
         <v>34</v>
       </c>
       <c r="AI125" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -15434,10 +15490,10 @@
         <v>8</v>
       </c>
       <c r="J129" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L129" t="n">
         <v>1.2</v>
@@ -16157,13 +16213,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H135" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I135" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J135" t="n">
         <v>1.06</v>
@@ -16196,10 +16252,10 @@
         <v>1.73</v>
       </c>
       <c r="T135" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V135" t="n">
         <v>8.5</v>
@@ -16279,13 +16335,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="H136" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I136" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -16293,7 +16349,7 @@
         <v>1.23</v>
       </c>
       <c r="M136" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N136" t="n">
         <v>1.74</v>
@@ -16304,13 +16360,13 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S136" t="n">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="T136" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U136" t="n">
         <v>10</v>
@@ -16331,10 +16387,10 @@
         <v>9.6</v>
       </c>
       <c r="AA136" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AB136" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC136" t="n">
         <v>40</v>
@@ -16343,19 +16399,19 @@
         <v>101</v>
       </c>
       <c r="AE136" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AF136" t="n">
         <v>12</v>
       </c>
       <c r="AG136" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH136" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI136" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ136" t="n">
         <v>23</v>
@@ -16393,10 +16449,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="H137" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I137" t="n">
         <v>1.19</v>
@@ -16405,29 +16461,71 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O137" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr"/>
-      <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr"/>
-      <c r="AF137" t="inlineStr"/>
-      <c r="AG137" t="inlineStr"/>
-      <c r="AH137" t="inlineStr"/>
-      <c r="AI137" t="inlineStr"/>
-      <c r="AJ137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T137" t="n">
+        <v>26</v>
+      </c>
+      <c r="U137" t="n">
+        <v>70</v>
+      </c>
+      <c r="V137" t="n">
+        <v>28</v>
+      </c>
+      <c r="W137" t="n">
+        <v>101</v>
+      </c>
+      <c r="X137" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16461,13 +16559,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H138" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I138" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -16486,61 +16584,61 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S138" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="T138" t="n">
         <v>5.8</v>
       </c>
       <c r="U138" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="V138" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="W138" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X138" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y138" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA138" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB138" t="n">
         <v>18</v>
       </c>
       <c r="AC138" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD138" t="n">
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF138" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG138" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH138" t="n">
         <v>101</v>
       </c>
       <c r="AI138" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AJ138" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
@@ -16822,16 +16920,16 @@
         <v>1.7</v>
       </c>
       <c r="H141" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I141" t="n">
         <v>4.75</v>
       </c>
       <c r="J141" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L141" t="n">
         <v>1.18</v>
@@ -16840,16 +16938,16 @@
         <v>4.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O141" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P141" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q141" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R141" t="n">
         <v>1.62</v>
@@ -16876,7 +16974,7 @@
         <v>21</v>
       </c>
       <c r="Z141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA141" t="n">
         <v>7.5</v>
@@ -16940,36 +17038,88 @@
           <t>JIPPO</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.91</v>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
-      <c r="AF142" t="inlineStr"/>
-      <c r="AG142" t="inlineStr"/>
-      <c r="AH142" t="inlineStr"/>
-      <c r="AI142" t="inlineStr"/>
-      <c r="AJ142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T142" t="n">
+        <v>9</v>
+      </c>
+      <c r="U142" t="n">
+        <v>12</v>
+      </c>
+      <c r="V142" t="n">
+        <v>9</v>
+      </c>
+      <c r="W142" t="n">
+        <v>24</v>
+      </c>
+      <c r="X142" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17125,31 +17275,31 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H144" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I144" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J144" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K144" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L144" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M144" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N144" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O144" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P144" t="n">
         <v>1.29</v>
@@ -17158,22 +17308,22 @@
         <v>3.5</v>
       </c>
       <c r="R144" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S144" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T144" t="n">
         <v>7.5</v>
       </c>
       <c r="U144" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V144" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W144" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X144" t="n">
         <v>11</v>
@@ -17185,13 +17335,13 @@
         <v>13</v>
       </c>
       <c r="AA144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB144" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC144" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD144" t="n">
         <v>351</v>
@@ -17206,10 +17356,10 @@
         <v>29</v>
       </c>
       <c r="AH144" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI144" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ144" t="n">
         <v>67</v>
@@ -17247,19 +17397,19 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H145" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I145" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J145" t="n">
         <v>1.04</v>
       </c>
       <c r="K145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L145" t="n">
         <v>1.22</v>
@@ -17274,10 +17424,10 @@
         <v>2.05</v>
       </c>
       <c r="P145" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q145" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R145" t="n">
         <v>1.73</v>
@@ -17295,13 +17445,13 @@
         <v>15</v>
       </c>
       <c r="W145" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X145" t="n">
         <v>34</v>
       </c>
       <c r="Y145" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z145" t="n">
         <v>12</v>
@@ -17322,13 +17472,13 @@
         <v>8</v>
       </c>
       <c r="AF145" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG145" t="n">
         <v>8.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI145" t="n">
         <v>13</v>
@@ -17777,7 +17927,7 @@
         <v>9</v>
       </c>
       <c r="U149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V149" t="n">
         <v>8.5</v>
@@ -18613,7 +18763,7 @@
         <v>2.4</v>
       </c>
       <c r="O156" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P156" t="n">
         <v>1.53</v>
@@ -18956,36 +19106,92 @@
           <t>Panargiakos</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I160" t="n">
+        <v>4.3</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr"/>
-      <c r="AB160" t="inlineStr"/>
-      <c r="AC160" t="inlineStr"/>
-      <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr"/>
-      <c r="AF160" t="inlineStr"/>
-      <c r="AG160" t="inlineStr"/>
-      <c r="AH160" t="inlineStr"/>
-      <c r="AI160" t="inlineStr"/>
-      <c r="AJ160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T160" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U160" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V160" t="n">
+        <v>9</v>
+      </c>
+      <c r="W160" t="n">
+        <v>16</v>
+      </c>
+      <c r="X160" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19018,36 +19224,92 @@
           <t>AEK Athens FC B</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.65</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
-      <c r="Z161" t="inlineStr"/>
-      <c r="AA161" t="inlineStr"/>
-      <c r="AB161" t="inlineStr"/>
-      <c r="AC161" t="inlineStr"/>
-      <c r="AD161" t="inlineStr"/>
-      <c r="AE161" t="inlineStr"/>
-      <c r="AF161" t="inlineStr"/>
-      <c r="AG161" t="inlineStr"/>
-      <c r="AH161" t="inlineStr"/>
-      <c r="AI161" t="inlineStr"/>
-      <c r="AJ161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T161" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V161" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W161" t="n">
+        <v>18</v>
+      </c>
+      <c r="X161" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19081,46 +19343,46 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H162" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I162" t="n">
         <v>5</v>
       </c>
       <c r="J162" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K162" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L162" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M162" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O162" t="n">
         <v>2</v>
       </c>
-      <c r="O162" t="n">
-        <v>1.85</v>
-      </c>
       <c r="P162" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R162" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S162" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T162" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U162" t="n">
         <v>7.5</v>
@@ -19132,25 +19394,25 @@
         <v>12</v>
       </c>
       <c r="X162" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y162" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z162" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA162" t="n">
         <v>7.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC162" t="n">
         <v>51</v>
       </c>
       <c r="AD162" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE162" t="n">
         <v>13</v>
@@ -19203,13 +19465,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>3.5</v>
       </c>
       <c r="I163" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J163" t="n">
         <v>1.02</v>
@@ -19236,10 +19498,10 @@
         <v>3.75</v>
       </c>
       <c r="R163" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S163" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T163" t="n">
         <v>15</v>
@@ -19251,7 +19513,7 @@
         <v>11</v>
       </c>
       <c r="W163" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X163" t="n">
         <v>19</v>
@@ -19266,7 +19528,7 @@
         <v>7.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC163" t="n">
         <v>29</v>
@@ -19803,7 +20065,7 @@
         <v>5</v>
       </c>
       <c r="I168" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -19858,10 +20120,10 @@
         <v>110</v>
       </c>
       <c r="AD168" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE168" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF168" t="n">
         <v>6.4</v>
@@ -19873,7 +20135,7 @@
         <v>7.9</v>
       </c>
       <c r="AI168" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ168" t="n">
         <v>28</v>
@@ -20033,13 +20295,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H170" t="n">
         <v>3.2</v>
       </c>
       <c r="I170" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J170" t="n">
         <v>1.07</v>
@@ -20081,10 +20343,10 @@
         <v>10</v>
       </c>
       <c r="W170" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X170" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y170" t="n">
         <v>34</v>
@@ -20093,7 +20355,7 @@
         <v>8.5</v>
       </c>
       <c r="AA170" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB170" t="n">
         <v>15</v>
@@ -20114,7 +20376,7 @@
         <v>11</v>
       </c>
       <c r="AH170" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI170" t="n">
         <v>23</v>
@@ -20643,7 +20905,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>3.2</v>
@@ -20688,13 +20950,13 @@
         <v>15</v>
       </c>
       <c r="V175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W175" t="n">
+        <v>41</v>
+      </c>
+      <c r="X175" t="n">
         <v>34</v>
-      </c>
-      <c r="X175" t="n">
-        <v>29</v>
       </c>
       <c r="Y175" t="n">
         <v>41</v>
@@ -20890,10 +21152,10 @@
         <v>2.52</v>
       </c>
       <c r="H177" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I177" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -20904,16 +21166,16 @@
         <v>3.25</v>
       </c>
       <c r="N177" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O177" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P177" t="n">
         <v>1.4</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R177" t="n">
         <v>1.72</v>
@@ -20922,28 +21184,28 @@
         <v>2</v>
       </c>
       <c r="T177" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U177" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V177" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W177" t="n">
         <v>22</v>
       </c>
       <c r="X177" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y177" t="n">
         <v>24</v>
       </c>
       <c r="Z177" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB177" t="n">
         <v>11</v>
@@ -20958,13 +21220,13 @@
         <v>7.3</v>
       </c>
       <c r="AF177" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG177" t="n">
         <v>8</v>
       </c>
       <c r="AH177" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI177" t="n">
         <v>17</v>
@@ -21158,31 +21420,31 @@
         <v>1.84</v>
       </c>
       <c r="T179" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U179" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V179" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W179" t="n">
         <v>32</v>
       </c>
       <c r="X179" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y179" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z179" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA179" t="n">
         <v>4.9</v>
       </c>
       <c r="AB179" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC179" t="n">
         <v>50</v>
@@ -21191,22 +21453,22 @@
         <v>350</v>
       </c>
       <c r="AE179" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AF179" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG179" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH179" t="n">
         <v>19.5</v>
       </c>
       <c r="AI179" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ179" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
@@ -21389,7 +21651,7 @@
         <v>6.7</v>
       </c>
       <c r="U181" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="V181" t="n">
         <v>8</v>
@@ -22825,7 +23087,7 @@
         <v>1.08</v>
       </c>
       <c r="K194" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L194" t="n">
         <v>1.4</v>
@@ -23066,10 +23328,10 @@
         <v>1.53</v>
       </c>
       <c r="J196" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L196" t="n">
         <v>1.3</v>
@@ -23078,10 +23340,10 @@
         <v>3.4</v>
       </c>
       <c r="N196" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O196" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -23449,7 +23711,7 @@
         <v>1.45</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R199" t="n">
         <v>1.75</v>
@@ -23458,7 +23720,7 @@
         <v>1.85</v>
       </c>
       <c r="T199" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U199" t="n">
         <v>13.5</v>
@@ -23491,7 +23753,7 @@
         <v>600</v>
       </c>
       <c r="AE199" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF199" t="n">
         <v>12</v>
@@ -24258,10 +24520,10 @@
         <v>4.5</v>
       </c>
       <c r="J206" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K206" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L206" t="n">
         <v>1.36</v>
@@ -24270,10 +24532,10 @@
         <v>3</v>
       </c>
       <c r="N206" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O206" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P206" t="n">
         <v>1.5</v>
@@ -25835,7 +26097,7 @@
         <v>4.5</v>
       </c>
       <c r="I223" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J223" t="n">
         <v>1.03</v>
@@ -25850,16 +26112,16 @@
         <v>4.5</v>
       </c>
       <c r="N223" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O223" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P223" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q223" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R223" t="n">
         <v>1.8</v>
@@ -25880,7 +26142,7 @@
         <v>11</v>
       </c>
       <c r="X223" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y223" t="n">
         <v>23</v>
@@ -25898,7 +26160,7 @@
         <v>51</v>
       </c>
       <c r="AD223" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE223" t="n">
         <v>17</v>
@@ -25907,7 +26169,7 @@
         <v>34</v>
       </c>
       <c r="AG223" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH223" t="n">
         <v>67</v>
@@ -25951,31 +26213,31 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I224" t="n">
         <v>5.75</v>
       </c>
       <c r="J224" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K224" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L224" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M224" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N224" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O224" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="P224" t="n">
         <v>1.4</v>
@@ -25984,13 +26246,13 @@
         <v>2.75</v>
       </c>
       <c r="R224" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S224" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T224" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U224" t="n">
         <v>7</v>
@@ -26002,25 +26264,25 @@
         <v>11</v>
       </c>
       <c r="X224" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y224" t="n">
         <v>29</v>
       </c>
       <c r="Z224" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA224" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB224" t="n">
         <v>19</v>
       </c>
       <c r="AC224" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD224" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE224" t="n">
         <v>13</v>
@@ -26029,13 +26291,13 @@
         <v>29</v>
       </c>
       <c r="AG224" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH224" t="n">
         <v>67</v>
       </c>
       <c r="AI224" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ224" t="n">
         <v>51</v>
@@ -27048,36 +27310,96 @@
           <t>Tekstilac Odzaci</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr"/>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="inlineStr"/>
-      <c r="T233" t="inlineStr"/>
-      <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
-      <c r="W233" t="inlineStr"/>
-      <c r="X233" t="inlineStr"/>
-      <c r="Y233" t="inlineStr"/>
-      <c r="Z233" t="inlineStr"/>
-      <c r="AA233" t="inlineStr"/>
-      <c r="AB233" t="inlineStr"/>
-      <c r="AC233" t="inlineStr"/>
-      <c r="AD233" t="inlineStr"/>
-      <c r="AE233" t="inlineStr"/>
-      <c r="AF233" t="inlineStr"/>
-      <c r="AG233" t="inlineStr"/>
-      <c r="AH233" t="inlineStr"/>
-      <c r="AI233" t="inlineStr"/>
-      <c r="AJ233" t="inlineStr"/>
+      <c r="G233" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H233" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I233" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K233" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M233" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>3</v>
+      </c>
+      <c r="R233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V233" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W233" t="n">
+        <v>11</v>
+      </c>
+      <c r="X233" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -27111,94 +27433,94 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H234" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J234" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K234" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="L234" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M234" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="N234" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O234" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="P234" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q234" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R234" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S234" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T234" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U234" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V234" t="n">
         <v>9.5</v>
       </c>
       <c r="W234" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X234" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y234" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z234" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA234" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB234" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC234" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD234" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AE234" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF234" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG234" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH234" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI234" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ234" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235">
@@ -27355,49 +27677,49 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H236" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I236" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J236" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K236" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L236" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M236" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="N236" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O236" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P236" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="Q236" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="R236" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S236" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="T236" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U236" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V236" t="n">
         <v>12.5</v>
@@ -27406,43 +27728,43 @@
         <v>50</v>
       </c>
       <c r="X236" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y236" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z236" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA236" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB236" t="n">
         <v>12.5</v>
       </c>
       <c r="AC236" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD236" t="n">
         <v>250</v>
       </c>
       <c r="AE236" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF236" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG236" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH236" t="n">
         <v>20</v>
       </c>
       <c r="AI236" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ236" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237">
@@ -27742,10 +28064,10 @@
         <v>3.4</v>
       </c>
       <c r="N239" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O239" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P239" t="n">
         <v>1.4</v>
@@ -27974,10 +28296,10 @@
         <v>2.63</v>
       </c>
       <c r="J241" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K241" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L241" t="n">
         <v>1.3</v>
@@ -28087,13 +28409,13 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H242" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J242" t="n">
         <v>1.04</v>
@@ -28108,10 +28430,10 @@
         <v>3.75</v>
       </c>
       <c r="N242" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O242" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P242" t="n">
         <v>1.36</v>
@@ -28126,7 +28448,7 @@
         <v>1.83</v>
       </c>
       <c r="T242" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U242" t="n">
         <v>8</v>
@@ -28171,7 +28493,7 @@
         <v>51</v>
       </c>
       <c r="AI242" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ242" t="n">
         <v>41</v>
@@ -28209,25 +28531,25 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H243" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I243" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J243" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K243" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L243" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M243" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N243" t="n">
         <v>2.03</v>
@@ -28236,10 +28558,10 @@
         <v>1.78</v>
       </c>
       <c r="P243" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q243" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R243" t="n">
         <v>2.1</v>
@@ -28251,7 +28573,7 @@
         <v>6</v>
       </c>
       <c r="U243" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V243" t="n">
         <v>8.5</v>
@@ -28260,7 +28582,7 @@
         <v>11</v>
       </c>
       <c r="X243" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y243" t="n">
         <v>29</v>
@@ -28269,7 +28591,7 @@
         <v>9.5</v>
       </c>
       <c r="AA243" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB243" t="n">
         <v>21</v>
@@ -28293,7 +28615,7 @@
         <v>67</v>
       </c>
       <c r="AI243" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ243" t="n">
         <v>51</v>
@@ -28343,7 +28665,7 @@
         <v>1.07</v>
       </c>
       <c r="K244" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L244" t="n">
         <v>1.36</v>
@@ -28352,10 +28674,10 @@
         <v>3</v>
       </c>
       <c r="N244" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O244" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P244" t="n">
         <v>1.44</v>
@@ -28468,34 +28790,34 @@
         <v>13</v>
       </c>
       <c r="L245" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M245" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N245" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O245" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P245" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q245" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R245" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S245" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U245" t="n">
         <v>7</v>
-      </c>
-      <c r="U245" t="n">
-        <v>6.5</v>
       </c>
       <c r="V245" t="n">
         <v>8.5</v>
@@ -28507,10 +28829,10 @@
         <v>12</v>
       </c>
       <c r="Y245" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z245" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA245" t="n">
         <v>9</v>
@@ -28519,10 +28841,10 @@
         <v>21</v>
       </c>
       <c r="AC245" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD245" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE245" t="n">
         <v>17</v>
@@ -28575,31 +28897,31 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H246" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I246" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J246" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K246" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L246" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M246" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N246" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O246" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P246" t="n">
         <v>1.44</v>
@@ -28614,25 +28936,25 @@
         <v>1.83</v>
       </c>
       <c r="T246" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U246" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V246" t="n">
         <v>9.5</v>
       </c>
       <c r="W246" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X246" t="n">
         <v>21</v>
       </c>
       <c r="Y246" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z246" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA246" t="n">
         <v>6</v>
@@ -28644,7 +28966,7 @@
         <v>51</v>
       </c>
       <c r="AD246" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE246" t="n">
         <v>9</v>
@@ -28653,16 +28975,16 @@
         <v>15</v>
       </c>
       <c r="AG246" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH246" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ246" t="n">
         <v>34</v>
-      </c>
-      <c r="AI246" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ246" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="247">
@@ -28819,10 +29141,10 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H248" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I248" t="n">
         <v>3.1</v>
@@ -28840,10 +29162,10 @@
         <v>2.75</v>
       </c>
       <c r="N248" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O248" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P248" t="n">
         <v>1.5</v>
@@ -28891,7 +29213,7 @@
         <v>351</v>
       </c>
       <c r="AE248" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF248" t="n">
         <v>15</v>
@@ -28944,49 +29266,49 @@
         <v>2</v>
       </c>
       <c r="H249" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I249" t="n">
         <v>4.5</v>
       </c>
       <c r="J249" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K249" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L249" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P249" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S249" t="n">
         <v>1.53</v>
       </c>
-      <c r="M249" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N249" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O249" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P249" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q249" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R249" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S249" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T249" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U249" t="n">
         <v>8</v>
       </c>
       <c r="V249" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W249" t="n">
         <v>17</v>
@@ -28998,13 +29320,13 @@
         <v>41</v>
       </c>
       <c r="Z249" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA249" t="n">
         <v>6</v>
       </c>
       <c r="AB249" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC249" t="n">
         <v>81</v>
@@ -29132,7 +29454,7 @@
         <v>41</v>
       </c>
       <c r="AD250" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE250" t="n">
         <v>11</v>
@@ -29376,7 +29698,7 @@
         <v>51</v>
       </c>
       <c r="AD252" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE252" t="n">
         <v>7</v>
@@ -29551,13 +29873,13 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H254" t="n">
         <v>3</v>
       </c>
       <c r="I254" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J254" t="n">
         <v>1.08</v>
@@ -29593,16 +29915,16 @@
         <v>7</v>
       </c>
       <c r="U254" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V254" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W254" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X254" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y254" t="n">
         <v>34</v>
@@ -29626,7 +29948,7 @@
         <v>9</v>
       </c>
       <c r="AF254" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG254" t="n">
         <v>13</v>
@@ -29673,31 +29995,31 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I255" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J255" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K255" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L255" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M255" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N255" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O255" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P255" t="n">
         <v>1.5</v>
@@ -29706,37 +30028,37 @@
         <v>2.5</v>
       </c>
       <c r="R255" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S255" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T255" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U255" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V255" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W255" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X255" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y255" t="n">
         <v>34</v>
       </c>
       <c r="Z255" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA255" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB255" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC255" t="n">
         <v>67</v>
@@ -29745,16 +30067,16 @@
         <v>1000</v>
       </c>
       <c r="AE255" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF255" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG255" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH255" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI255" t="n">
         <v>34</v>
@@ -29917,10 +30239,10 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H257" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I257" t="n">
         <v>3.3</v>
@@ -29932,34 +30254,34 @@
         <v>13</v>
       </c>
       <c r="L257" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M257" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N257" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O257" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P257" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q257" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R257" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S257" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T257" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U257" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V257" t="n">
         <v>9</v>
@@ -29968,16 +30290,16 @@
         <v>19</v>
       </c>
       <c r="X257" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y257" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z257" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA257" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB257" t="n">
         <v>13</v>
@@ -29986,10 +30308,10 @@
         <v>41</v>
       </c>
       <c r="AD257" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE257" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF257" t="n">
         <v>19</v>
@@ -30004,7 +30326,7 @@
         <v>26</v>
       </c>
       <c r="AJ257" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258">
@@ -30426,10 +30748,10 @@
         <v>3.75</v>
       </c>
       <c r="N261" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O261" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P261" t="n">
         <v>1.36</v>
@@ -30896,7 +31218,7 @@
         <v>3.1</v>
       </c>
       <c r="H265" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I265" t="n">
         <v>2.3</v>
@@ -30928,10 +31250,10 @@
         <v>1.65</v>
       </c>
       <c r="T265" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U265" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V265" t="n">
         <v>11.75</v>
@@ -30940,7 +31262,7 @@
         <v>40</v>
       </c>
       <c r="X265" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y265" t="n">
         <v>50</v>
@@ -30961,7 +31283,7 @@
         <v>800</v>
       </c>
       <c r="AE265" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF265" t="n">
         <v>9.75</v>
@@ -30973,10 +31295,10 @@
         <v>23</v>
       </c>
       <c r="AI265" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ265" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266">
@@ -31011,25 +31333,25 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.85</v>
+        <v>4.45</v>
       </c>
       <c r="H266" t="n">
         <v>2.92</v>
       </c>
       <c r="I266" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J266" t="n">
         <v>1.12</v>
       </c>
       <c r="K266" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L266" t="n">
         <v>1.53</v>
       </c>
       <c r="M266" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N266" t="n">
         <v>2.52</v>
@@ -31038,37 +31360,37 @@
         <v>1.4</v>
       </c>
       <c r="P266" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q266" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R266" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S266" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T266" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="U266" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="V266" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="W266" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="X266" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y266" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z266" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AA266" t="n">
         <v>6</v>
@@ -31083,19 +31405,19 @@
         <v>101</v>
       </c>
       <c r="AE266" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AF266" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AG266" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH266" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI266" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ266" t="n">
         <v>45</v>
@@ -31735,13 +32057,13 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.37</v>
+        <v>2.67</v>
       </c>
       <c r="H272" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I272" t="n">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -31749,76 +32071,76 @@
         <v>1.4</v>
       </c>
       <c r="M272" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N272" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O272" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P272" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q272" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R272" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S272" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T272" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U272" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V272" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="W272" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X272" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y272" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z272" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AA272" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB272" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC272" t="n">
         <v>90</v>
       </c>
       <c r="AD272" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE272" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AF272" t="n">
-        <v>14.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG272" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AH272" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ272" t="n">
         <v>40</v>
-      </c>
-      <c r="AI272" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ272" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="273">
@@ -31859,7 +32181,7 @@
         <v>4.1</v>
       </c>
       <c r="I273" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J273" t="n">
         <v>1.03</v>
@@ -31874,25 +32196,25 @@
         <v>4.33</v>
       </c>
       <c r="N273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O273" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R273" t="n">
         <v>1.7</v>
       </c>
-      <c r="O273" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P273" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q273" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R273" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S273" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T273" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U273" t="n">
         <v>8.5</v>
@@ -31901,16 +32223,16 @@
         <v>8.5</v>
       </c>
       <c r="W273" t="n">
+        <v>13</v>
+      </c>
+      <c r="X273" t="n">
         <v>12</v>
       </c>
-      <c r="X273" t="n">
-        <v>13</v>
-      </c>
       <c r="Y273" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z273" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA273" t="n">
         <v>8</v>
@@ -31919,7 +32241,7 @@
         <v>15</v>
       </c>
       <c r="AC273" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD273" t="n">
         <v>201</v>
@@ -31937,7 +32259,7 @@
         <v>51</v>
       </c>
       <c r="AI273" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ273" t="n">
         <v>41</v>
@@ -32121,7 +32443,7 @@
         <v>2.05</v>
       </c>
       <c r="O275" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P275" t="n">
         <v>1.4</v>
@@ -32136,10 +32458,10 @@
         <v>1.91</v>
       </c>
       <c r="T275" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U275" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V275" t="n">
         <v>8.5</v>
@@ -32585,13 +32907,13 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H279" t="n">
         <v>4.33</v>
       </c>
       <c r="I279" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J279" t="n">
         <v>1.03</v>
@@ -32606,10 +32928,10 @@
         <v>5.5</v>
       </c>
       <c r="N279" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O279" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P279" t="n">
         <v>1.25</v>
@@ -32627,13 +32949,13 @@
         <v>9.5</v>
       </c>
       <c r="U279" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V279" t="n">
         <v>8.5</v>
       </c>
       <c r="W279" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X279" t="n">
         <v>11</v>
@@ -32850,10 +33172,10 @@
         <v>3.4</v>
       </c>
       <c r="N281" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O281" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="P281" t="n">
         <v>1.4</v>
@@ -33094,10 +33416,10 @@
         <v>3.5</v>
       </c>
       <c r="N283" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O283" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P283" t="n">
         <v>1.4</v>
@@ -33226,7 +33548,7 @@
         <v>2.05</v>
       </c>
       <c r="T284" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U284" t="n">
         <v>18</v>
@@ -33244,7 +33566,7 @@
         <v>30</v>
       </c>
       <c r="Z284" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA284" t="n">
         <v>6.6</v>
@@ -33262,7 +33584,7 @@
         <v>8.5</v>
       </c>
       <c r="AF284" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG284" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="O2" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T2" t="n">
         <v>7.5</v>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -707,16 +707,16 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -778,13 +778,13 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M3" t="n">
         <v>4.33</v>
@@ -796,13 +796,13 @@
         <v>2.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>2.05</v>
@@ -820,13 +820,13 @@
         <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>8.5</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -900,22 +900,22 @@
         <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
         <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P4" t="n">
         <v>1.2</v>
@@ -924,10 +924,10 @@
         <v>4.33</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T4" t="n">
         <v>11</v>
@@ -939,10 +939,10 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>29</v>
@@ -954,13 +954,13 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE4" t="n">
         <v>41</v>
@@ -975,7 +975,7 @@
         <v>201</v>
       </c>
       <c r="AI4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
@@ -1019,7 +1019,7 @@
         <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1385,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1635,7 +1635,7 @@
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1757,7 +1757,7 @@
         <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L11" t="n">
         <v>1.1</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2477,10 +2477,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
         <v>3.75</v>
@@ -2605,7 +2605,7 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J18" t="n">
         <v>1.1</v>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
@@ -2730,10 +2730,10 @@
         <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.57</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.62</v>
@@ -2891,13 +2891,13 @@
         <v>12</v>
       </c>
       <c r="W20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X20" t="n">
         <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
         <v>5.5</v>
@@ -2909,22 +2909,22 @@
         <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
         <v>101</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI20" t="n">
         <v>34</v>
@@ -3096,10 +3096,10 @@
         <v>4.33</v>
       </c>
       <c r="J22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
         <v>1.67</v>
@@ -3218,10 +3218,10 @@
         <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.57</v>
@@ -3340,10 +3340,10 @@
         <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
         <v>1.67</v>
@@ -3364,16 +3364,16 @@
         <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T24" t="n">
         <v>4.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
@@ -3418,7 +3418,7 @@
         <v>51</v>
       </c>
       <c r="AJ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.8</v>
@@ -3510,7 +3510,7 @@
         <v>51</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
@@ -3584,10 +3584,10 @@
         <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
         <v>1.57</v>
@@ -3614,7 +3614,7 @@
         <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U26" t="n">
         <v>7</v>
@@ -3706,10 +3706,10 @@
         <v>2.25</v>
       </c>
       <c r="J27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.67</v>
@@ -3822,16 +3822,16 @@
         <v>1.91</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
         <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
@@ -3840,13 +3840,13 @@
         <v>4.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O28" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q28" t="n">
         <v>3.5</v>
@@ -3879,7 +3879,7 @@
         <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB28" t="n">
         <v>12</v>
@@ -3968,7 +3968,7 @@
         <v>3.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Q29" t="n">
         <v>5</v>
@@ -4066,7 +4066,7 @@
         <v>1.7</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
         <v>4.5</v>
@@ -4075,25 +4075,25 @@
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R30" t="n">
         <v>1.44</v>
@@ -4150,7 +4150,7 @@
         <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -4307,49 +4307,49 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H32" t="n">
         <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
@@ -4370,10 +4370,10 @@
         <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="n">
         <v>201</v>
@@ -4551,90 +4551,90 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N34" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O34" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="P34" t="n">
         <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S34" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="T34" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="U34" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="V34" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="W34" t="n">
+        <v>150</v>
+      </c>
+      <c r="X34" t="n">
         <v>80</v>
       </c>
-      <c r="X34" t="n">
-        <v>50</v>
-      </c>
       <c r="Y34" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AA34" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="AB34" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AD34" t="n">
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AG34" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="AH34" t="n">
-        <v>9.800000000000001</v>
+        <v>10.75</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ34" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -4870,16 +4870,16 @@
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O38" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>1.33</v>
@@ -4977,10 +4977,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
         <v>3.6</v>
@@ -5052,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="AF39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -5102,46 +5102,46 @@
         <v>2.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
+        <v>19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T40" t="n">
+        <v>13</v>
+      </c>
+      <c r="U40" t="n">
         <v>15</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>11</v>
-      </c>
-      <c r="U40" t="n">
-        <v>13</v>
       </c>
       <c r="V40" t="n">
         <v>9.5</v>
@@ -5150,31 +5150,31 @@
         <v>23</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="n">
         <v>15</v>
       </c>
-      <c r="AA40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>13</v>
-      </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG40" t="n">
         <v>11</v>
@@ -5186,7 +5186,7 @@
         <v>21</v>
       </c>
       <c r="AJ40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -5230,13 +5230,13 @@
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
         <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -5358,7 +5358,7 @@
         <v>23</v>
       </c>
       <c r="L42" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M42" t="n">
         <v>7</v>
@@ -5474,13 +5474,13 @@
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K43" t="n">
         <v>17</v>
       </c>
       <c r="L43" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -5596,13 +5596,13 @@
         <v>1.85</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
         <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
         <v>3.5</v>
@@ -5708,36 +5708,88 @@
           <t>Radnik Bijeljina</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.98</v>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T45" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>21</v>
+      </c>
+      <c r="X45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5770,36 +5822,92 @@
           <t>Posusje</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.52</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T46" t="n">
+        <v>15</v>
+      </c>
+      <c r="U46" t="n">
+        <v>40</v>
+      </c>
+      <c r="V46" t="n">
+        <v>20</v>
+      </c>
+      <c r="W46" t="n">
+        <v>150</v>
+      </c>
+      <c r="X46" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5833,25 +5941,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
         <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M47" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
         <v>1.89</v>
@@ -5866,10 +5974,10 @@
         <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T47" t="n">
         <v>6.5</v>
@@ -5881,7 +5989,7 @@
         <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X47" t="n">
         <v>12</v>
@@ -5896,7 +6004,7 @@
         <v>8</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="n">
         <v>67</v>
@@ -5914,7 +6022,7 @@
         <v>23</v>
       </c>
       <c r="AH47" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="n">
         <v>51</v>
@@ -5982,10 +6090,10 @@
         <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R48" t="n">
         <v>2.1</v>
@@ -6006,13 +6114,13 @@
         <v>21</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
         <v>41</v>
       </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA48" t="n">
         <v>6</v>
@@ -6033,10 +6141,10 @@
         <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI48" t="n">
         <v>34</v>
@@ -6077,13 +6185,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
@@ -6396,7 +6504,7 @@
         <v>8.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
@@ -6443,91 +6551,91 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H52" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I52" t="n">
         <v>3.15</v>
       </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K52" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O52" t="n">
         <v>1.47</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.52</v>
       </c>
       <c r="P52" t="n">
         <v>1.55</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S52" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T52" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U52" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="V52" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X52" t="n">
         <v>23</v>
       </c>
       <c r="Y52" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z52" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="AB52" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD52" t="n">
         <v>101</v>
       </c>
       <c r="AE52" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF52" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH52" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="n">
         <v>35</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>32</v>
       </c>
       <c r="AJ52" t="n">
         <v>50</v>
@@ -6565,94 +6673,94 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="I53" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J53" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="K53" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M53" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="N53" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="P53" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="R53" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S53" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T53" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U53" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V53" t="n">
         <v>9.25</v>
       </c>
-      <c r="V53" t="n">
-        <v>9</v>
-      </c>
       <c r="W53" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X53" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Y53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z53" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD53" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF53" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG53" t="n">
         <v>12</v>
       </c>
       <c r="AH53" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI53" t="n">
         <v>40</v>
       </c>
-      <c r="AI53" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ53" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -6809,31 +6917,31 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I55" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J55" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K55" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O55" t="n">
         <v>1.47</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.5</v>
       </c>
       <c r="P55" t="n">
         <v>1.55</v>
@@ -6842,37 +6950,37 @@
         <v>2.3</v>
       </c>
       <c r="R55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T55" t="n">
         <v>5.6</v>
       </c>
       <c r="U55" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V55" t="n">
         <v>9.25</v>
       </c>
       <c r="W55" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="X55" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y55" t="n">
         <v>40</v>
       </c>
       <c r="Z55" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AA55" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="AB55" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC55" t="n">
         <v>120</v>
@@ -6884,16 +6992,16 @@
         <v>8</v>
       </c>
       <c r="AF55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG55" t="n">
         <v>13.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI55" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ55" t="n">
         <v>60</v>
@@ -8051,13 +8159,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>3.5</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J66" t="n">
         <v>1.05</v>
@@ -8072,10 +8180,10 @@
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O66" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P66" t="n">
         <v>1.36</v>
@@ -8084,10 +8192,10 @@
         <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S66" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
         <v>7.5</v>
@@ -8099,10 +8207,10 @@
         <v>8.5</v>
       </c>
       <c r="W66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y66" t="n">
         <v>26</v>
@@ -8111,7 +8219,7 @@
         <v>11</v>
       </c>
       <c r="AA66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB66" t="n">
         <v>15</v>
@@ -8123,19 +8231,19 @@
         <v>201</v>
       </c>
       <c r="AE66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG66" t="n">
         <v>15</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>17</v>
       </c>
       <c r="AH66" t="n">
         <v>51</v>
       </c>
       <c r="AI66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ66" t="n">
         <v>41</v>
@@ -8661,19 +8769,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H71" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I71" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J71" t="n">
         <v>1.09</v>
       </c>
       <c r="K71" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L71" t="n">
         <v>1.4</v>
@@ -8691,40 +8799,40 @@
         <v>1.45</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R71" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S71" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T71" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="U71" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="V71" t="n">
         <v>9.75</v>
       </c>
       <c r="W71" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y71" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z71" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA71" t="n">
         <v>6.3</v>
       </c>
       <c r="AB71" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC71" t="n">
         <v>90</v>
@@ -8733,19 +8841,19 @@
         <v>900</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF71" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG71" t="n">
         <v>12</v>
       </c>
       <c r="AH71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ71" t="n">
         <v>45</v>
@@ -8917,7 +9025,7 @@
         <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L73" t="n">
         <v>1.33</v>
@@ -9027,13 +9135,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J74" t="n">
         <v>1.03</v>
@@ -9048,16 +9156,16 @@
         <v>5</v>
       </c>
       <c r="N74" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O74" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P74" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q74" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R74" t="n">
         <v>1.5</v>
@@ -9066,16 +9174,16 @@
         <v>2.5</v>
       </c>
       <c r="T74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V74" t="n">
         <v>11</v>
       </c>
       <c r="W74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X74" t="n">
         <v>21</v>
@@ -9084,10 +9192,10 @@
         <v>23</v>
       </c>
       <c r="Z74" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA74" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB74" t="n">
         <v>11</v>
@@ -9099,7 +9207,7 @@
         <v>101</v>
       </c>
       <c r="AE74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF74" t="n">
         <v>13</v>
@@ -9111,7 +9219,7 @@
         <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ74" t="n">
         <v>21</v>
@@ -9149,90 +9257,90 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="H75" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P75" t="n">
         <v>1.42</v>
       </c>
-      <c r="M75" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="N75" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P75" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q75" t="n">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="R75" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="S75" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T75" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U75" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="V75" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W75" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="X75" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y75" t="n">
         <v>35</v>
       </c>
       <c r="Z75" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AA75" t="n">
         <v>6.3</v>
       </c>
       <c r="AB75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC75" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AD75" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AG75" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AI75" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
@@ -9267,63 +9375,63 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I76" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M76" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="N76" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="O76" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P76" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="R76" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S76" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T76" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="U76" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="V76" t="n">
         <v>9</v>
       </c>
       <c r="W76" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X76" t="n">
         <v>19.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AA76" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB76" t="n">
         <v>15.5</v>
@@ -9332,25 +9440,25 @@
         <v>80</v>
       </c>
       <c r="AD76" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH76" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI76" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ76" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
@@ -9385,33 +9493,33 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.25</v>
+        <v>5.4</v>
       </c>
       <c r="H77" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I77" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P77" t="n">
         <v>1.39</v>
       </c>
-      <c r="M77" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N77" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q77" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="R77" t="n">
         <v>1.93</v>
@@ -9420,55 +9528,55 @@
         <v>1.7</v>
       </c>
       <c r="T77" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="U77" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="V77" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="W77" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="X77" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Y77" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z77" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AB77" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC77" t="n">
         <v>100</v>
       </c>
       <c r="AD77" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE77" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AF77" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AG77" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH77" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AI77" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AJ77" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -9503,13 +9611,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I78" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -9517,7 +9625,7 @@
         <v>1.39</v>
       </c>
       <c r="M78" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N78" t="n">
         <v>2.12</v>
@@ -9526,67 +9634,67 @@
         <v>1.57</v>
       </c>
       <c r="P78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="R78" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S78" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T78" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="U78" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="V78" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="W78" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="X78" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="n">
         <v>50</v>
       </c>
-      <c r="Y78" t="n">
-        <v>60</v>
-      </c>
       <c r="Z78" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB78" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC78" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD78" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AE78" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AF78" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AG78" t="n">
         <v>8.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -10484,10 +10592,10 @@
         <v>3.8</v>
       </c>
       <c r="J86" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L86" t="n">
         <v>1.36</v>
@@ -10496,10 +10604,10 @@
         <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O86" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P86" t="n">
         <v>1.44</v>
@@ -10596,15 +10704,25 @@
           <t>Opatija</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.45</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.53</v>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
@@ -11842,10 +11960,10 @@
         <v>4</v>
       </c>
       <c r="N99" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O99" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P99" t="n">
         <v>1.33</v>
@@ -11964,10 +12082,10 @@
         <v>3.75</v>
       </c>
       <c r="N100" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O100" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P100" t="n">
         <v>1.36</v>
@@ -12562,10 +12680,10 @@
         <v>1.95</v>
       </c>
       <c r="J105" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K105" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L105" t="n">
         <v>1.4</v>
@@ -12574,10 +12692,10 @@
         <v>3</v>
       </c>
       <c r="N105" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O105" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P105" t="n">
         <v>1.5</v>
@@ -12675,7 +12793,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H106" t="n">
         <v>3.6</v>
@@ -12690,16 +12808,16 @@
         <v>10</v>
       </c>
       <c r="L106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M106" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N106" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P106" t="n">
         <v>1.4</v>
@@ -13041,7 +13159,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H109" t="n">
         <v>4.33</v>
@@ -13166,7 +13284,7 @@
         <v>2.25</v>
       </c>
       <c r="H110" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I110" t="n">
         <v>3.3</v>
@@ -13175,7 +13293,7 @@
         <v>1.08</v>
       </c>
       <c r="K110" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L110" t="n">
         <v>1.44</v>
@@ -13244,7 +13362,7 @@
         <v>12</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
         <v>29</v>
@@ -13288,10 +13406,10 @@
         <v>3.1</v>
       </c>
       <c r="H111" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I111" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J111" t="n">
         <v>1.07</v>
@@ -13300,10 +13418,10 @@
         <v>8.5</v>
       </c>
       <c r="L111" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N111" t="n">
         <v>2.2</v>
@@ -13339,7 +13457,7 @@
         <v>26</v>
       </c>
       <c r="Y111" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z111" t="n">
         <v>8.5</v>
@@ -13366,7 +13484,7 @@
         <v>9.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI111" t="n">
         <v>21</v>
@@ -13407,7 +13525,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>3.5</v>
@@ -13532,16 +13650,16 @@
         <v>2.05</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I113" t="n">
         <v>3.25</v>
       </c>
       <c r="J113" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L113" t="n">
         <v>1.29</v>
@@ -13550,10 +13668,10 @@
         <v>3.75</v>
       </c>
       <c r="N113" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P113" t="n">
         <v>1.36</v>
@@ -13580,7 +13698,7 @@
         <v>19</v>
       </c>
       <c r="X113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y113" t="n">
         <v>26</v>
@@ -13598,7 +13716,7 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE113" t="n">
         <v>10</v>
@@ -13616,7 +13734,7 @@
         <v>26</v>
       </c>
       <c r="AJ113" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -14038,10 +14156,10 @@
         <v>3.5</v>
       </c>
       <c r="N117" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O117" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P117" t="n">
         <v>1.4</v>
@@ -14383,13 +14501,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I120" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J120" t="n">
         <v>1.03</v>
@@ -14434,7 +14552,7 @@
         <v>26</v>
       </c>
       <c r="X120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y120" t="n">
         <v>21</v>
@@ -14461,13 +14579,13 @@
         <v>15</v>
       </c>
       <c r="AG120" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ120" t="n">
         <v>21</v>
@@ -14871,13 +14989,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H124" t="n">
         <v>3.2</v>
       </c>
       <c r="I124" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J124" t="n">
         <v>1.08</v>
@@ -14898,22 +15016,22 @@
         <v>1.53</v>
       </c>
       <c r="P124" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R124" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S124" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T124" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U124" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V124" t="n">
         <v>9.5</v>
@@ -14928,19 +15046,19 @@
         <v>34</v>
       </c>
       <c r="Z124" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA124" t="n">
         <v>6</v>
       </c>
       <c r="AB124" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC124" t="n">
         <v>67</v>
       </c>
       <c r="AD124" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE124" t="n">
         <v>8</v>
@@ -14952,7 +15070,7 @@
         <v>12</v>
       </c>
       <c r="AH124" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI124" t="n">
         <v>29</v>
@@ -15008,31 +15126,31 @@
         <v>10</v>
       </c>
       <c r="L125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M125" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N125" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O125" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P125" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R125" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S125" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T125" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U125" t="n">
         <v>10</v>
@@ -15050,7 +15168,7 @@
         <v>29</v>
       </c>
       <c r="Z125" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA125" t="n">
         <v>6.5</v>
@@ -15062,10 +15180,10 @@
         <v>51</v>
       </c>
       <c r="AD125" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE125" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF125" t="n">
         <v>15</v>
@@ -15077,7 +15195,7 @@
         <v>34</v>
       </c>
       <c r="AI125" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -15136,10 +15254,10 @@
         <v>3.75</v>
       </c>
       <c r="N126" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O126" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P126" t="n">
         <v>1.36</v>
@@ -15359,13 +15477,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H128" t="n">
         <v>3.6</v>
       </c>
       <c r="I128" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
@@ -15398,13 +15516,13 @@
         <v>2.1</v>
       </c>
       <c r="T128" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U128" t="n">
         <v>15</v>
       </c>
       <c r="V128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W128" t="n">
         <v>29</v>
@@ -15431,7 +15549,7 @@
         <v>201</v>
       </c>
       <c r="AE128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF128" t="n">
         <v>12</v>
@@ -15969,13 +16087,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J133" t="n">
         <v>1.06</v>
@@ -16008,10 +16126,10 @@
         <v>1.8</v>
       </c>
       <c r="T133" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V133" t="n">
         <v>9</v>
@@ -16023,7 +16141,7 @@
         <v>19</v>
       </c>
       <c r="Y133" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z133" t="n">
         <v>9</v>
@@ -16041,16 +16159,16 @@
         <v>351</v>
       </c>
       <c r="AE133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG133" t="n">
         <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI133" t="n">
         <v>29</v>
@@ -16222,10 +16340,10 @@
         <v>6.25</v>
       </c>
       <c r="J135" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K135" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L135" t="n">
         <v>1.29</v>
@@ -16335,13 +16453,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="H136" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I136" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -16349,72 +16467,72 @@
         <v>1.23</v>
       </c>
       <c r="M136" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N136" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="O136" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S136" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="T136" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="U136" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="V136" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="W136" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X136" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y136" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z136" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AA136" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AB136" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AD136" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AE136" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AF136" t="n">
         <v>12</v>
       </c>
       <c r="AG136" t="n">
-        <v>8.199999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="AH136" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI136" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AJ136" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="137">
@@ -16449,13 +16567,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="H137" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="I137" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -16476,55 +16594,55 @@
         <v>1.72</v>
       </c>
       <c r="T137" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U137" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V137" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W137" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="X137" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y137" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Z137" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA137" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB137" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC137" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="AD137" t="n">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="AE137" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AF137" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AG137" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AH137" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AI137" t="n">
-        <v>8.199999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="AJ137" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138">
@@ -16559,13 +16677,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H138" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I138" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -16584,61 +16702,61 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="S138" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="T138" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U138" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="V138" t="n">
         <v>7</v>
       </c>
       <c r="W138" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X138" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y138" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z138" t="n">
         <v>12</v>
       </c>
       <c r="AA138" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB138" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC138" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD138" t="n">
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF138" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG138" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH138" t="n">
         <v>101</v>
       </c>
       <c r="AI138" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ138" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>80</v>
       </c>
     </row>
     <row r="139">
@@ -16700,7 +16818,7 @@
         <v>1.9</v>
       </c>
       <c r="P139" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q139" t="n">
         <v>3</v>
@@ -16822,7 +16940,7 @@
         <v>1.9</v>
       </c>
       <c r="P140" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q140" t="n">
         <v>3</v>
@@ -16932,19 +17050,19 @@
         <v>13</v>
       </c>
       <c r="L141" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M141" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N141" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O141" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P141" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q141" t="n">
         <v>3.4</v>
@@ -17039,86 +17157,90 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="H142" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I142" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="M142" t="n">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="N142" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="O142" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="P142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>2.52</v>
+      </c>
       <c r="R142" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S142" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T142" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="U142" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V142" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W142" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X142" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y142" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Z142" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB142" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF142" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>15.5</v>
       </c>
       <c r="AG142" t="n">
         <v>10</v>
       </c>
       <c r="AH142" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI142" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ142" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143">
@@ -17153,19 +17275,19 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H143" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I143" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J143" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L143" t="n">
         <v>1.29</v>
@@ -17186,7 +17308,7 @@
         <v>2.75</v>
       </c>
       <c r="R143" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S143" t="n">
         <v>2</v>
@@ -17201,7 +17323,7 @@
         <v>11</v>
       </c>
       <c r="W143" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X143" t="n">
         <v>23</v>
@@ -17213,7 +17335,7 @@
         <v>10</v>
       </c>
       <c r="AA143" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB143" t="n">
         <v>13</v>
@@ -17228,19 +17350,19 @@
         <v>8.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG143" t="n">
         <v>9.5</v>
       </c>
       <c r="AH143" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI143" t="n">
         <v>19</v>
       </c>
       <c r="AJ143" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
@@ -17311,7 +17433,7 @@
         <v>2.2</v>
       </c>
       <c r="S144" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T144" t="n">
         <v>7.5</v>
@@ -17430,7 +17552,7 @@
         <v>3.25</v>
       </c>
       <c r="R145" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S145" t="n">
         <v>2</v>
@@ -17885,7 +18007,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H149" t="n">
         <v>3.9</v>
@@ -18040,10 +18162,10 @@
         <v>3.75</v>
       </c>
       <c r="R150" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S150" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T150" t="n">
         <v>12</v>
@@ -18129,13 +18251,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H151" t="n">
         <v>3.4</v>
       </c>
       <c r="I151" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J151" t="n">
         <v>1.05</v>
@@ -18162,7 +18284,7 @@
         <v>2.75</v>
       </c>
       <c r="R151" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S151" t="n">
         <v>2</v>
@@ -18171,13 +18293,13 @@
         <v>8.5</v>
       </c>
       <c r="U151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V151" t="n">
         <v>10</v>
       </c>
       <c r="W151" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X151" t="n">
         <v>21</v>
@@ -18284,7 +18406,7 @@
         <v>3.75</v>
       </c>
       <c r="R152" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S152" t="n">
         <v>2.2</v>
@@ -18406,7 +18528,7 @@
         <v>3.75</v>
       </c>
       <c r="R153" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S153" t="n">
         <v>2.25</v>
@@ -18528,7 +18650,7 @@
         <v>2.75</v>
       </c>
       <c r="R154" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S154" t="n">
         <v>2</v>
@@ -18650,7 +18772,7 @@
         <v>3</v>
       </c>
       <c r="R155" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S155" t="n">
         <v>2</v>
@@ -18763,7 +18885,7 @@
         <v>2.4</v>
       </c>
       <c r="O156" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P156" t="n">
         <v>1.53</v>
@@ -18861,31 +18983,31 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>3.2</v>
       </c>
       <c r="I157" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J157" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K157" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M157" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N157" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O157" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P157" t="n">
         <v>1.44</v>
@@ -18982,36 +19104,82 @@
           <t>Kalamata</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.33</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.37</v>
+      </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
-      <c r="AA158" t="inlineStr"/>
-      <c r="AB158" t="inlineStr"/>
-      <c r="AC158" t="inlineStr"/>
+      <c r="T158" t="n">
+        <v>13</v>
+      </c>
+      <c r="U158" t="n">
+        <v>45</v>
+      </c>
+      <c r="V158" t="n">
+        <v>25</v>
+      </c>
+      <c r="W158" t="n">
+        <v>200</v>
+      </c>
+      <c r="X158" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>175</v>
+      </c>
       <c r="AD158" t="inlineStr"/>
-      <c r="AE158" t="inlineStr"/>
-      <c r="AF158" t="inlineStr"/>
-      <c r="AG158" t="inlineStr"/>
-      <c r="AH158" t="inlineStr"/>
-      <c r="AI158" t="inlineStr"/>
-      <c r="AJ158" t="inlineStr"/>
+      <c r="AE158" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19044,36 +19212,82 @@
           <t>Panionios</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2.25</v>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
+      <c r="P159" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.12</v>
+      </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
-      <c r="AA159" t="inlineStr"/>
-      <c r="AB159" t="inlineStr"/>
-      <c r="AC159" t="inlineStr"/>
+      <c r="T159" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V159" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>35</v>
+      </c>
+      <c r="X159" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>90</v>
+      </c>
       <c r="AD159" t="inlineStr"/>
-      <c r="AE159" t="inlineStr"/>
-      <c r="AF159" t="inlineStr"/>
-      <c r="AG159" t="inlineStr"/>
-      <c r="AH159" t="inlineStr"/>
-      <c r="AI159" t="inlineStr"/>
-      <c r="AJ159" t="inlineStr"/>
+      <c r="AE159" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19225,13 +19439,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I161" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -19260,31 +19474,31 @@
         <v>1.62</v>
       </c>
       <c r="T161" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="U161" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="V161" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W161" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="X161" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y161" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z161" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA161" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB161" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC161" t="n">
         <v>120</v>
@@ -19293,19 +19507,19 @@
         <v>101</v>
       </c>
       <c r="AE161" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AG161" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH161" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI161" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ161" t="n">
         <v>55</v>
@@ -19946,22 +20160,22 @@
         <v>2.8</v>
       </c>
       <c r="J167" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L167" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M167" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N167" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="O167" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P167" t="n">
         <v>1.4</v>
@@ -20804,10 +21018,10 @@
         <v>2.63</v>
       </c>
       <c r="N174" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O174" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P174" t="n">
         <v>1.53</v>
@@ -21506,83 +21720,83 @@
         <v>1.57</v>
       </c>
       <c r="H180" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I180" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M180" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="N180" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O180" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S180" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T180" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U180" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="V180" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W180" t="n">
         <v>11.25</v>
       </c>
       <c r="X180" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y180" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z180" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA180" t="n">
         <v>7.6</v>
       </c>
       <c r="AB180" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC180" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD180" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE180" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF180" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG180" t="n">
         <v>16.5</v>
       </c>
       <c r="AH180" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI180" t="n">
         <v>50</v>
       </c>
       <c r="AJ180" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181">
@@ -21620,32 +21834,32 @@
         <v>1.6</v>
       </c>
       <c r="H181" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I181" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M181" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N181" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O181" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S181" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T181" t="n">
         <v>6.7</v>
@@ -21654,49 +21868,49 @@
         <v>7.3</v>
       </c>
       <c r="V181" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W181" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X181" t="n">
         <v>13</v>
       </c>
       <c r="Y181" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z181" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA181" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC181" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD181" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE181" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF181" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG181" t="n">
         <v>16</v>
       </c>
       <c r="AH181" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI181" t="n">
         <v>50</v>
       </c>
       <c r="AJ181" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182">
@@ -22840,13 +23054,13 @@
         <v>3.1</v>
       </c>
       <c r="J192" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K192" t="n">
         <v>10</v>
       </c>
       <c r="L192" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M192" t="n">
         <v>3.4</v>
@@ -22959,16 +23173,16 @@
         <v>3.75</v>
       </c>
       <c r="I193" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J193" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K193" t="n">
         <v>10</v>
       </c>
       <c r="L193" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M193" t="n">
         <v>3.5</v>
@@ -22980,22 +23194,22 @@
         <v>1.88</v>
       </c>
       <c r="P193" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q193" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R193" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S193" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T193" t="n">
         <v>13</v>
       </c>
       <c r="U193" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V193" t="n">
         <v>17</v>
@@ -23028,13 +23242,13 @@
         <v>6.5</v>
       </c>
       <c r="AF193" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG193" t="n">
         <v>8.5</v>
       </c>
       <c r="AH193" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI193" t="n">
         <v>13</v>
@@ -23319,10 +23533,10 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H196" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I196" t="n">
         <v>1.53</v>
@@ -23352,13 +23566,13 @@
         <v>2.75</v>
       </c>
       <c r="R196" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S196" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T196" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U196" t="n">
         <v>29</v>
@@ -23376,31 +23590,31 @@
         <v>51</v>
       </c>
       <c r="Z196" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA196" t="n">
         <v>7.5</v>
       </c>
       <c r="AB196" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC196" t="n">
         <v>67</v>
       </c>
       <c r="AD196" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF196" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AF196" t="n">
-        <v>7</v>
       </c>
       <c r="AG196" t="n">
         <v>8.5</v>
       </c>
       <c r="AH196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI196" t="n">
         <v>13</v>
@@ -23450,13 +23664,13 @@
         <v>2.9</v>
       </c>
       <c r="J197" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K197" t="n">
         <v>10</v>
       </c>
       <c r="L197" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M197" t="n">
         <v>3.25</v>
@@ -23465,7 +23679,7 @@
         <v>2.05</v>
       </c>
       <c r="O197" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P197" t="n">
         <v>1.44</v>
@@ -23572,22 +23786,22 @@
         <v>4.75</v>
       </c>
       <c r="J198" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K198" t="n">
         <v>11</v>
       </c>
       <c r="L198" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M198" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N198" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O198" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P198" t="n">
         <v>1.4</v>
@@ -24755,70 +24969,70 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="H208" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I208" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="J208" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K208" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="L208" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="M208" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N208" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O208" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P208" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R208" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S208" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T208" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="U208" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="V208" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W208" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X208" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y208" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB208" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC208" t="n">
         <v>110</v>
@@ -24827,22 +25041,22 @@
         <v>1000</v>
       </c>
       <c r="AE208" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF208" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG208" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AH208" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AI208" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AJ208" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209">
@@ -26091,13 +26305,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H223" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I223" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J223" t="n">
         <v>1.03</v>
@@ -26139,7 +26353,7 @@
         <v>8.5</v>
       </c>
       <c r="W223" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X223" t="n">
         <v>11</v>
@@ -26163,13 +26377,13 @@
         <v>201</v>
       </c>
       <c r="AE223" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF223" t="n">
         <v>34</v>
       </c>
       <c r="AG223" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH223" t="n">
         <v>67</v>
@@ -26484,10 +26698,10 @@
         <v>2.75</v>
       </c>
       <c r="P226" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q226" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R226" t="n">
         <v>1.8</v>
@@ -26502,7 +26716,7 @@
         <v>41</v>
       </c>
       <c r="V226" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W226" t="n">
         <v>101</v>
@@ -26954,10 +27168,10 @@
         <v>3.4</v>
       </c>
       <c r="J230" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K230" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L230" t="n">
         <v>1.33</v>
@@ -26972,10 +27186,10 @@
         <v>1.75</v>
       </c>
       <c r="P230" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q230" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R230" t="n">
         <v>1.83</v>
@@ -26984,13 +27198,13 @@
         <v>1.83</v>
       </c>
       <c r="T230" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U230" t="n">
         <v>9.5</v>
       </c>
       <c r="V230" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W230" t="n">
         <v>17</v>
@@ -27002,7 +27216,7 @@
         <v>29</v>
       </c>
       <c r="Z230" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA230" t="n">
         <v>6.5</v>
@@ -27311,94 +27525,94 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H233" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I233" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="J233" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K233" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="L233" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="M233" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="N233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S233" t="n">
         <v>1.7</v>
       </c>
-      <c r="O233" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P233" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>3</v>
-      </c>
-      <c r="R233" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S233" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T233" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="U233" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="V233" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W233" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="X233" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y233" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Z233" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AA233" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AB233" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AC233" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AD233" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AE233" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF233" t="n">
         <v>32</v>
       </c>
       <c r="AG233" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH233" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI233" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ233" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234">
@@ -27436,46 +27650,46 @@
         <v>2.27</v>
       </c>
       <c r="H234" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I234" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J234" t="n">
         <v>1.06</v>
       </c>
       <c r="K234" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L234" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M234" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N234" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O234" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P234" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q234" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="R234" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S234" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T234" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U234" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V234" t="n">
         <v>9.5</v>
@@ -27490,10 +27704,10 @@
         <v>28</v>
       </c>
       <c r="Z234" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA234" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB234" t="n">
         <v>14</v>
@@ -27502,22 +27716,22 @@
         <v>60</v>
       </c>
       <c r="AD234" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE234" t="n">
         <v>9.75</v>
       </c>
       <c r="AF234" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG234" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH234" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI234" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ234" t="n">
         <v>35</v>
@@ -28064,10 +28278,10 @@
         <v>3.4</v>
       </c>
       <c r="N239" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="O239" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="P239" t="n">
         <v>1.4</v>
@@ -28778,46 +28992,46 @@
         <v>1.42</v>
       </c>
       <c r="H245" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I245" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J245" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K245" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L245" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M245" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N245" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O245" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P245" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q245" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R245" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S245" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T245" t="n">
+        <v>8</v>
+      </c>
+      <c r="U245" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U245" t="n">
-        <v>7</v>
       </c>
       <c r="V245" t="n">
         <v>8.5</v>
@@ -28826,28 +29040,28 @@
         <v>9.5</v>
       </c>
       <c r="X245" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y245" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z245" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA245" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB245" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC245" t="n">
         <v>51</v>
       </c>
       <c r="AD245" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE245" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF245" t="n">
         <v>34</v>
@@ -28862,7 +29076,7 @@
         <v>51</v>
       </c>
       <c r="AJ245" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246">
@@ -28897,13 +29111,13 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H246" t="n">
         <v>3.2</v>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J246" t="n">
         <v>1.06</v>
@@ -28924,16 +29138,16 @@
         <v>1.75</v>
       </c>
       <c r="P246" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R246" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S246" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T246" t="n">
         <v>7.5</v>
@@ -28945,10 +29159,10 @@
         <v>9.5</v>
       </c>
       <c r="W246" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X246" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y246" t="n">
         <v>29</v>
@@ -28969,16 +29183,16 @@
         <v>251</v>
       </c>
       <c r="AE246" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF246" t="n">
         <v>15</v>
       </c>
       <c r="AG246" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH246" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI246" t="n">
         <v>26</v>
@@ -29034,16 +29248,16 @@
         <v>9</v>
       </c>
       <c r="L247" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M247" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N247" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O247" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P247" t="n">
         <v>1.44</v>
@@ -29385,10 +29599,10 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I250" t="n">
         <v>3.2</v>
@@ -29400,34 +29614,34 @@
         <v>8</v>
       </c>
       <c r="L250" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M250" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N250" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="O250" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="P250" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R250" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S250" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T250" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U250" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V250" t="n">
         <v>9.5</v>
@@ -29436,28 +29650,28 @@
         <v>21</v>
       </c>
       <c r="X250" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y250" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z250" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA250" t="n">
         <v>6</v>
       </c>
       <c r="AB250" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC250" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD250" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE250" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF250" t="n">
         <v>17</v>
@@ -29469,10 +29683,10 @@
         <v>34</v>
       </c>
       <c r="AI250" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ250" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251">
@@ -29873,13 +30087,13 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H254" t="n">
         <v>3</v>
       </c>
       <c r="I254" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="J254" t="n">
         <v>1.08</v>
@@ -29900,10 +30114,10 @@
         <v>1.62</v>
       </c>
       <c r="P254" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q254" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R254" t="n">
         <v>1.91</v>
@@ -29912,19 +30126,19 @@
         <v>1.8</v>
       </c>
       <c r="T254" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U254" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W254" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X254" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y254" t="n">
         <v>34</v>
@@ -29942,22 +30156,22 @@
         <v>51</v>
       </c>
       <c r="AD254" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE254" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF254" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG254" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH254" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI254" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ254" t="n">
         <v>41</v>
@@ -30992,10 +31206,10 @@
         <v>6</v>
       </c>
       <c r="N263" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O263" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P263" t="n">
         <v>1.25</v>
@@ -31093,13 +31307,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="H264" t="n">
         <v>2.95</v>
       </c>
       <c r="I264" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
       <c r="J264" t="n">
         <v>1.11</v>
@@ -31126,58 +31340,58 @@
         <v>2.25</v>
       </c>
       <c r="R264" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S264" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T264" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="U264" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="V264" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="W264" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="X264" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Y264" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z264" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA264" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB264" t="n">
         <v>18</v>
       </c>
       <c r="AC264" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD264" t="n">
         <v>101</v>
       </c>
       <c r="AE264" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AF264" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG264" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH264" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI264" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ264" t="n">
         <v>45</v>
@@ -31333,70 +31547,70 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="H266" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I266" t="n">
         <v>1.91</v>
       </c>
       <c r="J266" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K266" t="n">
         <v>5.8</v>
       </c>
       <c r="L266" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M266" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P266" t="n">
         <v>1.53</v>
       </c>
-      <c r="M266" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N266" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O266" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P266" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q266" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R266" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S266" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T266" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U266" t="n">
         <v>23</v>
       </c>
       <c r="V266" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="W266" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X266" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y266" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z266" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA266" t="n">
         <v>6</v>
       </c>
       <c r="AB266" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC266" t="n">
         <v>150</v>
@@ -31408,10 +31622,10 @@
         <v>5</v>
       </c>
       <c r="AF266" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG266" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH266" t="n">
         <v>16.5</v>
@@ -32175,13 +32389,13 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I273" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J273" t="n">
         <v>1.03</v>
@@ -32223,7 +32437,7 @@
         <v>8.5</v>
       </c>
       <c r="W273" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X273" t="n">
         <v>12</v>
@@ -32259,7 +32473,7 @@
         <v>51</v>
       </c>
       <c r="AI273" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ273" t="n">
         <v>41</v>
@@ -32443,7 +32657,7 @@
         <v>2.05</v>
       </c>
       <c r="O275" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P275" t="n">
         <v>1.4</v>
@@ -32458,10 +32672,10 @@
         <v>1.91</v>
       </c>
       <c r="T275" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U275" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V275" t="n">
         <v>8.5</v>
@@ -32910,34 +33124,34 @@
         <v>1.48</v>
       </c>
       <c r="H279" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I279" t="n">
         <v>6.25</v>
       </c>
       <c r="J279" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K279" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L279" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M279" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N279" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O279" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P279" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q279" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R279" t="n">
         <v>1.62</v>
@@ -32946,28 +33160,28 @@
         <v>2.2</v>
       </c>
       <c r="T279" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U279" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V279" t="n">
         <v>8.5</v>
       </c>
       <c r="W279" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X279" t="n">
         <v>11</v>
       </c>
       <c r="Y279" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z279" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA279" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB279" t="n">
         <v>15</v>
@@ -32976,7 +33190,7 @@
         <v>41</v>
       </c>
       <c r="AD279" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE279" t="n">
         <v>21</v>
@@ -33172,10 +33386,10 @@
         <v>3.4</v>
       </c>
       <c r="N281" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="O281" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P281" t="n">
         <v>1.4</v>
@@ -33404,22 +33618,22 @@
         <v>2.7</v>
       </c>
       <c r="J283" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K283" t="n">
         <v>11</v>
       </c>
       <c r="L283" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M283" t="n">
         <v>3.5</v>
       </c>
       <c r="N283" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O283" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P283" t="n">
         <v>1.4</v>
@@ -33867,13 +34081,13 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H287" t="n">
         <v>3.55</v>
       </c>
       <c r="I287" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="J287" t="n">
         <v>1.03</v>
@@ -33891,7 +34105,7 @@
         <v>1.5</v>
       </c>
       <c r="O287" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="P287" t="n">
         <v>1.27</v>
@@ -33900,13 +34114,13 @@
         <v>3.4</v>
       </c>
       <c r="R287" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S287" t="n">
         <v>2.57</v>
       </c>
       <c r="T287" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U287" t="n">
         <v>14.5</v>
@@ -33918,16 +34132,16 @@
         <v>25</v>
       </c>
       <c r="X287" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y287" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z287" t="n">
         <v>9.25</v>
       </c>
       <c r="AA287" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB287" t="n">
         <v>11</v>
@@ -33951,10 +34165,10 @@
         <v>35</v>
       </c>
       <c r="AI287" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ287" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288">

--- a/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
         <v>11</v>
@@ -665,13 +665,13 @@
         <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
         <v>7.5</v>
@@ -710,13 +710,13 @@
         <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>67</v>
       </c>
       <c r="AD2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -778,13 +778,13 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
         <v>4.33</v>
@@ -802,7 +802,7 @@
         <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>2.05</v>
@@ -823,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -838,7 +838,7 @@
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -891,22 +891,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I4" t="n">
         <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M4" t="n">
         <v>7</v>
@@ -918,49 +918,49 @@
         <v>3.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
         <v>41</v>
@@ -969,7 +969,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
         <v>201</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1.62</v>
@@ -1040,10 +1040,10 @@
         <v>2.1</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
         <v>1.75</v>
@@ -1055,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="U5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X5" t="n">
         <v>41</v>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1085,7 +1085,7 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
         <v>9</v>
@@ -1094,10 +1094,10 @@
         <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>26</v>
@@ -1138,16 +1138,16 @@
         <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1210,13 +1210,13 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
@@ -1406,10 +1406,10 @@
         <v>2.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
         <v>1.62</v>
@@ -1418,7 +1418,7 @@
         <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U8" t="n">
         <v>41</v>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1552,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I10" t="n">
         <v>8.5</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="O10" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1656,19 +1656,19 @@
         <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
         <v>8.5</v>
@@ -1680,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>9</v>
@@ -1692,7 +1692,7 @@
         <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -1805,7 +1805,7 @@
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -1817,13 +1817,13 @@
         <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH11" t="n">
         <v>126</v>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2189,7 +2189,7 @@
         <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L15" t="n">
         <v>1.14</v>
@@ -2254,22 +2254,22 @@
         <v>5.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T15" t="n">
         <v>13</v>
@@ -2278,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="V15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W15" t="n">
         <v>21</v>
@@ -2305,13 +2305,13 @@
         <v>81</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>34</v>
@@ -2320,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2364,28 +2364,28 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
         <v>2.2</v>
@@ -2418,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>81</v>
@@ -2427,7 +2427,7 @@
         <v>501</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.14</v>
@@ -2552,7 +2552,7 @@
         <v>7</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -2605,13 +2605,13 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2626,10 +2626,10 @@
         <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
         <v>2.1</v>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.14</v>
@@ -3340,16 +3340,16 @@
         <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N24" t="n">
         <v>3.1</v>
@@ -3462,10 +3462,10 @@
         <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.8</v>
@@ -3474,16 +3474,16 @@
         <v>1.91</v>
       </c>
       <c r="N25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
         <v>3</v>
@@ -3706,10 +3706,10 @@
         <v>2.25</v>
       </c>
       <c r="J27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
         <v>1.67</v>
@@ -3822,16 +3822,16 @@
         <v>1.91</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
         <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
@@ -3840,13 +3840,13 @@
         <v>4.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q28" t="n">
         <v>3.5</v>
@@ -3879,7 +3879,7 @@
         <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
         <v>12</v>
@@ -3962,13 +3962,13 @@
         <v>8</v>
       </c>
       <c r="N29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Q29" t="n">
         <v>5</v>
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Q30" t="n">
         <v>4.33</v>
@@ -4185,25 +4185,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
         <v>2.2</v>
@@ -4212,16 +4212,16 @@
         <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T31" t="n">
         <v>6</v>
@@ -4242,7 +4242,7 @@
         <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA31" t="n">
         <v>6.5</v>
@@ -4260,16 +4260,16 @@
         <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
         <v>41</v>
@@ -4313,7 +4313,7 @@
         <v>4.33</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4346,7 +4346,7 @@
         <v>2.05</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
         <v>8.5</v>
@@ -4364,7 +4364,7 @@
         <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
@@ -4376,7 +4376,7 @@
         <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE32" t="n">
         <v>17</v>
@@ -4574,10 +4574,10 @@
         <v>1.62</v>
       </c>
       <c r="P34" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
         <v>2.07</v>
@@ -4586,7 +4586,7 @@
         <v>1.6</v>
       </c>
       <c r="T34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U34" t="n">
         <v>35</v>
@@ -4604,7 +4604,7 @@
         <v>90</v>
       </c>
       <c r="Z34" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA34" t="n">
         <v>7.2</v>
@@ -4625,7 +4625,7 @@
         <v>6.4</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH34" t="n">
         <v>10.75</v>
@@ -4858,28 +4858,28 @@
         <v>2.05</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P38" t="n">
         <v>1.33</v>
@@ -4888,16 +4888,16 @@
         <v>3.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T38" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V38" t="n">
         <v>9</v>
@@ -4909,16 +4909,16 @@
         <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
         <v>13</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>12</v>
       </c>
       <c r="AC38" t="n">
         <v>41</v>
@@ -4927,22 +4927,22 @@
         <v>151</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
         <v>19</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
         <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -5221,22 +5221,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
         <v>13</v>
       </c>
       <c r="L41" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -5263,16 +5263,16 @@
         <v>8</v>
       </c>
       <c r="U41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
         <v>23</v>
@@ -5281,13 +5281,13 @@
         <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB41" t="n">
         <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
         <v>201</v>
@@ -5296,10 +5296,10 @@
         <v>15</v>
       </c>
       <c r="AF41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
         <v>51</v>
@@ -5358,7 +5358,7 @@
         <v>23</v>
       </c>
       <c r="L42" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M42" t="n">
         <v>7</v>
@@ -5474,13 +5474,13 @@
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
         <v>17</v>
       </c>
       <c r="L43" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -5596,13 +5596,13 @@
         <v>1.85</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
         <v>11</v>
       </c>
       <c r="L44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="n">
         <v>3.5</v>
@@ -5720,10 +5720,10 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N45" t="n">
         <v>1.65</v>
@@ -5734,10 +5734,10 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S45" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T45" t="n">
         <v>9.25</v>
@@ -5752,19 +5752,19 @@
         <v>21</v>
       </c>
       <c r="X45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
         <v>22</v>
       </c>
       <c r="Z45" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA45" t="n">
         <v>6.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>45</v>
@@ -5773,10 +5773,10 @@
         <v>300</v>
       </c>
       <c r="AE45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF45" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AG45" t="n">
         <v>11</v>
@@ -5785,10 +5785,10 @@
         <v>45</v>
       </c>
       <c r="AI45" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ45" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -5834,22 +5834,22 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N46" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O46" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P46" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R46" t="n">
         <v>2.02</v>
@@ -5858,34 +5858,34 @@
         <v>1.62</v>
       </c>
       <c r="T46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U46" t="n">
         <v>40</v>
       </c>
       <c r="V46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W46" t="n">
         <v>150</v>
       </c>
       <c r="X46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA46" t="n">
         <v>7.3</v>
       </c>
       <c r="AB46" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD46" t="n">
         <v>800</v>
@@ -6063,13 +6063,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J48" t="n">
         <v>1.11</v>
@@ -6129,7 +6129,7 @@
         <v>19</v>
       </c>
       <c r="AC48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="n">
         <v>501</v>
@@ -6188,10 +6188,10 @@
         <v>2.8</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
@@ -6313,7 +6313,7 @@
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
         <v>1.08</v>
@@ -6346,10 +6346,10 @@
         <v>1.75</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V50" t="n">
         <v>10</v>
@@ -6388,7 +6388,7 @@
         <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI50" t="n">
         <v>26</v>
@@ -6435,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J51" t="n">
         <v>1.1</v>
@@ -6474,7 +6474,7 @@
         <v>10</v>
       </c>
       <c r="V51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W51" t="n">
         <v>21</v>
@@ -6489,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="AA51" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB51" t="n">
         <v>17</v>
@@ -6504,7 +6504,7 @@
         <v>8.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
@@ -6551,7 +6551,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H52" t="n">
         <v>2.85</v>
@@ -6572,31 +6572,31 @@
         <v>2.42</v>
       </c>
       <c r="N52" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O52" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P52" t="n">
         <v>1.55</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R52" t="n">
         <v>2.02</v>
       </c>
       <c r="S52" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T52" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U52" t="n">
         <v>10.75</v>
       </c>
       <c r="V52" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W52" t="n">
         <v>26</v>
@@ -6673,19 +6673,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>2.55</v>
       </c>
       <c r="I53" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J53" t="n">
         <v>1.13</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L53" t="n">
         <v>1.5</v>
@@ -6703,7 +6703,7 @@
         <v>1.55</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R53" t="n">
         <v>1.93</v>
@@ -6712,25 +6712,25 @@
         <v>1.78</v>
       </c>
       <c r="T53" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U53" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
         <v>9.25</v>
       </c>
       <c r="W53" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X53" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
         <v>37</v>
       </c>
       <c r="Z53" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AA53" t="n">
         <v>5.1</v>
@@ -6745,10 +6745,10 @@
         <v>800</v>
       </c>
       <c r="AE53" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF53" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG53" t="n">
         <v>12</v>
@@ -7039,13 +7039,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J56" t="n">
         <v>1.08</v>
@@ -7060,10 +7060,10 @@
         <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P56" t="n">
         <v>1.44</v>
@@ -7099,7 +7099,7 @@
         <v>8</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB56" t="n">
         <v>21</v>
@@ -8037,16 +8037,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H65" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I65" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="J65" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K65" t="n">
         <v>7.6</v>
@@ -8058,7 +8058,7 @@
         <v>3.15</v>
       </c>
       <c r="N65" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O65" t="n">
         <v>1.78</v>
@@ -8070,25 +8070,25 @@
         <v>2.67</v>
       </c>
       <c r="R65" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S65" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T65" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U65" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V65" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W65" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X65" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y65" t="n">
         <v>40</v>
@@ -8097,7 +8097,7 @@
         <v>7.6</v>
       </c>
       <c r="AA65" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB65" t="n">
         <v>16</v>
@@ -8109,19 +8109,19 @@
         <v>700</v>
       </c>
       <c r="AE65" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG65" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH65" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI65" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ65" t="n">
         <v>32</v>
@@ -8406,91 +8406,91 @@
         <v>3.3</v>
       </c>
       <c r="H68" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I68" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="J68" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K68" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="L68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M68" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="N68" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="O68" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="R68" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S68" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="T68" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="U68" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="V68" t="n">
         <v>12</v>
       </c>
       <c r="W68" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X68" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y68" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z68" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC68" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD68" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AF68" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH68" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI68" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ68" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -8647,94 +8647,94 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H70" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J70" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K70" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L70" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M70" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O70" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P70" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="R70" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S70" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T70" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="U70" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V70" t="n">
         <v>9.25</v>
       </c>
       <c r="W70" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X70" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z70" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AB70" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD70" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE70" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF70" t="n">
         <v>20</v>
       </c>
       <c r="AG70" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH70" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI70" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ70" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
@@ -8769,13 +8769,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="H71" t="n">
         <v>3.15</v>
       </c>
       <c r="I71" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J71" t="n">
         <v>1.09</v>
@@ -8796,28 +8796,28 @@
         <v>1.65</v>
       </c>
       <c r="P71" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R71" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S71" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T71" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="U71" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="V71" t="n">
         <v>9.75</v>
       </c>
       <c r="W71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X71" t="n">
         <v>22</v>
@@ -8841,16 +8841,16 @@
         <v>900</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF71" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG71" t="n">
         <v>12</v>
       </c>
       <c r="AH71" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI71" t="n">
         <v>32</v>
@@ -8891,10 +8891,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H72" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I72" t="n">
         <v>1.48</v>
@@ -8903,7 +8903,7 @@
         <v>1.03</v>
       </c>
       <c r="K72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L72" t="n">
         <v>1.18</v>
@@ -8924,22 +8924,22 @@
         <v>3.5</v>
       </c>
       <c r="R72" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T72" t="n">
         <v>17</v>
       </c>
       <c r="U72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V72" t="n">
         <v>17</v>
       </c>
       <c r="W72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X72" t="n">
         <v>41</v>
@@ -8948,7 +8948,7 @@
         <v>41</v>
       </c>
       <c r="Z72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA72" t="n">
         <v>9</v>
@@ -8963,10 +8963,10 @@
         <v>201</v>
       </c>
       <c r="AE72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG72" t="n">
         <v>8.5</v>
@@ -8978,7 +8978,7 @@
         <v>11</v>
       </c>
       <c r="AJ72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -9016,16 +9016,16 @@
         <v>2.7</v>
       </c>
       <c r="H73" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J73" t="n">
         <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L73" t="n">
         <v>1.33</v>
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>3.7</v>
@@ -9150,10 +9150,10 @@
         <v>17</v>
       </c>
       <c r="L74" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N74" t="n">
         <v>1.53</v>
@@ -9213,7 +9213,7 @@
         <v>13</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
@@ -9257,13 +9257,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H75" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -9280,49 +9280,49 @@
         <v>1.57</v>
       </c>
       <c r="P75" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R75" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S75" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T75" t="n">
         <v>6</v>
       </c>
       <c r="U75" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V75" t="n">
         <v>8.75</v>
       </c>
       <c r="W75" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X75" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y75" t="n">
         <v>35</v>
       </c>
       <c r="Z75" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB75" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC75" t="n">
         <v>90</v>
       </c>
       <c r="AD75" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE75" t="n">
         <v>9.5</v>
@@ -9331,16 +9331,16 @@
         <v>20</v>
       </c>
       <c r="AG75" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH75" t="n">
         <v>60</v>
       </c>
       <c r="AI75" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ75" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H76" t="n">
         <v>3.1</v>
       </c>
       <c r="I76" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -9401,28 +9401,28 @@
         <v>1.42</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R76" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S76" t="n">
         <v>1.78</v>
       </c>
       <c r="T76" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U76" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V76" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W76" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X76" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y76" t="n">
         <v>32</v>
@@ -9443,22 +9443,22 @@
         <v>700</v>
       </c>
       <c r="AE76" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF76" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG76" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH76" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI76" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ76" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
@@ -9493,51 +9493,51 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H77" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I77" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M77" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R77" t="n">
         <v>1.98</v>
       </c>
-      <c r="O77" t="n">
+      <c r="S77" t="n">
         <v>1.65</v>
       </c>
-      <c r="P77" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1.7</v>
-      </c>
       <c r="T77" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V77" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="W77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X77" t="n">
         <v>65</v>
@@ -9546,37 +9546,37 @@
         <v>70</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AB77" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC77" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD77" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE77" t="n">
         <v>5.9</v>
       </c>
       <c r="AF77" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AG77" t="n">
         <v>8.25</v>
       </c>
       <c r="AH77" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI77" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -9611,24 +9611,24 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M78" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O78" t="n">
         <v>1.57</v>
@@ -9637,61 +9637,61 @@
         <v>1.44</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R78" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S78" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U78" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="V78" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W78" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z78" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AA78" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC78" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD78" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE78" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF78" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AG78" t="n">
         <v>8.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI78" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ78" t="n">
         <v>32</v>
@@ -10104,10 +10104,10 @@
         <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K82" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L82" t="n">
         <v>1.44</v>
@@ -10229,7 +10229,7 @@
         <v>1.08</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L83" t="n">
         <v>1.36</v>
@@ -10250,16 +10250,16 @@
         <v>2.5</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S83" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V83" t="n">
         <v>13</v>
@@ -10283,10 +10283,10 @@
         <v>17</v>
       </c>
       <c r="AC83" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD83" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE83" t="n">
         <v>6.5</v>
@@ -10295,10 +10295,10 @@
         <v>9</v>
       </c>
       <c r="AG83" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI83" t="n">
         <v>19</v>
@@ -10713,37 +10713,85 @@
       <c r="I87" t="n">
         <v>2.45</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K87" t="n">
+        <v>7</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2.63</v>
+      </c>
       <c r="N87" t="n">
         <v>2.38</v>
       </c>
       <c r="O87" t="n">
         <v>1.53</v>
       </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
+      <c r="P87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>13</v>
+      </c>
+      <c r="V87" t="n">
+        <v>12</v>
+      </c>
+      <c r="W87" t="n">
+        <v>29</v>
+      </c>
+      <c r="X87" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>67</v>
+      </c>
       <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
-      <c r="AH87" t="inlineStr"/>
-      <c r="AI87" t="inlineStr"/>
-      <c r="AJ87" t="inlineStr"/>
+      <c r="AE87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10776,36 +10824,96 @@
           <t>Croatia Zmijavci</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K88" t="n">
+        <v>7</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T88" t="n">
+        <v>6</v>
+      </c>
+      <c r="U88" t="n">
+        <v>8</v>
+      </c>
+      <c r="V88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W88" t="n">
+        <v>15</v>
+      </c>
+      <c r="X88" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10838,36 +10946,96 @@
           <t>Rudes</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
-      <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr"/>
-      <c r="AH89" t="inlineStr"/>
-      <c r="AI89" t="inlineStr"/>
-      <c r="AJ89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K89" t="n">
+        <v>8</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>13</v>
+      </c>
+      <c r="V89" t="n">
+        <v>11</v>
+      </c>
+      <c r="W89" t="n">
+        <v>34</v>
+      </c>
+      <c r="X89" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10900,36 +11068,96 @@
           <t>Bijelo Brdo</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T90" t="n">
+        <v>6</v>
+      </c>
+      <c r="U90" t="n">
+        <v>10</v>
+      </c>
+      <c r="V90" t="n">
+        <v>11</v>
+      </c>
+      <c r="W90" t="n">
+        <v>23</v>
+      </c>
+      <c r="X90" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11085,13 +11313,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I92" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J92" t="n">
         <v>1.06</v>
@@ -11103,13 +11331,13 @@
         <v>1.29</v>
       </c>
       <c r="M92" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N92" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O92" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P92" t="n">
         <v>1.42</v>
@@ -11130,13 +11358,13 @@
         <v>23</v>
       </c>
       <c r="V92" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W92" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X92" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y92" t="n">
         <v>40</v>
@@ -11163,7 +11391,7 @@
         <v>9.75</v>
       </c>
       <c r="AG92" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH92" t="n">
         <v>18</v>
@@ -11219,19 +11447,19 @@
         <v>1.03</v>
       </c>
       <c r="K93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L93" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M93" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N93" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O93" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P93" t="n">
         <v>1.3</v>
@@ -11585,7 +11813,7 @@
         <v>1.07</v>
       </c>
       <c r="K96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L96" t="n">
         <v>1.36</v>
@@ -11627,22 +11855,22 @@
         <v>19</v>
       </c>
       <c r="Y96" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA96" t="n">
         <v>6.5</v>
       </c>
       <c r="AB96" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC96" t="n">
         <v>51</v>
       </c>
       <c r="AD96" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE96" t="n">
         <v>9</v>
@@ -11951,7 +12179,7 @@
         <v>1.04</v>
       </c>
       <c r="K99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L99" t="n">
         <v>1.22</v>
@@ -11960,7 +12188,7 @@
         <v>4</v>
       </c>
       <c r="N99" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O99" t="n">
         <v>2.05</v>
@@ -11993,10 +12221,10 @@
         <v>12</v>
       </c>
       <c r="Y99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA99" t="n">
         <v>8</v>
@@ -12106,7 +12334,7 @@
         <v>17</v>
       </c>
       <c r="V100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W100" t="n">
         <v>34</v>
@@ -12115,13 +12343,13 @@
         <v>26</v>
       </c>
       <c r="Y100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z100" t="n">
         <v>11</v>
       </c>
       <c r="AA100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB100" t="n">
         <v>13</v>
@@ -12549,7 +12777,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>3.25</v>
@@ -12561,7 +12789,7 @@
         <v>1.06</v>
       </c>
       <c r="K104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L104" t="n">
         <v>1.3</v>
@@ -12588,16 +12816,16 @@
         <v>2</v>
       </c>
       <c r="T104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V104" t="n">
         <v>10</v>
       </c>
       <c r="W104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X104" t="n">
         <v>21</v>
@@ -12606,7 +12834,7 @@
         <v>29</v>
       </c>
       <c r="Z104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA104" t="n">
         <v>6</v>
@@ -12624,16 +12852,16 @@
         <v>9</v>
       </c>
       <c r="AF104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH104" t="n">
         <v>29</v>
       </c>
       <c r="AI104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ104" t="n">
         <v>29</v>
@@ -12671,19 +12899,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H105" t="n">
         <v>3.5</v>
       </c>
       <c r="I105" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J105" t="n">
         <v>1.07</v>
       </c>
       <c r="K105" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L105" t="n">
         <v>1.4</v>
@@ -12698,10 +12926,10 @@
         <v>1.67</v>
       </c>
       <c r="P105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R105" t="n">
         <v>2</v>
@@ -12710,7 +12938,7 @@
         <v>1.73</v>
       </c>
       <c r="T105" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U105" t="n">
         <v>19</v>
@@ -12728,7 +12956,7 @@
         <v>41</v>
       </c>
       <c r="Z105" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA105" t="n">
         <v>6.5</v>
@@ -12740,10 +12968,10 @@
         <v>67</v>
       </c>
       <c r="AD105" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE105" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF105" t="n">
         <v>8.5</v>
@@ -12752,10 +12980,10 @@
         <v>9</v>
       </c>
       <c r="AH105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI105" t="n">
         <v>17</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>19</v>
       </c>
       <c r="AJ105" t="n">
         <v>34</v>
@@ -12793,7 +13021,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>3.6</v>
@@ -12915,19 +13143,19 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J107" t="n">
         <v>1.07</v>
       </c>
       <c r="K107" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L107" t="n">
         <v>1.36</v>
@@ -12942,28 +13170,28 @@
         <v>1.73</v>
       </c>
       <c r="P107" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R107" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S107" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V107" t="n">
         <v>9.5</v>
       </c>
       <c r="W107" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X107" t="n">
         <v>19</v>
@@ -12972,7 +13200,7 @@
         <v>29</v>
       </c>
       <c r="Z107" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA107" t="n">
         <v>6</v>
@@ -12984,25 +13212,25 @@
         <v>51</v>
       </c>
       <c r="AD107" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE107" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF107" t="n">
         <v>15</v>
       </c>
       <c r="AG107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH107" t="n">
         <v>34</v>
       </c>
       <c r="AI107" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108">
@@ -13037,13 +13265,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I108" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J108" t="n">
         <v>1.11</v>
@@ -13064,16 +13292,16 @@
         <v>1.5</v>
       </c>
       <c r="P108" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R108" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S108" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T108" t="n">
         <v>6</v>
@@ -13085,7 +13313,7 @@
         <v>10</v>
       </c>
       <c r="W108" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X108" t="n">
         <v>23</v>
@@ -13115,7 +13343,7 @@
         <v>15</v>
       </c>
       <c r="AG108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH108" t="n">
         <v>34</v>
@@ -13159,7 +13387,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H109" t="n">
         <v>4.33</v>
@@ -13171,7 +13399,7 @@
         <v>1.03</v>
       </c>
       <c r="K109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L109" t="n">
         <v>1.17</v>
@@ -13180,10 +13408,10 @@
         <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O109" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P109" t="n">
         <v>1.25</v>
@@ -13281,13 +13509,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I110" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J110" t="n">
         <v>1.08</v>
@@ -13329,7 +13557,7 @@
         <v>9.5</v>
       </c>
       <c r="W110" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X110" t="n">
         <v>21</v>
@@ -13353,19 +13581,19 @@
         <v>451</v>
       </c>
       <c r="AE110" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH110" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI110" t="n">
         <v>34</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>29</v>
       </c>
       <c r="AJ110" t="n">
         <v>41</v>
@@ -13403,7 +13631,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>3.25</v>
@@ -13415,13 +13643,13 @@
         <v>1.07</v>
       </c>
       <c r="K111" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L111" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M111" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N111" t="n">
         <v>2.2</v>
@@ -13475,7 +13703,7 @@
         <v>301</v>
       </c>
       <c r="AE111" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF111" t="n">
         <v>11</v>
@@ -13484,7 +13712,7 @@
         <v>9.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI111" t="n">
         <v>21</v>
@@ -13525,13 +13753,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H112" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I112" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J112" t="n">
         <v>1.06</v>
@@ -13546,10 +13774,10 @@
         <v>3.4</v>
       </c>
       <c r="N112" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O112" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P112" t="n">
         <v>1.4</v>
@@ -13564,16 +13792,16 @@
         <v>1.83</v>
       </c>
       <c r="T112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V112" t="n">
         <v>8.5</v>
       </c>
       <c r="W112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X112" t="n">
         <v>15</v>
@@ -13582,13 +13810,13 @@
         <v>29</v>
       </c>
       <c r="Z112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC112" t="n">
         <v>51</v>
@@ -13597,19 +13825,19 @@
         <v>301</v>
       </c>
       <c r="AE112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF112" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG112" t="n">
         <v>15</v>
       </c>
       <c r="AH112" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI112" t="n">
         <v>41</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>34</v>
       </c>
       <c r="AJ112" t="n">
         <v>41</v>
@@ -13647,19 +13875,19 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>3.9</v>
       </c>
       <c r="I113" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L113" t="n">
         <v>1.29</v>
@@ -13781,7 +14009,7 @@
         <v>1.04</v>
       </c>
       <c r="K114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L114" t="n">
         <v>1.22</v>
@@ -14135,13 +14363,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I117" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
         <v>1.05</v>
@@ -14177,7 +14405,7 @@
         <v>7</v>
       </c>
       <c r="U117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V117" t="n">
         <v>8.5</v>
@@ -14195,7 +14423,7 @@
         <v>10</v>
       </c>
       <c r="AA117" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB117" t="n">
         <v>15</v>
@@ -14207,7 +14435,7 @@
         <v>251</v>
       </c>
       <c r="AE117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF117" t="n">
         <v>21</v>
@@ -14263,7 +14491,7 @@
         <v>3.5</v>
       </c>
       <c r="I118" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J118" t="n">
         <v>1.04</v>
@@ -14284,22 +14512,22 @@
         <v>2.1</v>
       </c>
       <c r="P118" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q118" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R118" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S118" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T118" t="n">
         <v>9</v>
       </c>
       <c r="U118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V118" t="n">
         <v>8.5</v>
@@ -14311,7 +14539,7 @@
         <v>15</v>
       </c>
       <c r="Y118" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z118" t="n">
         <v>13</v>
@@ -14332,7 +14560,7 @@
         <v>13</v>
       </c>
       <c r="AF118" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG118" t="n">
         <v>12</v>
@@ -14391,7 +14619,7 @@
         <v>1.06</v>
       </c>
       <c r="K119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L119" t="n">
         <v>1.3</v>
@@ -14504,7 +14732,7 @@
         <v>2.4</v>
       </c>
       <c r="H120" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I120" t="n">
         <v>2.5</v>
@@ -14522,10 +14750,10 @@
         <v>5</v>
       </c>
       <c r="N120" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O120" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P120" t="n">
         <v>1.29</v>
@@ -14623,19 +14851,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>3.5</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J121" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L121" t="n">
         <v>1.36</v>
@@ -14644,28 +14872,28 @@
         <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O121" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S121" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T121" t="n">
         <v>6</v>
       </c>
       <c r="U121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V121" t="n">
         <v>9</v>
@@ -14766,10 +14994,10 @@
         <v>3.25</v>
       </c>
       <c r="N122" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O122" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P122" t="n">
         <v>1.4</v>
@@ -15111,19 +15339,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>3.4</v>
       </c>
       <c r="I125" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J125" t="n">
         <v>1.06</v>
       </c>
       <c r="K125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L125" t="n">
         <v>1.3</v>
@@ -15159,16 +15387,16 @@
         <v>9</v>
       </c>
       <c r="W125" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X125" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y125" t="n">
         <v>29</v>
       </c>
       <c r="Z125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA125" t="n">
         <v>6.5</v>
@@ -15186,7 +15414,7 @@
         <v>9.5</v>
       </c>
       <c r="AF125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG125" t="n">
         <v>12</v>
@@ -15195,7 +15423,7 @@
         <v>34</v>
       </c>
       <c r="AI125" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ125" t="n">
         <v>34</v>
@@ -15233,10 +15461,10 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I126" t="n">
         <v>1.67</v>
@@ -15245,7 +15473,7 @@
         <v>1.04</v>
       </c>
       <c r="K126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L126" t="n">
         <v>1.25</v>
@@ -15254,10 +15482,10 @@
         <v>3.75</v>
       </c>
       <c r="N126" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O126" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P126" t="n">
         <v>1.36</v>
@@ -15477,13 +15705,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>3.6</v>
       </c>
       <c r="I128" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
@@ -15516,13 +15744,13 @@
         <v>2.1</v>
       </c>
       <c r="T128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U128" t="n">
         <v>15</v>
       </c>
       <c r="V128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W128" t="n">
         <v>29</v>
@@ -15549,7 +15777,7 @@
         <v>201</v>
       </c>
       <c r="AE128" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF128" t="n">
         <v>12</v>
@@ -15614,16 +15842,16 @@
         <v>15</v>
       </c>
       <c r="L129" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M129" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N129" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O129" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P129" t="n">
         <v>1.29</v>
@@ -15641,13 +15869,13 @@
         <v>7.5</v>
       </c>
       <c r="U129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V129" t="n">
         <v>8.5</v>
       </c>
       <c r="W129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X129" t="n">
         <v>11</v>
@@ -15656,7 +15884,7 @@
         <v>26</v>
       </c>
       <c r="Z129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA129" t="n">
         <v>9.5</v>
@@ -15668,7 +15896,7 @@
         <v>51</v>
       </c>
       <c r="AD129" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE129" t="n">
         <v>21</v>
@@ -15680,7 +15908,7 @@
         <v>23</v>
       </c>
       <c r="AH129" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI129" t="n">
         <v>51</v>
@@ -15727,7 +15955,7 @@
         <v>4.33</v>
       </c>
       <c r="I130" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J130" t="n">
         <v>1.03</v>
@@ -15775,7 +16003,7 @@
         <v>12</v>
       </c>
       <c r="Y130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z130" t="n">
         <v>13</v>
@@ -15784,13 +16012,13 @@
         <v>8.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC130" t="n">
         <v>51</v>
       </c>
       <c r="AD130" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE130" t="n">
         <v>15</v>
@@ -15802,7 +16030,7 @@
         <v>17</v>
       </c>
       <c r="AH130" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI130" t="n">
         <v>41</v>
@@ -15855,7 +16083,7 @@
         <v>1.06</v>
       </c>
       <c r="K131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L131" t="n">
         <v>1.33</v>
@@ -15965,7 +16193,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
         <v>3.6</v>
@@ -16087,7 +16315,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
@@ -16129,13 +16357,13 @@
         <v>7</v>
       </c>
       <c r="U133" t="n">
+        <v>10</v>
+      </c>
+      <c r="V133" t="n">
         <v>9.5</v>
       </c>
-      <c r="V133" t="n">
-        <v>9</v>
-      </c>
       <c r="W133" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X133" t="n">
         <v>19</v>
@@ -16331,31 +16559,31 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I135" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J135" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K135" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L135" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M135" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N135" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O135" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P135" t="n">
         <v>1.4</v>
@@ -16391,31 +16619,31 @@
         <v>9.5</v>
       </c>
       <c r="AA135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB135" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG135" t="n">
         <v>19</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>21</v>
       </c>
       <c r="AH135" t="n">
         <v>67</v>
       </c>
       <c r="AI135" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ135" t="n">
         <v>51</v>
@@ -16453,21 +16681,21 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H136" t="n">
         <v>3.5</v>
       </c>
       <c r="I136" t="n">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M136" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="N136" t="n">
         <v>1.65</v>
@@ -16478,28 +16706,28 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="S136" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="T136" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U136" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="V136" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="W136" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="X136" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y136" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z136" t="n">
         <v>12.5</v>
@@ -16517,22 +16745,22 @@
         <v>200</v>
       </c>
       <c r="AE136" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG136" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH136" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI136" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ136" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -16567,82 +16795,82 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10.25</v>
+        <v>15.5</v>
       </c>
       <c r="H137" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="I137" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="O137" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="n">
-        <v>2.01</v>
+        <v>2.31</v>
       </c>
       <c r="S137" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="T137" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U137" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="V137" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="W137" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="X137" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y137" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Z137" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA137" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG137" t="n">
         <v>9.75</v>
       </c>
-      <c r="AB137" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AH137" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AI137" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ137" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -16677,62 +16905,62 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="H138" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I138" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M138" t="n">
         <v>4.2</v>
       </c>
       <c r="N138" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="O138" t="n">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="S138" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="T138" t="n">
         <v>5.6</v>
       </c>
       <c r="U138" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="V138" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="W138" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="X138" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y138" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z138" t="n">
         <v>12</v>
       </c>
       <c r="AA138" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AB138" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC138" t="n">
         <v>101</v>
@@ -16741,13 +16969,13 @@
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF138" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG138" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AH138" t="n">
         <v>101</v>
@@ -16756,7 +16984,7 @@
         <v>101</v>
       </c>
       <c r="AJ138" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="139">
@@ -16818,7 +17046,7 @@
         <v>1.9</v>
       </c>
       <c r="P139" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q139" t="n">
         <v>3</v>
@@ -16940,7 +17168,7 @@
         <v>1.9</v>
       </c>
       <c r="P140" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q140" t="n">
         <v>3</v>
@@ -17062,7 +17290,7 @@
         <v>2.15</v>
       </c>
       <c r="P141" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q141" t="n">
         <v>3.4</v>
@@ -17157,13 +17385,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H142" t="n">
         <v>3.05</v>
       </c>
       <c r="I142" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -17171,7 +17399,7 @@
         <v>1.37</v>
       </c>
       <c r="M142" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N142" t="n">
         <v>2.07</v>
@@ -17183,7 +17411,7 @@
         <v>1.4</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R142" t="n">
         <v>1.8</v>
@@ -17192,55 +17420,55 @@
         <v>1.8</v>
       </c>
       <c r="T142" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="U142" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="V142" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W142" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X142" t="n">
         <v>23</v>
       </c>
       <c r="Y142" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z142" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA142" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB142" t="n">
         <v>15</v>
       </c>
       <c r="AC142" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD142" t="n">
         <v>700</v>
       </c>
       <c r="AE142" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AF142" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG142" t="n">
         <v>10</v>
       </c>
       <c r="AH142" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI142" t="n">
         <v>24</v>
       </c>
       <c r="AJ142" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
@@ -17284,10 +17512,10 @@
         <v>2.38</v>
       </c>
       <c r="J143" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L143" t="n">
         <v>1.29</v>
@@ -17296,10 +17524,10 @@
         <v>3.5</v>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O143" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P143" t="n">
         <v>1.4</v>
@@ -17308,7 +17536,7 @@
         <v>2.75</v>
       </c>
       <c r="R143" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S143" t="n">
         <v>2</v>
@@ -17433,7 +17661,7 @@
         <v>2.2</v>
       </c>
       <c r="S144" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T144" t="n">
         <v>7.5</v>
@@ -17519,19 +17747,19 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H145" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I145" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J145" t="n">
         <v>1.04</v>
       </c>
       <c r="K145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L145" t="n">
         <v>1.22</v>
@@ -17540,10 +17768,10 @@
         <v>4</v>
       </c>
       <c r="N145" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O145" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P145" t="n">
         <v>1.33</v>
@@ -17552,13 +17780,13 @@
         <v>3.25</v>
       </c>
       <c r="R145" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S145" t="n">
         <v>2</v>
       </c>
       <c r="T145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U145" t="n">
         <v>23</v>
@@ -17576,7 +17804,7 @@
         <v>41</v>
       </c>
       <c r="Z145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA145" t="n">
         <v>7.5</v>
@@ -17763,13 +17991,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H147" t="n">
         <v>3.5</v>
       </c>
       <c r="I147" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J147" t="n">
         <v>1.04</v>
@@ -17778,10 +18006,10 @@
         <v>13</v>
       </c>
       <c r="L147" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M147" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N147" t="n">
         <v>1.7</v>
@@ -17790,10 +18018,10 @@
         <v>2.1</v>
       </c>
       <c r="P147" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q147" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R147" t="n">
         <v>1.57</v>
@@ -17832,7 +18060,7 @@
         <v>41</v>
       </c>
       <c r="AD147" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE147" t="n">
         <v>10</v>
@@ -17841,13 +18069,13 @@
         <v>13</v>
       </c>
       <c r="AG147" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH147" t="n">
         <v>23</v>
       </c>
       <c r="AI147" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ147" t="n">
         <v>23</v>
@@ -17885,13 +18113,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H148" t="n">
         <v>3.5</v>
       </c>
       <c r="I148" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J148" t="n">
         <v>1.05</v>
@@ -17957,16 +18185,16 @@
         <v>201</v>
       </c>
       <c r="AE148" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF148" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG148" t="n">
         <v>9.5</v>
       </c>
       <c r="AH148" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI148" t="n">
         <v>19</v>
@@ -18007,7 +18235,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>3.9</v>
@@ -18028,10 +18256,10 @@
         <v>4.33</v>
       </c>
       <c r="N149" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O149" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P149" t="n">
         <v>1.3</v>
@@ -18049,7 +18277,7 @@
         <v>9</v>
       </c>
       <c r="U149" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V149" t="n">
         <v>8.5</v>
@@ -18162,10 +18390,10 @@
         <v>3.75</v>
       </c>
       <c r="R150" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S150" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T150" t="n">
         <v>12</v>
@@ -18284,7 +18512,7 @@
         <v>2.75</v>
       </c>
       <c r="R151" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S151" t="n">
         <v>2</v>
@@ -18373,31 +18601,31 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H152" t="n">
         <v>4.33</v>
       </c>
       <c r="I152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K152" t="n">
+        <v>17</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M152" t="n">
         <v>5</v>
       </c>
-      <c r="J152" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K152" t="n">
-        <v>19</v>
-      </c>
-      <c r="L152" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M152" t="n">
-        <v>5.5</v>
-      </c>
       <c r="N152" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O152" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P152" t="n">
         <v>1.25</v>
@@ -18406,22 +18634,22 @@
         <v>3.75</v>
       </c>
       <c r="R152" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="S152" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T152" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U152" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V152" t="n">
         <v>8.5</v>
       </c>
       <c r="W152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X152" t="n">
         <v>11</v>
@@ -18430,7 +18658,7 @@
         <v>21</v>
       </c>
       <c r="Z152" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA152" t="n">
         <v>9</v>
@@ -18448,7 +18676,7 @@
         <v>19</v>
       </c>
       <c r="AF152" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG152" t="n">
         <v>17</v>
@@ -18460,7 +18688,7 @@
         <v>41</v>
       </c>
       <c r="AJ152" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153">
@@ -18528,7 +18756,7 @@
         <v>3.75</v>
       </c>
       <c r="R153" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S153" t="n">
         <v>2.25</v>
@@ -18650,7 +18878,7 @@
         <v>2.75</v>
       </c>
       <c r="R154" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S154" t="n">
         <v>2</v>
@@ -18772,7 +19000,7 @@
         <v>3</v>
       </c>
       <c r="R155" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S155" t="n">
         <v>2</v>
@@ -19105,80 +19333,90 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>8.75</v>
+        <v>20</v>
       </c>
       <c r="H158" t="n">
-        <v>4.05</v>
+        <v>4.8</v>
       </c>
       <c r="I158" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3.85</v>
+      </c>
       <c r="N158" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="O158" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="P158" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
+        <v>2.47</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1.38</v>
+      </c>
       <c r="T158" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="U158" t="n">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="V158" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="W158" t="n">
+        <v>250</v>
+      </c>
+      <c r="X158" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>250</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC158" t="n">
         <v>200</v>
       </c>
-      <c r="X158" t="n">
-        <v>110</v>
-      </c>
-      <c r="Y158" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z158" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA158" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB158" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC158" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD158" t="inlineStr"/>
+      <c r="AD158" t="n">
+        <v>101</v>
+      </c>
       <c r="AE158" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="AF158" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="AG158" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="AH158" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="AI158" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ158" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
@@ -19221,24 +19459,36 @@
       <c r="I159" t="n">
         <v>2.18</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K159" t="n">
+        <v>5.8</v>
+      </c>
       <c r="L159" t="n">
         <v>1.5</v>
       </c>
       <c r="M159" t="n">
         <v>2.25</v>
       </c>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.44</v>
+      </c>
       <c r="P159" t="n">
         <v>1.52</v>
       </c>
       <c r="Q159" t="n">
         <v>2.12</v>
       </c>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1.6</v>
+      </c>
       <c r="T159" t="n">
         <v>6.2</v>
       </c>
@@ -19269,7 +19519,9 @@
       <c r="AC159" t="n">
         <v>90</v>
       </c>
-      <c r="AD159" t="inlineStr"/>
+      <c r="AD159" t="n">
+        <v>101</v>
+      </c>
       <c r="AE159" t="n">
         <v>4.85</v>
       </c>
@@ -19439,33 +19691,37 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H161" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I161" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>6.2</v>
+      </c>
       <c r="L161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O161" t="n">
         <v>1.45</v>
       </c>
-      <c r="M161" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N161" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O161" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P161" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R161" t="n">
         <v>2.02</v>
@@ -19474,31 +19730,31 @@
         <v>1.62</v>
       </c>
       <c r="T161" t="n">
+        <v>7</v>
+      </c>
+      <c r="U161" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V161" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W161" t="n">
+        <v>37</v>
+      </c>
+      <c r="X161" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA161" t="n">
         <v>5.9</v>
       </c>
-      <c r="U161" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V161" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W161" t="n">
-        <v>21</v>
-      </c>
-      <c r="X161" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y161" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z161" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA161" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AB161" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC161" t="n">
         <v>120</v>
@@ -19507,22 +19763,22 @@
         <v>101</v>
       </c>
       <c r="AE161" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AF161" t="n">
-        <v>14.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG161" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH161" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AI161" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AJ161" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162">
@@ -19694,10 +19950,10 @@
         <v>19</v>
       </c>
       <c r="L163" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M163" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N163" t="n">
         <v>1.48</v>
@@ -20387,7 +20643,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H169" t="n">
         <v>3.1</v>
@@ -20438,7 +20694,7 @@
         <v>29</v>
       </c>
       <c r="X169" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y169" t="n">
         <v>34</v>
@@ -20462,7 +20718,7 @@
         <v>7.5</v>
       </c>
       <c r="AF169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG169" t="n">
         <v>10</v>
@@ -20643,7 +20899,7 @@
         <v>1.07</v>
       </c>
       <c r="K171" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L171" t="n">
         <v>1.36</v>
@@ -20679,7 +20935,7 @@
         <v>9.5</v>
       </c>
       <c r="W171" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X171" t="n">
         <v>19</v>
@@ -20762,10 +21018,10 @@
         <v>2.25</v>
       </c>
       <c r="J172" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K172" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L172" t="n">
         <v>1.33</v>
@@ -21003,7 +21259,7 @@
         <v>3.2</v>
       </c>
       <c r="I174" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J174" t="n">
         <v>1.08</v>
@@ -21024,19 +21280,19 @@
         <v>1.53</v>
       </c>
       <c r="P174" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R174" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S174" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T174" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U174" t="n">
         <v>9</v>
@@ -21054,19 +21310,19 @@
         <v>34</v>
       </c>
       <c r="Z174" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA174" t="n">
         <v>6</v>
       </c>
       <c r="AB174" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC174" t="n">
         <v>67</v>
       </c>
       <c r="AD174" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE174" t="n">
         <v>8.5</v>
@@ -21262,10 +21518,10 @@
         <v>2.5</v>
       </c>
       <c r="N176" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O176" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P176" t="n">
         <v>1.57</v>
@@ -21363,90 +21619,90 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.52</v>
+        <v>2.77</v>
       </c>
       <c r="H177" t="n">
         <v>3.05</v>
       </c>
       <c r="I177" t="n">
-        <v>2.57</v>
+        <v>2.37</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M177" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N177" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O177" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P177" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R177" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S177" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T177" t="n">
         <v>6.8</v>
       </c>
       <c r="U177" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="V177" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="W177" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X177" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y177" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z177" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB177" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AC177" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD177" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AE177" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AF177" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG177" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH177" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI177" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ177" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178">
@@ -21723,47 +21979,51 @@
         <v>3.9</v>
       </c>
       <c r="I180" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M180" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N180" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O180" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="P180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>2.6</v>
+      </c>
       <c r="R180" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S180" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T180" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="U180" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="V180" t="n">
         <v>8.25</v>
       </c>
       <c r="W180" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X180" t="n">
         <v>13</v>
       </c>
       <c r="Y180" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z180" t="n">
         <v>10.5</v>
@@ -21778,10 +22038,10 @@
         <v>90</v>
       </c>
       <c r="AD180" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE180" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF180" t="n">
         <v>29</v>
@@ -21793,10 +22053,10 @@
         <v>90</v>
       </c>
       <c r="AI180" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ180" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181">
@@ -21834,38 +22094,42 @@
         <v>1.6</v>
       </c>
       <c r="H181" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I181" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M181" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N181" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O181" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
+        <v>1.75</v>
+      </c>
+      <c r="P181" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>2.57</v>
+      </c>
       <c r="R181" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S181" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T181" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="U181" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="V181" t="n">
         <v>8.25</v>
@@ -21874,28 +22138,28 @@
         <v>11.5</v>
       </c>
       <c r="X181" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y181" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z181" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA181" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB181" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC181" t="n">
         <v>90</v>
       </c>
       <c r="AD181" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE181" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF181" t="n">
         <v>27</v>
@@ -21904,7 +22168,7 @@
         <v>16</v>
       </c>
       <c r="AH181" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI181" t="n">
         <v>50</v>
@@ -22066,9 +22330,15 @@
           <t>Dep. Capiata</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.71</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
@@ -22128,9 +22398,15 @@
           <t>River Plate</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
@@ -22200,13 +22476,13 @@
         <v>3.8</v>
       </c>
       <c r="J185" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K185" t="n">
         <v>7.5</v>
       </c>
       <c r="L185" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M185" t="n">
         <v>2.75</v>
@@ -22322,13 +22598,13 @@
         <v>1.65</v>
       </c>
       <c r="J186" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K186" t="n">
         <v>10</v>
       </c>
       <c r="L186" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M186" t="n">
         <v>3.25</v>
@@ -22444,13 +22720,13 @@
         <v>6.25</v>
       </c>
       <c r="J187" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K187" t="n">
         <v>13</v>
       </c>
       <c r="L187" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M187" t="n">
         <v>4</v>
@@ -22557,22 +22833,22 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>3.3</v>
       </c>
       <c r="I188" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J188" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K188" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L188" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M188" t="n">
         <v>3</v>
@@ -22599,7 +22875,7 @@
         <v>7.5</v>
       </c>
       <c r="U188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V188" t="n">
         <v>10</v>
@@ -22688,13 +22964,13 @@
         <v>2.88</v>
       </c>
       <c r="J189" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K189" t="n">
         <v>13</v>
       </c>
       <c r="L189" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M189" t="n">
         <v>4.33</v>
@@ -22822,7 +23098,7 @@
         <v>4.5</v>
       </c>
       <c r="N190" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O190" t="n">
         <v>2.3</v>
@@ -22834,10 +23110,10 @@
         <v>3.5</v>
       </c>
       <c r="R190" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S190" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T190" t="n">
         <v>13</v>
@@ -22947,7 +23223,7 @@
         <v>2.5</v>
       </c>
       <c r="O191" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P191" t="n">
         <v>1.57</v>
@@ -22971,7 +23247,7 @@
         <v>9.5</v>
       </c>
       <c r="W191" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X191" t="n">
         <v>19</v>
@@ -22986,16 +23262,16 @@
         <v>6.5</v>
       </c>
       <c r="AB191" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC191" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD191" t="n">
         <v>700</v>
       </c>
       <c r="AE191" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF191" t="n">
         <v>21</v>
@@ -23054,13 +23330,13 @@
         <v>3.1</v>
       </c>
       <c r="J192" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K192" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L192" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M192" t="n">
         <v>3.4</v>
@@ -23078,10 +23354,10 @@
         <v>2.75</v>
       </c>
       <c r="R192" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="S192" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T192" t="n">
         <v>8</v>
@@ -23096,25 +23372,25 @@
         <v>21</v>
       </c>
       <c r="X192" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y192" t="n">
         <v>29</v>
       </c>
       <c r="Z192" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA192" t="n">
         <v>6.5</v>
       </c>
       <c r="AB192" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC192" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD192" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE192" t="n">
         <v>10</v>
@@ -23176,13 +23452,13 @@
         <v>1.6</v>
       </c>
       <c r="J193" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K193" t="n">
         <v>10</v>
       </c>
       <c r="L193" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M193" t="n">
         <v>3.5</v>
@@ -23200,10 +23476,10 @@
         <v>3</v>
       </c>
       <c r="R193" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S193" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T193" t="n">
         <v>13</v>
@@ -23289,31 +23565,31 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H194" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I194" t="n">
         <v>4.5</v>
       </c>
       <c r="J194" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K194" t="n">
         <v>8</v>
       </c>
       <c r="L194" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M194" t="n">
         <v>2.75</v>
       </c>
       <c r="N194" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O194" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P194" t="n">
         <v>1.5</v>
@@ -23420,22 +23696,22 @@
         <v>3.3</v>
       </c>
       <c r="J195" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K195" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L195" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M195" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N195" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O195" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P195" t="n">
         <v>1.5</v>
@@ -23542,10 +23818,10 @@
         <v>1.53</v>
       </c>
       <c r="J196" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L196" t="n">
         <v>1.3</v>
@@ -23554,10 +23830,10 @@
         <v>3.4</v>
       </c>
       <c r="N196" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O196" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -23664,13 +23940,13 @@
         <v>2.9</v>
       </c>
       <c r="J197" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K197" t="n">
         <v>10</v>
       </c>
       <c r="L197" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M197" t="n">
         <v>3.25</v>
@@ -23679,7 +23955,7 @@
         <v>2.05</v>
       </c>
       <c r="O197" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P197" t="n">
         <v>1.44</v>
@@ -23786,13 +24062,13 @@
         <v>4.75</v>
       </c>
       <c r="J198" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K198" t="n">
         <v>11</v>
       </c>
       <c r="L198" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M198" t="n">
         <v>3.75</v>
@@ -24847,19 +25123,19 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H207" t="n">
         <v>3.2</v>
       </c>
       <c r="I207" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J207" t="n">
         <v>1.07</v>
       </c>
       <c r="K207" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L207" t="n">
         <v>1.36</v>
@@ -24886,7 +25162,7 @@
         <v>1.83</v>
       </c>
       <c r="T207" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U207" t="n">
         <v>13</v>
@@ -24898,7 +25174,7 @@
         <v>29</v>
       </c>
       <c r="X207" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y207" t="n">
         <v>34</v>
@@ -26430,28 +26706,28 @@
         <v>1.6</v>
       </c>
       <c r="H224" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I224" t="n">
         <v>5.75</v>
       </c>
       <c r="J224" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K224" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L224" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M224" t="n">
         <v>3.4</v>
       </c>
       <c r="N224" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O224" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P224" t="n">
         <v>1.4</v>
@@ -26460,13 +26736,13 @@
         <v>2.75</v>
       </c>
       <c r="R224" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S224" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T224" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U224" t="n">
         <v>7</v>
@@ -26478,13 +26754,13 @@
         <v>11</v>
       </c>
       <c r="X224" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y224" t="n">
         <v>29</v>
       </c>
       <c r="Z224" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA224" t="n">
         <v>7</v>
@@ -26493,10 +26769,10 @@
         <v>19</v>
       </c>
       <c r="AC224" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD224" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE224" t="n">
         <v>13</v>
@@ -26511,7 +26787,7 @@
         <v>67</v>
       </c>
       <c r="AI224" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ224" t="n">
         <v>51</v>
@@ -26558,13 +26834,13 @@
         <v>3.3</v>
       </c>
       <c r="J225" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K225" t="n">
         <v>8</v>
       </c>
       <c r="L225" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M225" t="n">
         <v>3</v>
@@ -26680,22 +26956,22 @@
         <v>1.29</v>
       </c>
       <c r="J226" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K226" t="n">
         <v>19</v>
       </c>
       <c r="L226" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M226" t="n">
         <v>5.5</v>
       </c>
       <c r="N226" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O226" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P226" t="n">
         <v>1.22</v>
@@ -26752,7 +27028,7 @@
         <v>9</v>
       </c>
       <c r="AH226" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI226" t="n">
         <v>10</v>
@@ -26793,22 +27069,22 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H227" t="n">
         <v>3.4</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J227" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K227" t="n">
         <v>11</v>
       </c>
       <c r="L227" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M227" t="n">
         <v>4</v>
@@ -26838,19 +27114,19 @@
         <v>12</v>
       </c>
       <c r="V227" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W227" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X227" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y227" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA227" t="n">
         <v>6.5</v>
@@ -26865,19 +27141,19 @@
         <v>151</v>
       </c>
       <c r="AE227" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF227" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG227" t="n">
         <v>11</v>
       </c>
       <c r="AH227" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI227" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ227" t="n">
         <v>29</v>
@@ -26915,22 +27191,22 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H228" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I228" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="J228" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K228" t="n">
         <v>13</v>
       </c>
       <c r="L228" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M228" t="n">
         <v>4</v>
@@ -26942,16 +27218,16 @@
         <v>2</v>
       </c>
       <c r="P228" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q228" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R228" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S228" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T228" t="n">
         <v>12</v>
@@ -26960,13 +27236,13 @@
         <v>21</v>
       </c>
       <c r="V228" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W228" t="n">
         <v>41</v>
       </c>
       <c r="X228" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y228" t="n">
         <v>34</v>
@@ -26975,13 +27251,13 @@
         <v>13</v>
       </c>
       <c r="AA228" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB228" t="n">
         <v>15</v>
       </c>
       <c r="AC228" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD228" t="n">
         <v>201</v>
@@ -26990,7 +27266,7 @@
         <v>8</v>
       </c>
       <c r="AF228" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG228" t="n">
         <v>8.5</v>
@@ -26999,7 +27275,7 @@
         <v>15</v>
       </c>
       <c r="AI228" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ228" t="n">
         <v>23</v>
@@ -27049,10 +27325,10 @@
         <v>1.03</v>
       </c>
       <c r="K229" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="L229" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M229" t="n">
         <v>3.4</v>
@@ -27168,13 +27444,13 @@
         <v>3.4</v>
       </c>
       <c r="J230" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K230" t="n">
         <v>9</v>
       </c>
       <c r="L230" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M230" t="n">
         <v>3.25</v>
@@ -27525,31 +27801,31 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="H233" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I233" t="n">
-        <v>5.7</v>
+        <v>4.65</v>
       </c>
       <c r="J233" t="n">
         <v>1.06</v>
       </c>
       <c r="K233" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L233" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M233" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="N233" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O233" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="P233" t="n">
         <v>1.42</v>
@@ -27558,61 +27834,61 @@
         <v>2.67</v>
       </c>
       <c r="R233" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S233" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T233" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="U233" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="V233" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W233" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="X233" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y233" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z233" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA233" t="n">
         <v>7.3</v>
       </c>
-      <c r="AA233" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AB233" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC233" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD233" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AE233" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF233" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AG233" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH233" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AI233" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AJ233" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234">
@@ -28644,10 +28920,10 @@
         <v>3.75</v>
       </c>
       <c r="N242" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O242" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P242" t="n">
         <v>1.36</v>
@@ -28989,31 +29265,31 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H245" t="n">
         <v>5</v>
       </c>
       <c r="I245" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J245" t="n">
         <v>1.03</v>
       </c>
       <c r="K245" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L245" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M245" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N245" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O245" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P245" t="n">
         <v>1.29</v>
@@ -29061,10 +29337,10 @@
         <v>251</v>
       </c>
       <c r="AE245" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF245" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG245" t="n">
         <v>21</v>
@@ -29111,31 +29387,31 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H246" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I246" t="n">
         <v>3.2</v>
       </c>
-      <c r="I246" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J246" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K246" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L246" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M246" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N246" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O246" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P246" t="n">
         <v>1.4</v>
@@ -29144,49 +29420,49 @@
         <v>2.75</v>
       </c>
       <c r="R246" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S246" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T246" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U246" t="n">
         <v>11</v>
       </c>
       <c r="V246" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W246" t="n">
         <v>21</v>
       </c>
       <c r="X246" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y246" t="n">
         <v>29</v>
       </c>
       <c r="Z246" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA246" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB246" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC246" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD246" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE246" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF246" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG246" t="n">
         <v>12</v>
@@ -29355,19 +29631,19 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H248" t="n">
         <v>2.9</v>
       </c>
       <c r="I248" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J248" t="n">
         <v>1.08</v>
       </c>
       <c r="K248" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L248" t="n">
         <v>1.4</v>
@@ -29376,10 +29652,10 @@
         <v>2.75</v>
       </c>
       <c r="N248" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O248" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P248" t="n">
         <v>1.5</v>
@@ -29418,7 +29694,7 @@
         <v>6</v>
       </c>
       <c r="AB248" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC248" t="n">
         <v>51</v>
@@ -29427,7 +29703,7 @@
         <v>351</v>
       </c>
       <c r="AE248" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF248" t="n">
         <v>15</v>
@@ -29641,10 +29917,10 @@
         <v>7.5</v>
       </c>
       <c r="U250" t="n">
+        <v>11</v>
+      </c>
+      <c r="V250" t="n">
         <v>10</v>
-      </c>
-      <c r="V250" t="n">
-        <v>9.5</v>
       </c>
       <c r="W250" t="n">
         <v>21</v>
@@ -29668,7 +29944,7 @@
         <v>51</v>
       </c>
       <c r="AD250" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE250" t="n">
         <v>10</v>
@@ -29730,10 +30006,10 @@
         <v>5.75</v>
       </c>
       <c r="J251" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K251" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L251" t="n">
         <v>1.2</v>
@@ -29742,16 +30018,16 @@
         <v>4.33</v>
       </c>
       <c r="N251" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O251" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P251" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q251" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R251" t="n">
         <v>1.8</v>
@@ -29787,7 +30063,7 @@
         <v>15</v>
       </c>
       <c r="AC251" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD251" t="n">
         <v>151</v>
@@ -29802,7 +30078,7 @@
         <v>19</v>
       </c>
       <c r="AH251" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI251" t="n">
         <v>41</v>
@@ -29852,10 +30128,10 @@
         <v>2.2</v>
       </c>
       <c r="J252" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K252" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L252" t="n">
         <v>1.36</v>
@@ -29864,10 +30140,10 @@
         <v>3</v>
       </c>
       <c r="N252" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O252" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P252" t="n">
         <v>1.44</v>
@@ -29876,10 +30152,10 @@
         <v>2.63</v>
       </c>
       <c r="R252" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S252" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T252" t="n">
         <v>8.5</v>
@@ -29897,7 +30173,7 @@
         <v>26</v>
       </c>
       <c r="Y252" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z252" t="n">
         <v>8.5</v>
@@ -29915,10 +30191,10 @@
         <v>800</v>
       </c>
       <c r="AE252" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF252" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG252" t="n">
         <v>10</v>
@@ -29974,10 +30250,10 @@
         <v>3.8</v>
       </c>
       <c r="J253" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K253" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L253" t="n">
         <v>1.44</v>
@@ -29986,22 +30262,22 @@
         <v>2.63</v>
       </c>
       <c r="N253" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q253" t="n">
         <v>2.5</v>
       </c>
-      <c r="O253" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P253" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q253" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R253" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S253" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T253" t="n">
         <v>6</v>
@@ -30010,19 +30286,19 @@
         <v>8.5</v>
       </c>
       <c r="V253" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W253" t="n">
         <v>17</v>
       </c>
       <c r="X253" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y253" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z253" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA253" t="n">
         <v>6</v>
@@ -30037,7 +30313,7 @@
         <v>900</v>
       </c>
       <c r="AE253" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF253" t="n">
         <v>19</v>
@@ -30052,7 +30328,7 @@
         <v>41</v>
       </c>
       <c r="AJ253" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="254">
@@ -30087,19 +30363,19 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H254" t="n">
         <v>3</v>
       </c>
       <c r="I254" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J254" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K254" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L254" t="n">
         <v>1.4</v>
@@ -30126,13 +30402,13 @@
         <v>1.8</v>
       </c>
       <c r="T254" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U254" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V254" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W254" t="n">
         <v>23</v>
@@ -30165,7 +30441,7 @@
         <v>13</v>
       </c>
       <c r="AG254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH254" t="n">
         <v>29</v>
@@ -30257,7 +30533,7 @@
         <v>10</v>
       </c>
       <c r="W255" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X255" t="n">
         <v>21</v>
@@ -30293,7 +30569,7 @@
         <v>34</v>
       </c>
       <c r="AI255" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ255" t="n">
         <v>41</v>
@@ -30358,10 +30634,10 @@
         <v>1.53</v>
       </c>
       <c r="P256" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q256" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R256" t="n">
         <v>2.2</v>
@@ -30373,7 +30649,7 @@
         <v>5.5</v>
       </c>
       <c r="U256" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V256" t="n">
         <v>9.5</v>
@@ -30394,7 +30670,7 @@
         <v>6.5</v>
       </c>
       <c r="AB256" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC256" t="n">
         <v>67</v>
@@ -30403,7 +30679,7 @@
         <v>900</v>
       </c>
       <c r="AE256" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF256" t="n">
         <v>21</v>
@@ -30412,7 +30688,7 @@
         <v>17</v>
       </c>
       <c r="AH256" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI256" t="n">
         <v>41</v>
@@ -30462,13 +30738,13 @@
         <v>3.3</v>
       </c>
       <c r="J257" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K257" t="n">
         <v>13</v>
       </c>
       <c r="L257" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M257" t="n">
         <v>4</v>
@@ -30596,10 +30872,10 @@
         <v>2.75</v>
       </c>
       <c r="N258" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O258" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P258" t="n">
         <v>1.5</v>
@@ -30611,7 +30887,7 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T258" t="n">
         <v>6</v>
@@ -30697,13 +30973,13 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H259" t="n">
         <v>3.5</v>
       </c>
       <c r="I259" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J259" t="n">
         <v>1.05</v>
@@ -30724,13 +31000,13 @@
         <v>1.95</v>
       </c>
       <c r="P259" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q259" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R259" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S259" t="n">
         <v>2.05</v>
@@ -30775,13 +31051,13 @@
         <v>15</v>
       </c>
       <c r="AG259" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH259" t="n">
         <v>29</v>
       </c>
       <c r="AI259" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ259" t="n">
         <v>29</v>
@@ -30962,10 +31238,10 @@
         <v>3.75</v>
       </c>
       <c r="N261" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O261" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P261" t="n">
         <v>1.36</v>
@@ -31066,34 +31342,34 @@
         <v>2.38</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I262" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J262" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K262" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L262" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M262" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N262" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q262" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O262" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P262" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q262" t="n">
-        <v>2.38</v>
       </c>
       <c r="R262" t="n">
         <v>2</v>
@@ -31102,10 +31378,10 @@
         <v>1.73</v>
       </c>
       <c r="T262" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U262" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V262" t="n">
         <v>10</v>
@@ -31114,13 +31390,13 @@
         <v>23</v>
       </c>
       <c r="X262" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y262" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z262" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA262" t="n">
         <v>6</v>
@@ -31129,7 +31405,7 @@
         <v>17</v>
       </c>
       <c r="AC262" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD262" t="n">
         <v>351</v>
@@ -31307,13 +31583,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H264" t="n">
         <v>2.95</v>
       </c>
       <c r="I264" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="J264" t="n">
         <v>1.11</v>
@@ -31334,10 +31610,10 @@
         <v>1.45</v>
       </c>
       <c r="P264" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R264" t="n">
         <v>2.02</v>
@@ -31346,19 +31622,19 @@
         <v>1.62</v>
       </c>
       <c r="T264" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="U264" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V264" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="W264" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X264" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y264" t="n">
         <v>50</v>
@@ -31379,19 +31655,19 @@
         <v>101</v>
       </c>
       <c r="AE264" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AF264" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG264" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH264" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI264" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ264" t="n">
         <v>45</v>
@@ -31803,7 +32079,7 @@
         <v>1.08</v>
       </c>
       <c r="K268" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L268" t="n">
         <v>1.4</v>
@@ -32035,10 +32311,10 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H270" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I270" t="n">
         <v>3.6</v>
@@ -32046,79 +32322,79 @@
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="M270" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="N270" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="O270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P270" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S270" t="n">
         <v>1.72</v>
       </c>
-      <c r="P270" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q270" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R270" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S270" t="n">
-        <v>1.88</v>
-      </c>
       <c r="T270" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="U270" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V270" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W270" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="X270" t="n">
         <v>18</v>
       </c>
-      <c r="X270" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Y270" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z270" t="n">
-        <v>9.25</v>
+        <v>7.6</v>
       </c>
       <c r="AA270" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB270" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC270" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AD270" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AE270" t="n">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF270" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG270" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH270" t="n">
         <v>55</v>
       </c>
       <c r="AI270" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ270" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271">
@@ -32153,13 +32429,13 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H271" t="n">
         <v>3.05</v>
       </c>
       <c r="I271" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -32167,13 +32443,13 @@
         <v>1.45</v>
       </c>
       <c r="M271" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N271" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O271" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P271" t="n">
         <v>1.5</v>
@@ -32188,31 +32464,31 @@
         <v>1.62</v>
       </c>
       <c r="T271" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U271" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V271" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W271" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X271" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y271" t="n">
         <v>40</v>
       </c>
       <c r="Z271" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA271" t="n">
         <v>6.1</v>
       </c>
       <c r="AB271" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC271" t="n">
         <v>120</v>
@@ -32221,16 +32497,16 @@
         <v>700</v>
       </c>
       <c r="AE271" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF271" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG271" t="n">
         <v>14.5</v>
       </c>
       <c r="AH271" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI271" t="n">
         <v>50</v>
@@ -32389,19 +32665,19 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H273" t="n">
         <v>4.2</v>
       </c>
       <c r="I273" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J273" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K273" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L273" t="n">
         <v>1.2</v>
@@ -32410,10 +32686,10 @@
         <v>4.33</v>
       </c>
       <c r="N273" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O273" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P273" t="n">
         <v>1.3</v>
@@ -32422,16 +32698,16 @@
         <v>3.4</v>
       </c>
       <c r="R273" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S273" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T273" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U273" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V273" t="n">
         <v>8.5</v>
@@ -32443,10 +32719,10 @@
         <v>12</v>
       </c>
       <c r="Y273" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z273" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA273" t="n">
         <v>8</v>
@@ -32455,7 +32731,7 @@
         <v>15</v>
       </c>
       <c r="AC273" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD273" t="n">
         <v>201</v>
@@ -32633,7 +32909,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H275" t="n">
         <v>3.4</v>
@@ -32657,7 +32933,7 @@
         <v>2.05</v>
       </c>
       <c r="O275" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P275" t="n">
         <v>1.4</v>
@@ -32672,10 +32948,10 @@
         <v>1.91</v>
       </c>
       <c r="T275" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U275" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V275" t="n">
         <v>8.5</v>
@@ -32708,7 +32984,7 @@
         <v>12</v>
       </c>
       <c r="AF275" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG275" t="n">
         <v>15</v>
@@ -33243,13 +33519,13 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H280" t="n">
         <v>3.9</v>
       </c>
       <c r="I280" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J280" t="n">
         <v>1.03</v>
@@ -33258,16 +33534,16 @@
         <v>15</v>
       </c>
       <c r="L280" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M280" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N280" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O280" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P280" t="n">
         <v>1.3</v>
@@ -33612,19 +33888,19 @@
         <v>2.7</v>
       </c>
       <c r="H283" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I283" t="n">
         <v>2.7</v>
       </c>
       <c r="J283" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K283" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L283" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M283" t="n">
         <v>3.5</v>
@@ -33642,10 +33918,10 @@
         <v>2.75</v>
       </c>
       <c r="R283" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S283" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T283" t="n">
         <v>9</v>
@@ -33731,13 +34007,13 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H284" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I284" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
@@ -33756,37 +34032,37 @@
       <c r="P284" t="inlineStr"/>
       <c r="Q284" t="inlineStr"/>
       <c r="R284" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S284" t="n">
         <v>2.05</v>
       </c>
       <c r="T284" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="U284" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V284" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W284" t="n">
         <v>45</v>
       </c>
       <c r="X284" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y284" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z284" t="n">
         <v>11</v>
       </c>
       <c r="AA284" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB284" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC284" t="n">
         <v>50</v>
@@ -33795,19 +34071,19 @@
         <v>350</v>
       </c>
       <c r="AE284" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF284" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG284" t="n">
         <v>8.5</v>
       </c>
       <c r="AH284" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI284" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ284" t="n">
         <v>24</v>
@@ -33845,87 +34121,87 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H285" t="n">
         <v>3.05</v>
       </c>
       <c r="I285" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M285" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="N285" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O285" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P285" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q285" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R285" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S285" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T285" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="U285" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="V285" t="n">
         <v>8.75</v>
       </c>
       <c r="W285" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="X285" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y285" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z285" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA285" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB285" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC285" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD285" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE285" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF285" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG285" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH285" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI285" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ285" t="n">
         <v>45</v>
@@ -33963,24 +34239,24 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H286" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I286" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M286" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N286" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O286" t="n">
         <v>1.6</v>
@@ -33998,19 +34274,19 @@
         <v>1.75</v>
       </c>
       <c r="T286" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U286" t="n">
         <v>9</v>
       </c>
       <c r="V286" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W286" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="X286" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y286" t="n">
         <v>32</v>
@@ -34031,22 +34307,22 @@
         <v>800</v>
       </c>
       <c r="AE286" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF286" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG286" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH286" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI286" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ286" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="287">
@@ -34206,46 +34482,46 @@
         <v>2.3</v>
       </c>
       <c r="H288" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I288" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J288" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K288" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="L288" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M288" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="N288" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O288" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P288" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q288" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="R288" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S288" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T288" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U288" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V288" t="n">
         <v>9</v>
@@ -34254,31 +34530,31 @@
         <v>24</v>
       </c>
       <c r="X288" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y288" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z288" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AA288" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB288" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC288" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD288" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE288" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF288" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG288" t="n">
         <v>10.5</v>
@@ -34287,10 +34563,10 @@
         <v>37</v>
       </c>
       <c r="AI288" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ288" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
@@ -650,7 +650,7 @@
         <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -668,16 +668,16 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -686,7 +686,7 @@
         <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
         <v>8</v>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -707,16 +707,16 @@
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
         <v>1.22</v>
@@ -900,10 +900,10 @@
         <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
         <v>1.1</v>
@@ -924,10 +924,10 @@
         <v>4.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
         <v>12</v>
@@ -945,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE4" t="n">
         <v>41</v>
@@ -969,7 +969,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH4" t="n">
         <v>201</v>
@@ -1016,10 +1016,10 @@
         <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1028,31 +1028,31 @@
         <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U5" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
@@ -1082,13 +1082,13 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1147,13 @@
         <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
         <v>1.73</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7" t="n">
         <v>1.17</v>
@@ -1290,16 +1290,16 @@
         <v>3.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1311,13 +1311,13 @@
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1335,7 +1335,7 @@
         <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1382,7 +1382,7 @@
         <v>6.5</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I8" t="n">
         <v>1.42</v>
@@ -1391,19 +1391,19 @@
         <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
         <v>1.22</v>
@@ -1448,10 +1448,10 @@
         <v>41</v>
       </c>
       <c r="AD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H10" t="n">
         <v>4.75</v>
@@ -1644,10 +1644,10 @@
         <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
@@ -1778,10 +1778,10 @@
         <v>4.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
         <v>12</v>
@@ -1790,10 +1790,10 @@
         <v>8.5</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
         <v>10</v>
@@ -1805,7 +1805,7 @@
         <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -1829,7 +1829,7 @@
         <v>126</v>
       </c>
       <c r="AI11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
@@ -1873,7 +1873,7 @@
         <v>4.33</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="J12" t="n">
         <v>1.02</v>
@@ -1882,10 +1882,10 @@
         <v>19</v>
       </c>
       <c r="L12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N12" t="n">
         <v>1.44</v>
@@ -2117,7 +2117,7 @@
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2242,10 +2242,10 @@
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15" t="n">
         <v>1.14</v>
@@ -2254,10 +2254,10 @@
         <v>5.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P15" t="n">
         <v>1.22</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2364,13 +2364,13 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M16" t="n">
         <v>2.25</v>
@@ -2391,7 +2391,7 @@
         <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T16" t="n">
         <v>6</v>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
         <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="M17" t="n">
         <v>2.1</v>
@@ -2513,7 +2513,7 @@
         <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T17" t="n">
         <v>5</v>
@@ -2605,25 +2605,25 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
         <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2635,7 +2635,7 @@
         <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T18" t="n">
         <v>7.5</v>
@@ -2724,10 +2724,10 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>1.11</v>
@@ -2748,10 +2748,10 @@
         <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
         <v>2.5</v>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>2.9</v>
@@ -2992,16 +2992,16 @@
         <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T21" t="n">
         <v>5.5</v>
@@ -3040,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI21" t="n">
         <v>34</v>
@@ -3215,7 +3215,7 @@
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>1.14</v>
@@ -3281,7 +3281,7 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>23</v>
@@ -3290,7 +3290,7 @@
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="n">
         <v>51</v>
@@ -3346,10 +3346,10 @@
         <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N24" t="n">
         <v>3.1</v>
@@ -3822,10 +3822,10 @@
         <v>1.91</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3879,25 +3879,25 @@
         <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
       </c>
       <c r="AD28" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
         <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>41</v>
@@ -3962,22 +3962,22 @@
         <v>8</v>
       </c>
       <c r="N29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.33</v>
       </c>
-      <c r="O29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.3</v>
-      </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
         <v>21</v>
@@ -3998,10 +3998,10 @@
         <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
@@ -4010,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="AD29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
@@ -4022,7 +4022,7 @@
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
         <v>13</v>
@@ -4075,13 +4075,13 @@
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N30" t="n">
         <v>1.4</v>
@@ -4090,10 +4090,10 @@
         <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
         <v>1.44</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.07</v>
@@ -4200,16 +4200,16 @@
         <v>9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N31" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -4218,22 +4218,22 @@
         <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V31" t="n">
         <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
         <v>17</v>
@@ -4248,13 +4248,13 @@
         <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE31" t="n">
         <v>9.5</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4340,22 +4340,22 @@
         <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
         <v>9</v>
       </c>
       <c r="U32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -4364,7 +4364,7 @@
         <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
         <v>8.5</v>
@@ -4385,16 +4385,16 @@
         <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -4565,7 +4565,7 @@
         <v>1.35</v>
       </c>
       <c r="M34" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N34" t="n">
         <v>2.02</v>
@@ -4574,16 +4574,16 @@
         <v>1.62</v>
       </c>
       <c r="P34" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R34" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T34" t="n">
         <v>13</v>
@@ -4592,7 +4592,7 @@
         <v>35</v>
       </c>
       <c r="V34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W34" t="n">
         <v>150</v>
@@ -4607,13 +4607,13 @@
         <v>8.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC34" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD34" t="n">
         <v>101</v>
@@ -4622,19 +4622,19 @@
         <v>5.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AG34" t="n">
         <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI34" t="n">
         <v>14</v>
       </c>
       <c r="AJ34" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -4861,16 +4861,16 @@
         <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
         <v>12</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
         <v>3.75</v>
@@ -4888,7 +4888,7 @@
         <v>3.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S38" t="n">
         <v>2.1</v>
@@ -4897,7 +4897,7 @@
         <v>8.5</v>
       </c>
       <c r="U38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V38" t="n">
         <v>9</v>
@@ -4933,13 +4933,13 @@
         <v>19</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>34</v>
@@ -4977,31 +4977,31 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M39" t="n">
         <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -5010,16 +5010,16 @@
         <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S39" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
       </c>
       <c r="U39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V39" t="n">
         <v>9</v>
@@ -5052,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="AF39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -5061,7 +5061,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
         <v>41</v>
@@ -5099,31 +5099,31 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K40" t="n">
         <v>19</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M40" t="n">
         <v>5.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O40" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P40" t="n">
         <v>1.25</v>
@@ -5132,10 +5132,10 @@
         <v>3.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S40" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T40" t="n">
         <v>13</v>
@@ -5162,7 +5162,7 @@
         <v>7.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC40" t="n">
         <v>29</v>
@@ -5180,13 +5180,13 @@
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI40" t="n">
         <v>21</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J41" t="n">
         <v>1.04</v>
@@ -5242,16 +5242,16 @@
         <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O41" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R41" t="n">
         <v>1.75</v>
@@ -5281,7 +5281,7 @@
         <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
         <v>15</v>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H42" t="n">
         <v>4.1</v>
@@ -5376,7 +5376,7 @@
         <v>4.33</v>
       </c>
       <c r="R42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S42" t="n">
         <v>2.75</v>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H43" t="n">
         <v>3.8</v>
@@ -5498,7 +5498,7 @@
         <v>3.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S43" t="n">
         <v>2.25</v>
@@ -5593,25 +5593,25 @@
         <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O44" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5620,10 +5620,10 @@
         <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S44" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T44" t="n">
         <v>11</v>
@@ -5962,10 +5962,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O47" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="P47" t="n">
         <v>1.36</v>
@@ -6078,16 +6078,16 @@
         <v>6.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N48" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P48" t="n">
         <v>1.53</v>
@@ -6310,7 +6310,7 @@
         <v>2.38</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -6510,10 +6510,10 @@
         <v>13</v>
       </c>
       <c r="AH51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ51" t="n">
         <v>41</v>
@@ -6551,19 +6551,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="H52" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I52" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J52" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K52" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L52" t="n">
         <v>1.5</v>
@@ -6578,28 +6578,28 @@
         <v>1.5</v>
       </c>
       <c r="P52" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R52" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T52" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="U52" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="V52" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W52" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X52" t="n">
         <v>23</v>
@@ -6608,25 +6608,25 @@
         <v>40</v>
       </c>
       <c r="Z52" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC52" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD52" t="n">
         <v>101</v>
       </c>
       <c r="AE52" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="AF52" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG52" t="n">
         <v>11.75</v>
@@ -6676,7 +6676,7 @@
         <v>2.4</v>
       </c>
       <c r="H53" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I53" t="n">
         <v>3.65</v>
@@ -6691,28 +6691,28 @@
         <v>1.5</v>
       </c>
       <c r="M53" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N53" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O53" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P53" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R53" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S53" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T53" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U53" t="n">
         <v>11</v>
@@ -6736,10 +6736,10 @@
         <v>5.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="n">
         <v>800</v>
@@ -7048,10 +7048,10 @@
         <v>6.25</v>
       </c>
       <c r="J56" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
         <v>1.36</v>
@@ -7060,16 +7060,16 @@
         <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O56" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P56" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R56" t="n">
         <v>2.2</v>
@@ -7197,7 +7197,7 @@
         <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T57" t="n">
         <v>12</v>
@@ -8159,22 +8159,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
         <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M66" t="n">
         <v>3.75</v>
@@ -8186,7 +8186,7 @@
         <v>1.95</v>
       </c>
       <c r="P66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q66" t="n">
         <v>3</v>
@@ -8201,7 +8201,7 @@
         <v>7.5</v>
       </c>
       <c r="U66" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
@@ -8216,7 +8216,7 @@
         <v>26</v>
       </c>
       <c r="Z66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA66" t="n">
         <v>6.5</v>
@@ -8225,7 +8225,7 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD66" t="n">
         <v>201</v>
@@ -8281,22 +8281,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H67" t="n">
         <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K67" t="n">
         <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
@@ -8305,13 +8305,13 @@
         <v>2.15</v>
       </c>
       <c r="O67" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P67" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R67" t="n">
         <v>2.1</v>
@@ -8338,7 +8338,7 @@
         <v>34</v>
       </c>
       <c r="Z67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA67" t="n">
         <v>7.5</v>
@@ -8356,7 +8356,7 @@
         <v>11</v>
       </c>
       <c r="AF67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG67" t="n">
         <v>17</v>
@@ -8894,16 +8894,16 @@
         <v>5.75</v>
       </c>
       <c r="H72" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J72" t="n">
         <v>1.03</v>
       </c>
       <c r="K72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L72" t="n">
         <v>1.18</v>
@@ -8951,16 +8951,16 @@
         <v>15</v>
       </c>
       <c r="AA72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC72" t="n">
         <v>51</v>
       </c>
       <c r="AD72" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE72" t="n">
         <v>8</v>
@@ -8972,7 +8972,7 @@
         <v>8.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI72" t="n">
         <v>11</v>
@@ -9025,7 +9025,7 @@
         <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L73" t="n">
         <v>1.33</v>
@@ -9213,7 +9213,7 @@
         <v>13</v>
       </c>
       <c r="AG74" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
@@ -9378,10 +9378,10 @@
         <v>2.12</v>
       </c>
       <c r="H76" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I76" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -9401,10 +9401,10 @@
         <v>1.42</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R76" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S76" t="n">
         <v>1.78</v>
@@ -9434,7 +9434,7 @@
         <v>6</v>
       </c>
       <c r="AB76" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC76" t="n">
         <v>80</v>
@@ -9443,7 +9443,7 @@
         <v>700</v>
       </c>
       <c r="AE76" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF76" t="n">
         <v>17.5</v>
@@ -9493,66 +9493,66 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I77" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M77" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="N77" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O77" t="n">
         <v>1.7</v>
       </c>
       <c r="P77" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q77" t="n">
         <v>2.57</v>
       </c>
       <c r="R77" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
         <v>1.65</v>
       </c>
       <c r="T77" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U77" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V77" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="W77" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="X77" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Y77" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA77" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC77" t="n">
         <v>110</v>
@@ -9561,19 +9561,19 @@
         <v>1000</v>
       </c>
       <c r="AE77" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF77" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AG77" t="n">
         <v>8.25</v>
       </c>
       <c r="AH77" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AI77" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ77" t="n">
         <v>32</v>
@@ -9611,13 +9611,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="H78" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I78" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -9637,19 +9637,19 @@
         <v>1.44</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R78" t="n">
         <v>1.9</v>
       </c>
       <c r="S78" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T78" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U78" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V78" t="n">
         <v>14</v>
@@ -9664,22 +9664,22 @@
         <v>55</v>
       </c>
       <c r="Z78" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB78" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD78" t="n">
         <v>900</v>
       </c>
       <c r="AE78" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF78" t="n">
         <v>8.25</v>
@@ -9753,7 +9753,7 @@
         <v>2.7</v>
       </c>
       <c r="O79" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P79" t="n">
         <v>1.62</v>
@@ -10705,43 +10705,43 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I87" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J87" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L87" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M87" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q87" t="n">
         <v>2.38</v>
       </c>
-      <c r="O87" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P87" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R87" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S87" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T87" t="n">
         <v>7.5</v>
@@ -10750,35 +10750,37 @@
         <v>13</v>
       </c>
       <c r="V87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W87" t="n">
+        <v>34</v>
+      </c>
+      <c r="X87" t="n">
         <v>29</v>
-      </c>
-      <c r="X87" t="n">
-        <v>26</v>
       </c>
       <c r="Y87" t="n">
         <v>41</v>
       </c>
       <c r="Z87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA87" t="n">
         <v>6</v>
       </c>
       <c r="AB87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC87" t="n">
         <v>67</v>
       </c>
-      <c r="AD87" t="inlineStr"/>
+      <c r="AD87" t="n">
+        <v>101</v>
+      </c>
       <c r="AE87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG87" t="n">
         <v>11</v>
@@ -10825,19 +10827,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="H88" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I88" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K88" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L88" t="n">
         <v>1.44</v>
@@ -10846,16 +10848,16 @@
         <v>2.63</v>
       </c>
       <c r="N88" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O88" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P88" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R88" t="n">
         <v>2.1</v>
@@ -10864,31 +10866,31 @@
         <v>1.67</v>
       </c>
       <c r="T88" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U88" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W88" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X88" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y88" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z88" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA88" t="n">
         <v>6</v>
       </c>
       <c r="AB88" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC88" t="n">
         <v>67</v>
@@ -10897,22 +10899,22 @@
         <v>101</v>
       </c>
       <c r="AE88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF88" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG88" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH88" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>41</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="89">
@@ -10947,70 +10949,70 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I89" t="n">
         <v>2.15</v>
       </c>
       <c r="J89" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K89" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L89" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M89" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N89" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="O89" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P89" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S89" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U89" t="n">
+        <v>15</v>
+      </c>
+      <c r="V89" t="n">
         <v>13</v>
-      </c>
-      <c r="V89" t="n">
-        <v>11</v>
       </c>
       <c r="W89" t="n">
         <v>34</v>
       </c>
       <c r="X89" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y89" t="n">
         <v>41</v>
       </c>
       <c r="Z89" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC89" t="n">
         <v>81</v>
@@ -11025,13 +11027,13 @@
         <v>9</v>
       </c>
       <c r="AG89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH89" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ89" t="n">
         <v>41</v>
@@ -11069,13 +11071,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I90" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="J90" t="n">
         <v>1.1</v>
@@ -11084,16 +11086,16 @@
         <v>6.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M90" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N90" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O90" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P90" t="n">
         <v>1.57</v>
@@ -11102,25 +11104,25 @@
         <v>2.25</v>
       </c>
       <c r="R90" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S90" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T90" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V90" t="n">
         <v>10</v>
       </c>
-      <c r="V90" t="n">
-        <v>11</v>
-      </c>
       <c r="W90" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y90" t="n">
         <v>41</v>
@@ -11132,7 +11134,7 @@
         <v>6.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC90" t="n">
         <v>81</v>
@@ -11141,22 +11143,22 @@
         <v>101</v>
       </c>
       <c r="AE90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI90" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91">
@@ -11191,19 +11193,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H91" t="n">
         <v>3.1</v>
       </c>
       <c r="I91" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="J91" t="n">
         <v>1.09</v>
       </c>
       <c r="K91" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L91" t="n">
         <v>1.42</v>
@@ -11224,61 +11226,61 @@
         <v>2.65</v>
       </c>
       <c r="R91" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S91" t="n">
         <v>1.8</v>
       </c>
       <c r="T91" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U91" t="n">
         <v>18.5</v>
       </c>
       <c r="V91" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W91" t="n">
         <v>55</v>
       </c>
       <c r="X91" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y91" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z91" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE91" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>6.3</v>
       </c>
       <c r="AF91" t="n">
         <v>10.5</v>
       </c>
       <c r="AG91" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI91" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ91" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
@@ -11441,7 +11443,7 @@
         <v>3.9</v>
       </c>
       <c r="I93" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J93" t="n">
         <v>1.03</v>
@@ -11685,13 +11687,13 @@
         <v>4.5</v>
       </c>
       <c r="I95" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J95" t="n">
         <v>1.04</v>
       </c>
       <c r="K95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L95" t="n">
         <v>1.25</v>
@@ -12289,46 +12291,46 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I100" t="n">
         <v>2.1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K100" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L100" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M100" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N100" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O100" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q100" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R100" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S100" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U100" t="n">
         <v>17</v>
@@ -12340,13 +12342,13 @@
         <v>34</v>
       </c>
       <c r="X100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y100" t="n">
         <v>29</v>
       </c>
       <c r="Z100" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA100" t="n">
         <v>7</v>
@@ -12358,10 +12360,10 @@
         <v>41</v>
       </c>
       <c r="AD100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE100" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF100" t="n">
         <v>11</v>
@@ -12370,13 +12372,13 @@
         <v>9</v>
       </c>
       <c r="AH100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI100" t="n">
         <v>17</v>
       </c>
       <c r="AJ100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
@@ -12679,7 +12681,7 @@
         <v>2.1</v>
       </c>
       <c r="O103" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P103" t="n">
         <v>1.44</v>
@@ -12911,7 +12913,7 @@
         <v>1.07</v>
       </c>
       <c r="K105" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L105" t="n">
         <v>1.4</v>
@@ -12920,10 +12922,10 @@
         <v>3</v>
       </c>
       <c r="N105" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O105" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P105" t="n">
         <v>1.44</v>
@@ -13143,52 +13145,52 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H107" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I107" t="n">
         <v>3.25</v>
       </c>
       <c r="J107" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K107" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L107" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M107" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N107" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O107" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P107" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R107" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S107" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T107" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U107" t="n">
         <v>10</v>
       </c>
       <c r="V107" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W107" t="n">
         <v>21</v>
@@ -13200,10 +13202,10 @@
         <v>29</v>
       </c>
       <c r="Z107" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB107" t="n">
         <v>15</v>
@@ -13212,13 +13214,13 @@
         <v>51</v>
       </c>
       <c r="AD107" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF107" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG107" t="n">
         <v>12</v>
@@ -13227,10 +13229,10 @@
         <v>34</v>
       </c>
       <c r="AI107" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
@@ -13521,7 +13523,7 @@
         <v>1.08</v>
       </c>
       <c r="K110" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L110" t="n">
         <v>1.44</v>
@@ -13646,10 +13648,10 @@
         <v>9</v>
       </c>
       <c r="L111" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N111" t="n">
         <v>2.2</v>
@@ -13875,46 +13877,46 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H113" t="n">
         <v>3.9</v>
       </c>
       <c r="I113" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K113" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L113" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M113" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N113" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O113" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q113" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R113" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S113" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T113" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U113" t="n">
         <v>10</v>
@@ -13926,13 +13928,13 @@
         <v>19</v>
       </c>
       <c r="X113" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y113" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA113" t="n">
         <v>7.5</v>
@@ -13941,13 +13943,13 @@
         <v>15</v>
       </c>
       <c r="AC113" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD113" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF113" t="n">
         <v>17</v>
@@ -13959,10 +13961,10 @@
         <v>34</v>
       </c>
       <c r="AI113" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ113" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
@@ -13997,13 +13999,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>3.5</v>
       </c>
       <c r="I114" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J114" t="n">
         <v>1.04</v>
@@ -14018,10 +14020,10 @@
         <v>4</v>
       </c>
       <c r="N114" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O114" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P114" t="n">
         <v>1.33</v>
@@ -14036,13 +14038,13 @@
         <v>2.1</v>
       </c>
       <c r="T114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U114" t="n">
         <v>17</v>
       </c>
       <c r="V114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W114" t="n">
         <v>34</v>
@@ -14054,7 +14056,7 @@
         <v>29</v>
       </c>
       <c r="Z114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA114" t="n">
         <v>7</v>
@@ -14072,13 +14074,13 @@
         <v>9</v>
       </c>
       <c r="AF114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG114" t="n">
         <v>9</v>
       </c>
       <c r="AH114" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI114" t="n">
         <v>17</v>
@@ -14128,10 +14130,10 @@
         <v>2.5</v>
       </c>
       <c r="J115" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L115" t="n">
         <v>1.3</v>
@@ -14140,10 +14142,10 @@
         <v>3.4</v>
       </c>
       <c r="N115" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O115" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P115" t="n">
         <v>1.4</v>
@@ -14262,28 +14264,28 @@
         <v>4.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O116" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P116" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R116" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S116" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T116" t="n">
         <v>8.5</v>
       </c>
       <c r="U116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V116" t="n">
         <v>8.5</v>
@@ -14310,7 +14312,7 @@
         <v>41</v>
       </c>
       <c r="AD116" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE116" t="n">
         <v>17</v>
@@ -14384,10 +14386,10 @@
         <v>3.5</v>
       </c>
       <c r="N117" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O117" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P117" t="n">
         <v>1.4</v>
@@ -14500,10 +14502,10 @@
         <v>13</v>
       </c>
       <c r="L118" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M118" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N118" t="n">
         <v>1.7</v>
@@ -14607,19 +14609,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>3.3</v>
       </c>
       <c r="I119" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J119" t="n">
         <v>1.06</v>
       </c>
       <c r="K119" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L119" t="n">
         <v>1.3</v>
@@ -14649,10 +14651,10 @@
         <v>9.5</v>
       </c>
       <c r="U119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W119" t="n">
         <v>34</v>
@@ -14682,7 +14684,7 @@
         <v>7.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG119" t="n">
         <v>9</v>
@@ -14729,13 +14731,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H120" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I120" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J120" t="n">
         <v>1.03</v>
@@ -14771,13 +14773,13 @@
         <v>12</v>
       </c>
       <c r="U120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W120" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X120" t="n">
         <v>17</v>
@@ -14786,10 +14788,10 @@
         <v>21</v>
       </c>
       <c r="Z120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA120" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB120" t="n">
         <v>12</v>
@@ -14801,16 +14803,16 @@
         <v>101</v>
       </c>
       <c r="AE120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG120" t="n">
         <v>10</v>
       </c>
       <c r="AH120" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI120" t="n">
         <v>19</v>
@@ -14860,10 +14862,10 @@
         <v>4.2</v>
       </c>
       <c r="J121" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L121" t="n">
         <v>1.36</v>
@@ -14872,10 +14874,10 @@
         <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O121" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15351,7 +15353,7 @@
         <v>1.06</v>
       </c>
       <c r="K125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L125" t="n">
         <v>1.3</v>
@@ -15473,7 +15475,7 @@
         <v>1.04</v>
       </c>
       <c r="K126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L126" t="n">
         <v>1.25</v>
@@ -15705,13 +15707,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H128" t="n">
         <v>3.6</v>
       </c>
       <c r="I128" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J128" t="n">
         <v>1.04</v>
@@ -15744,13 +15746,13 @@
         <v>2.1</v>
       </c>
       <c r="T128" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U128" t="n">
         <v>15</v>
       </c>
       <c r="V128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W128" t="n">
         <v>29</v>
@@ -15777,7 +15779,7 @@
         <v>201</v>
       </c>
       <c r="AE128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF128" t="n">
         <v>12</v>
@@ -15827,31 +15829,31 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H129" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J129" t="n">
         <v>1.03</v>
       </c>
       <c r="K129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M129" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N129" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O129" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P129" t="n">
         <v>1.29</v>
@@ -15860,22 +15862,22 @@
         <v>3.5</v>
       </c>
       <c r="R129" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S129" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T129" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W129" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X129" t="n">
         <v>11</v>
@@ -15887,31 +15889,31 @@
         <v>15</v>
       </c>
       <c r="AA129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB129" t="n">
         <v>21</v>
       </c>
       <c r="AC129" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD129" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF129" t="n">
         <v>41</v>
       </c>
       <c r="AG129" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH129" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI129" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ129" t="n">
         <v>51</v>
@@ -16071,13 +16073,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
       </c>
       <c r="I131" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J131" t="n">
         <v>1.06</v>
@@ -16086,16 +16088,16 @@
         <v>10</v>
       </c>
       <c r="L131" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M131" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N131" t="n">
         <v>2.05</v>
       </c>
       <c r="O131" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P131" t="n">
         <v>1.4</v>
@@ -16128,7 +16130,7 @@
         <v>34</v>
       </c>
       <c r="Z131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA131" t="n">
         <v>6.5</v>
@@ -16152,7 +16154,7 @@
         <v>10</v>
       </c>
       <c r="AH131" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI131" t="n">
         <v>21</v>
@@ -16315,13 +16317,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J133" t="n">
         <v>1.06</v>
@@ -16357,19 +16359,19 @@
         <v>7</v>
       </c>
       <c r="U133" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W133" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X133" t="n">
         <v>19</v>
       </c>
       <c r="Y133" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z133" t="n">
         <v>9</v>
@@ -16387,16 +16389,16 @@
         <v>351</v>
       </c>
       <c r="AE133" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG133" t="n">
         <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI133" t="n">
         <v>29</v>
@@ -16446,10 +16448,10 @@
         <v>3.6</v>
       </c>
       <c r="J134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L134" t="n">
         <v>1.33</v>
@@ -16458,10 +16460,10 @@
         <v>3.25</v>
       </c>
       <c r="N134" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O134" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P134" t="n">
         <v>1.44</v>
@@ -16559,31 +16561,31 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H135" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I135" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J135" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K135" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L135" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M135" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N135" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O135" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P135" t="n">
         <v>1.4</v>
@@ -16622,16 +16624,16 @@
         <v>7</v>
       </c>
       <c r="AB135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC135" t="n">
         <v>51</v>
       </c>
       <c r="AD135" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF135" t="n">
         <v>29</v>
@@ -16795,82 +16797,82 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="H137" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I137" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="O137" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="n">
-        <v>2.31</v>
+        <v>2.13</v>
       </c>
       <c r="S137" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="T137" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U137" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="V137" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="W137" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="X137" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Y137" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z137" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA137" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AB137" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC137" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD137" t="n">
         <v>600</v>
       </c>
       <c r="AE137" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF137" t="n">
         <v>5.9</v>
       </c>
       <c r="AG137" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AH137" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AI137" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ137" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
@@ -16905,13 +16907,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="H138" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="I138" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -16930,37 +16932,37 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="S138" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="T138" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="U138" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="V138" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="W138" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="X138" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y138" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Z138" t="n">
         <v>12</v>
       </c>
       <c r="AA138" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB138" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AC138" t="n">
         <v>101</v>
@@ -16969,13 +16971,13 @@
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AF138" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AG138" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AH138" t="n">
         <v>101</v>
@@ -17022,10 +17024,10 @@
         <v>4.5</v>
       </c>
       <c r="H139" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I139" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J139" t="n">
         <v>1.05</v>
@@ -17040,10 +17042,10 @@
         <v>3.5</v>
       </c>
       <c r="N139" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O139" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P139" t="n">
         <v>1.36</v>
@@ -17052,10 +17054,10 @@
         <v>3</v>
       </c>
       <c r="R139" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S139" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T139" t="n">
         <v>13</v>
@@ -17076,10 +17078,10 @@
         <v>41</v>
       </c>
       <c r="Z139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA139" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB139" t="n">
         <v>15</v>
@@ -17088,10 +17090,10 @@
         <v>51</v>
       </c>
       <c r="AD139" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE139" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF139" t="n">
         <v>8.5</v>
@@ -17106,7 +17108,7 @@
         <v>15</v>
       </c>
       <c r="AJ139" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
@@ -17272,10 +17274,10 @@
         <v>4.75</v>
       </c>
       <c r="J141" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K141" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L141" t="n">
         <v>1.2</v>
@@ -17385,7 +17387,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H142" t="n">
         <v>3.05</v>
@@ -17408,10 +17410,10 @@
         <v>1.6</v>
       </c>
       <c r="P142" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R142" t="n">
         <v>1.8</v>
@@ -17420,10 +17422,10 @@
         <v>1.8</v>
       </c>
       <c r="T142" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U142" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V142" t="n">
         <v>9.75</v>
@@ -17435,13 +17437,13 @@
         <v>23</v>
       </c>
       <c r="Y142" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z142" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA142" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB142" t="n">
         <v>15</v>
@@ -17453,22 +17455,22 @@
         <v>700</v>
       </c>
       <c r="AE142" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF142" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG142" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH142" t="n">
         <v>32</v>
       </c>
       <c r="AI142" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ142" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143">
@@ -17625,19 +17627,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H144" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I144" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J144" t="n">
         <v>1.03</v>
       </c>
       <c r="K144" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L144" t="n">
         <v>1.17</v>
@@ -17652,25 +17654,25 @@
         <v>2.35</v>
       </c>
       <c r="P144" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q144" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R144" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T144" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U144" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V144" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W144" t="n">
         <v>7.5</v>
@@ -17682,22 +17684,22 @@
         <v>29</v>
       </c>
       <c r="Z144" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA144" t="n">
         <v>11</v>
       </c>
       <c r="AB144" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC144" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD144" t="n">
         <v>351</v>
       </c>
       <c r="AE144" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF144" t="n">
         <v>51</v>
@@ -17706,10 +17708,10 @@
         <v>29</v>
       </c>
       <c r="AH144" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI144" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ144" t="n">
         <v>67</v>
@@ -17890,7 +17892,7 @@
         <v>4.5</v>
       </c>
       <c r="N146" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O146" t="n">
         <v>2.3</v>
@@ -17991,13 +17993,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H147" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I147" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J147" t="n">
         <v>1.04</v>
@@ -18012,7 +18014,7 @@
         <v>4.33</v>
       </c>
       <c r="N147" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O147" t="n">
         <v>2.1</v>
@@ -18030,13 +18032,13 @@
         <v>2.25</v>
       </c>
       <c r="T147" t="n">
+        <v>12</v>
+      </c>
+      <c r="U147" t="n">
+        <v>17</v>
+      </c>
+      <c r="V147" t="n">
         <v>11</v>
-      </c>
-      <c r="U147" t="n">
-        <v>15</v>
-      </c>
-      <c r="V147" t="n">
-        <v>10</v>
       </c>
       <c r="W147" t="n">
         <v>29</v>
@@ -18072,7 +18074,7 @@
         <v>9.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI147" t="n">
         <v>17</v>
@@ -18113,13 +18115,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H148" t="n">
         <v>3.5</v>
       </c>
       <c r="I148" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J148" t="n">
         <v>1.05</v>
@@ -18152,19 +18154,19 @@
         <v>2</v>
       </c>
       <c r="T148" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V148" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W148" t="n">
         <v>29</v>
       </c>
       <c r="X148" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y148" t="n">
         <v>29</v>
@@ -19089,13 +19091,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>3.2</v>
       </c>
       <c r="I156" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J156" t="n">
         <v>1.08</v>
@@ -19131,7 +19133,7 @@
         <v>7</v>
       </c>
       <c r="U156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V156" t="n">
         <v>11</v>
@@ -19140,7 +19142,7 @@
         <v>29</v>
       </c>
       <c r="X156" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y156" t="n">
         <v>41</v>
@@ -19170,7 +19172,7 @@
         <v>10</v>
       </c>
       <c r="AH156" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI156" t="n">
         <v>23</v>
@@ -19333,10 +19335,10 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H158" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="I158" t="n">
         <v>1.17</v>
@@ -19374,16 +19376,16 @@
         <v>175</v>
       </c>
       <c r="V158" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="W158" t="n">
         <v>250</v>
       </c>
       <c r="X158" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Y158" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Z158" t="n">
         <v>8.75</v>
@@ -19392,19 +19394,19 @@
         <v>10</v>
       </c>
       <c r="AB158" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC158" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AD158" t="n">
         <v>101</v>
       </c>
       <c r="AE158" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AF158" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AG158" t="n">
         <v>8.75</v>
@@ -19451,13 +19453,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H159" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I159" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J159" t="n">
         <v>1.11</v>
@@ -19466,10 +19468,10 @@
         <v>5.8</v>
       </c>
       <c r="L159" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M159" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N159" t="n">
         <v>2.65</v>
@@ -19484,25 +19486,25 @@
         <v>2.12</v>
       </c>
       <c r="R159" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="S159" t="n">
         <v>1.6</v>
       </c>
       <c r="T159" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U159" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V159" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W159" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X159" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y159" t="n">
         <v>45</v>
@@ -19523,19 +19525,19 @@
         <v>101</v>
       </c>
       <c r="AE159" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AF159" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AG159" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH159" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ159" t="n">
         <v>32</v>
@@ -19691,19 +19693,19 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H161" t="n">
         <v>2.95</v>
       </c>
       <c r="I161" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J161" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K161" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L161" t="n">
         <v>1.47</v>
@@ -19712,7 +19714,7 @@
         <v>2.32</v>
       </c>
       <c r="N161" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O161" t="n">
         <v>1.45</v>
@@ -19724,28 +19726,28 @@
         <v>2.25</v>
       </c>
       <c r="R161" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S161" t="n">
         <v>1.62</v>
       </c>
       <c r="T161" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U161" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="V161" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W161" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X161" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y161" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z161" t="n">
         <v>6.5</v>
@@ -19763,19 +19765,19 @@
         <v>101</v>
       </c>
       <c r="AE161" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AF161" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG161" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH161" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI161" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ161" t="n">
         <v>45</v>
@@ -20410,10 +20412,10 @@
         <v>2.3</v>
       </c>
       <c r="H167" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I167" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J167" t="n">
         <v>1.05</v>
@@ -20422,10 +20424,10 @@
         <v>11</v>
       </c>
       <c r="L167" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M167" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N167" t="n">
         <v>1.93</v>
@@ -20434,22 +20436,22 @@
         <v>1.93</v>
       </c>
       <c r="P167" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q167" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R167" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S167" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T167" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U167" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V167" t="n">
         <v>9.5</v>
@@ -20461,25 +20463,25 @@
         <v>19</v>
       </c>
       <c r="Y167" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA167" t="n">
         <v>6.5</v>
       </c>
       <c r="AB167" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC167" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD167" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE167" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF167" t="n">
         <v>15</v>
@@ -20494,7 +20496,7 @@
         <v>23</v>
       </c>
       <c r="AJ167" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
@@ -20529,13 +20531,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="H168" t="n">
         <v>5</v>
       </c>
       <c r="I168" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -20569,7 +20571,7 @@
         <v>27</v>
       </c>
       <c r="W168" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="X168" t="n">
         <v>100</v>
@@ -20593,7 +20595,7 @@
         <v>900</v>
       </c>
       <c r="AE168" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF168" t="n">
         <v>6.4</v>
@@ -20605,7 +20607,7 @@
         <v>7.9</v>
       </c>
       <c r="AI168" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ168" t="n">
         <v>28</v>
@@ -20643,7 +20645,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H169" t="n">
         <v>3.1</v>
@@ -20694,7 +20696,7 @@
         <v>29</v>
       </c>
       <c r="X169" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y169" t="n">
         <v>34</v>
@@ -21018,10 +21020,10 @@
         <v>2.25</v>
       </c>
       <c r="J172" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K172" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L172" t="n">
         <v>1.33</v>
@@ -21131,10 +21133,10 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H173" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I173" t="n">
         <v>1.42</v>
@@ -21146,22 +21148,22 @@
         <v>15</v>
       </c>
       <c r="L173" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M173" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N173" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O173" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P173" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q173" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R173" t="n">
         <v>1.83</v>
@@ -21191,7 +21193,7 @@
         <v>15</v>
       </c>
       <c r="AA173" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB173" t="n">
         <v>19</v>
@@ -21215,7 +21217,7 @@
         <v>10</v>
       </c>
       <c r="AI173" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ173" t="n">
         <v>23</v>
@@ -21256,40 +21258,40 @@
         <v>2.15</v>
       </c>
       <c r="H174" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I174" t="n">
         <v>3.7</v>
       </c>
       <c r="J174" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K174" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L174" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N174" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P174" t="n">
         <v>1.53</v>
       </c>
-      <c r="P174" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q174" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R174" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S174" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T174" t="n">
         <v>6</v>
@@ -21307,10 +21309,10 @@
         <v>21</v>
       </c>
       <c r="Y174" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z174" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA174" t="n">
         <v>6</v>
@@ -21325,7 +21327,7 @@
         <v>501</v>
       </c>
       <c r="AE174" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF174" t="n">
         <v>17</v>
@@ -21381,7 +21383,7 @@
         <v>3.2</v>
       </c>
       <c r="I175" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J175" t="n">
         <v>1.08</v>
@@ -21619,21 +21621,21 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="H177" t="n">
         <v>3.05</v>
       </c>
       <c r="I177" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M177" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N177" t="n">
         <v>2.02</v>
@@ -21648,37 +21650,37 @@
         <v>2.3</v>
       </c>
       <c r="R177" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S177" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T177" t="n">
         <v>6.8</v>
       </c>
       <c r="U177" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="V177" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W177" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X177" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y177" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z177" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB177" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC177" t="n">
         <v>55</v>
@@ -21687,22 +21689,22 @@
         <v>400</v>
       </c>
       <c r="AE177" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF177" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG177" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI177" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ177" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178">
@@ -21866,28 +21868,28 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M179" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N179" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O179" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P179" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q179" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R179" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S179" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="T179" t="n">
         <v>6.9</v>
@@ -21902,43 +21904,43 @@
         <v>32</v>
       </c>
       <c r="X179" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y179" t="n">
         <v>30</v>
       </c>
       <c r="Z179" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AA179" t="n">
         <v>4.9</v>
       </c>
       <c r="AB179" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC179" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD179" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AE179" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="AF179" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG179" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH179" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI179" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ179" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180">
@@ -21979,21 +21981,21 @@
         <v>3.9</v>
       </c>
       <c r="I180" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M180" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O180" t="n">
         <v>1.82</v>
-      </c>
-      <c r="O180" t="n">
-        <v>1.8</v>
       </c>
       <c r="P180" t="n">
         <v>1.38</v>
@@ -22002,16 +22004,16 @@
         <v>2.6</v>
       </c>
       <c r="R180" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S180" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T180" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U180" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="V180" t="n">
         <v>8.25</v>
@@ -22023,13 +22025,13 @@
         <v>13</v>
       </c>
       <c r="Y180" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z180" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA180" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB180" t="n">
         <v>18</v>
@@ -22038,10 +22040,10 @@
         <v>90</v>
       </c>
       <c r="AD180" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE180" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF180" t="n">
         <v>29</v>
@@ -22053,10 +22055,10 @@
         <v>90</v>
       </c>
       <c r="AI180" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ180" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ180" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="181">
@@ -22209,22 +22211,22 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H182" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I182" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J182" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K182" t="n">
         <v>7</v>
       </c>
       <c r="L182" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M182" t="n">
         <v>2.5</v>
@@ -22236,49 +22238,49 @@
         <v>1.5</v>
       </c>
       <c r="P182" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q182" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R182" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S182" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T182" t="n">
         <v>6.5</v>
       </c>
       <c r="U182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W182" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X182" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y182" t="n">
         <v>41</v>
       </c>
       <c r="Z182" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA182" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB182" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC182" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD182" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE182" t="n">
         <v>7</v>
@@ -22287,7 +22289,7 @@
         <v>13</v>
       </c>
       <c r="AG182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH182" t="n">
         <v>29</v>
@@ -22341,31 +22343,81 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr"/>
-      <c r="AB183" t="inlineStr"/>
-      <c r="AC183" t="inlineStr"/>
-      <c r="AD183" t="inlineStr"/>
-      <c r="AE183" t="inlineStr"/>
-      <c r="AF183" t="inlineStr"/>
-      <c r="AG183" t="inlineStr"/>
-      <c r="AH183" t="inlineStr"/>
-      <c r="AI183" t="inlineStr"/>
-      <c r="AJ183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T183" t="n">
+        <v>8</v>
+      </c>
+      <c r="U183" t="n">
+        <v>20</v>
+      </c>
+      <c r="V183" t="n">
+        <v>14</v>
+      </c>
+      <c r="W183" t="n">
+        <v>80</v>
+      </c>
+      <c r="X183" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22407,33 +22459,87 @@
       <c r="I184" t="n">
         <v>3</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
-      <c r="AA184" t="inlineStr"/>
-      <c r="AB184" t="inlineStr"/>
-      <c r="AC184" t="inlineStr"/>
-      <c r="AD184" t="inlineStr"/>
-      <c r="AE184" t="inlineStr"/>
-      <c r="AF184" t="inlineStr"/>
-      <c r="AG184" t="inlineStr"/>
-      <c r="AH184" t="inlineStr"/>
-      <c r="AI184" t="inlineStr"/>
-      <c r="AJ184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K184" t="n">
+        <v>6</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T184" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U184" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V184" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="W184" t="n">
+        <v>18</v>
+      </c>
+      <c r="X184" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22473,37 +22579,37 @@
         <v>3.2</v>
       </c>
       <c r="I185" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J185" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K185" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L185" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M185" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N185" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O185" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P185" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R185" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S185" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T185" t="n">
         <v>6.5</v>
@@ -22524,10 +22630,10 @@
         <v>34</v>
       </c>
       <c r="Z185" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA185" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB185" t="n">
         <v>17</v>
@@ -22598,13 +22704,13 @@
         <v>1.65</v>
       </c>
       <c r="J186" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K186" t="n">
         <v>10</v>
       </c>
       <c r="L186" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M186" t="n">
         <v>3.25</v>
@@ -22720,13 +22826,13 @@
         <v>6.25</v>
       </c>
       <c r="J187" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K187" t="n">
         <v>13</v>
       </c>
       <c r="L187" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M187" t="n">
         <v>4</v>
@@ -22833,31 +22939,31 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>3.3</v>
       </c>
       <c r="I188" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J188" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K188" t="n">
         <v>9</v>
       </c>
       <c r="L188" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M188" t="n">
         <v>3</v>
       </c>
       <c r="N188" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O188" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P188" t="n">
         <v>1.44</v>
@@ -22878,10 +22984,10 @@
         <v>11</v>
       </c>
       <c r="V188" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W188" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X188" t="n">
         <v>21</v>
@@ -22908,16 +23014,16 @@
         <v>8.5</v>
       </c>
       <c r="AF188" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG188" t="n">
         <v>11</v>
       </c>
       <c r="AH188" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI188" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ188" t="n">
         <v>34</v>
@@ -22964,13 +23070,13 @@
         <v>2.88</v>
       </c>
       <c r="J189" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K189" t="n">
         <v>13</v>
       </c>
       <c r="L189" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M189" t="n">
         <v>4.33</v>
@@ -23098,10 +23204,10 @@
         <v>4.5</v>
       </c>
       <c r="N190" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O190" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P190" t="n">
         <v>1.29</v>
@@ -23110,10 +23216,10 @@
         <v>3.5</v>
       </c>
       <c r="R190" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S190" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T190" t="n">
         <v>13</v>
@@ -23220,10 +23326,10 @@
         <v>2.42</v>
       </c>
       <c r="N191" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="O191" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="P191" t="n">
         <v>1.57</v>
@@ -23354,10 +23460,10 @@
         <v>2.75</v>
       </c>
       <c r="R192" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S192" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T192" t="n">
         <v>8</v>
@@ -23476,10 +23582,10 @@
         <v>3</v>
       </c>
       <c r="R193" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S193" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T193" t="n">
         <v>13</v>
@@ -23565,31 +23671,31 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H194" t="n">
         <v>3.2</v>
       </c>
       <c r="I194" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J194" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K194" t="n">
         <v>8</v>
       </c>
       <c r="L194" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M194" t="n">
         <v>2.75</v>
       </c>
       <c r="N194" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O194" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P194" t="n">
         <v>1.5</v>
@@ -23598,10 +23704,10 @@
         <v>2.5</v>
       </c>
       <c r="R194" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S194" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T194" t="n">
         <v>6</v>
@@ -23622,19 +23728,19 @@
         <v>34</v>
       </c>
       <c r="Z194" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA194" t="n">
         <v>6</v>
       </c>
       <c r="AB194" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC194" t="n">
         <v>67</v>
       </c>
       <c r="AD194" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE194" t="n">
         <v>10</v>
@@ -23643,7 +23749,7 @@
         <v>21</v>
       </c>
       <c r="AG194" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH194" t="n">
         <v>51</v>
@@ -23696,13 +23802,13 @@
         <v>3.3</v>
       </c>
       <c r="J195" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K195" t="n">
         <v>9</v>
       </c>
       <c r="L195" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M195" t="n">
         <v>3</v>
@@ -23818,10 +23924,10 @@
         <v>1.53</v>
       </c>
       <c r="J196" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L196" t="n">
         <v>1.3</v>
@@ -23830,10 +23936,10 @@
         <v>3.4</v>
       </c>
       <c r="N196" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O196" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -24074,10 +24180,10 @@
         <v>3.75</v>
       </c>
       <c r="N198" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O198" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P198" t="n">
         <v>1.4</v>
@@ -25016,10 +25122,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M206" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N206" t="n">
         <v>2.25</v>
@@ -25135,7 +25241,7 @@
         <v>1.07</v>
       </c>
       <c r="K207" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L207" t="n">
         <v>1.36</v>
@@ -25290,16 +25396,16 @@
         <v>11.25</v>
       </c>
       <c r="V208" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W208" t="n">
         <v>27</v>
       </c>
       <c r="X208" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y208" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z208" t="n">
         <v>5.9</v>
@@ -25317,7 +25423,7 @@
         <v>1000</v>
       </c>
       <c r="AE208" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF208" t="n">
         <v>16.5</v>
@@ -25329,7 +25435,7 @@
         <v>50</v>
       </c>
       <c r="AI208" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ208" t="n">
         <v>55</v>
@@ -26712,13 +26818,13 @@
         <v>5.75</v>
       </c>
       <c r="J224" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K224" t="n">
         <v>9.5</v>
       </c>
       <c r="L224" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M224" t="n">
         <v>3.4</v>
@@ -26834,13 +26940,13 @@
         <v>3.3</v>
       </c>
       <c r="J225" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K225" t="n">
         <v>8</v>
       </c>
       <c r="L225" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M225" t="n">
         <v>3</v>
@@ -26956,22 +27062,22 @@
         <v>1.29</v>
       </c>
       <c r="J226" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K226" t="n">
         <v>19</v>
       </c>
       <c r="L226" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M226" t="n">
         <v>5.5</v>
       </c>
       <c r="N226" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O226" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P226" t="n">
         <v>1.22</v>
@@ -27078,13 +27184,13 @@
         <v>2.88</v>
       </c>
       <c r="J227" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K227" t="n">
         <v>11</v>
       </c>
       <c r="L227" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M227" t="n">
         <v>4</v>
@@ -27191,22 +27297,22 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H228" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I228" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J228" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K228" t="n">
         <v>13</v>
       </c>
       <c r="L228" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M228" t="n">
         <v>4</v>
@@ -27230,10 +27336,10 @@
         <v>2</v>
       </c>
       <c r="T228" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U228" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V228" t="n">
         <v>13</v>
@@ -27266,13 +27372,13 @@
         <v>8</v>
       </c>
       <c r="AF228" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG228" t="n">
         <v>8.5</v>
       </c>
       <c r="AH228" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI228" t="n">
         <v>13</v>
@@ -27322,13 +27428,13 @@
         <v>5.75</v>
       </c>
       <c r="J229" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K229" t="n">
         <v>8.5</v>
       </c>
       <c r="L229" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M229" t="n">
         <v>3.4</v>
@@ -27444,13 +27550,13 @@
         <v>3.4</v>
       </c>
       <c r="J230" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K230" t="n">
         <v>9</v>
       </c>
       <c r="L230" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M230" t="n">
         <v>3.25</v>
@@ -27566,22 +27672,22 @@
         <v>1.65</v>
       </c>
       <c r="J231" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K231" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L231" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M231" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N231" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O231" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P231" t="n">
         <v>1.4</v>
@@ -27801,94 +27907,94 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="H233" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I233" t="n">
-        <v>4.65</v>
+        <v>6.1</v>
       </c>
       <c r="J233" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K233" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="L233" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M233" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="N233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O233" t="n">
         <v>1.88</v>
       </c>
-      <c r="O233" t="n">
-        <v>1.82</v>
-      </c>
       <c r="P233" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q233" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="R233" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S233" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T233" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U233" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="V233" t="n">
         <v>8.25</v>
       </c>
       <c r="W233" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="X233" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y233" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z233" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AA233" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="AB233" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AC233" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD233" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AE233" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF233" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AG233" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH233" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AI233" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AJ233" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234">
@@ -27923,13 +28029,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H234" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I234" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J234" t="n">
         <v>1.06</v>
@@ -27941,7 +28047,7 @@
         <v>1.29</v>
       </c>
       <c r="M234" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N234" t="n">
         <v>1.85</v>
@@ -27950,7 +28056,7 @@
         <v>1.9</v>
       </c>
       <c r="P234" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q234" t="n">
         <v>2.82</v>
@@ -27965,19 +28071,19 @@
         <v>8.25</v>
       </c>
       <c r="U234" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V234" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W234" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X234" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y234" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z234" t="n">
         <v>7.9</v>
@@ -27986,7 +28092,7 @@
         <v>6.7</v>
       </c>
       <c r="AB234" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC234" t="n">
         <v>60</v>
@@ -27998,16 +28104,16 @@
         <v>9.75</v>
       </c>
       <c r="AF234" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG234" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH234" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI234" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ234" t="n">
         <v>35</v>
@@ -28777,13 +28883,13 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H241" t="n">
         <v>3.5</v>
       </c>
       <c r="I241" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J241" t="n">
         <v>1.05</v>
@@ -28816,7 +28922,7 @@
         <v>1.91</v>
       </c>
       <c r="T241" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U241" t="n">
         <v>12</v>
@@ -28825,7 +28931,7 @@
         <v>10</v>
       </c>
       <c r="W241" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X241" t="n">
         <v>21</v>
@@ -28920,10 +29026,10 @@
         <v>3.75</v>
       </c>
       <c r="N242" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O242" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P242" t="n">
         <v>1.36</v>
@@ -29036,16 +29142,16 @@
         <v>11</v>
       </c>
       <c r="L243" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M243" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N243" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O243" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P243" t="n">
         <v>1.4</v>
@@ -29387,13 +29493,13 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H246" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I246" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J246" t="n">
         <v>1.05</v>
@@ -29426,19 +29532,19 @@
         <v>2</v>
       </c>
       <c r="T246" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U246" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V246" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W246" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X246" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y246" t="n">
         <v>29</v>
@@ -29459,19 +29565,19 @@
         <v>201</v>
       </c>
       <c r="AE246" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF246" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG246" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH246" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI246" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ246" t="n">
         <v>34</v>
@@ -29631,13 +29737,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H248" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I248" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J248" t="n">
         <v>1.08</v>
@@ -29652,10 +29758,10 @@
         <v>2.75</v>
       </c>
       <c r="N248" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O248" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P248" t="n">
         <v>1.5</v>
@@ -29673,13 +29779,13 @@
         <v>7</v>
       </c>
       <c r="U248" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V248" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W248" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X248" t="n">
         <v>21</v>
@@ -29703,7 +29809,7 @@
         <v>351</v>
       </c>
       <c r="AE248" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF248" t="n">
         <v>15</v>
@@ -29756,7 +29862,7 @@
         <v>2</v>
       </c>
       <c r="H249" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I249" t="n">
         <v>4.5</v>
@@ -29825,7 +29931,7 @@
         <v>101</v>
       </c>
       <c r="AE249" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF249" t="n">
         <v>21</v>
@@ -30363,13 +30469,13 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H254" t="n">
         <v>3</v>
       </c>
       <c r="I254" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J254" t="n">
         <v>1.07</v>
@@ -30414,7 +30520,7 @@
         <v>23</v>
       </c>
       <c r="X254" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y254" t="n">
         <v>34</v>
@@ -30435,7 +30541,7 @@
         <v>800</v>
       </c>
       <c r="AE254" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF254" t="n">
         <v>13</v>
@@ -30741,19 +30847,19 @@
         <v>1.03</v>
       </c>
       <c r="K257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L257" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M257" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N257" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O257" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P257" t="n">
         <v>1.33</v>
@@ -30887,7 +30993,7 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T258" t="n">
         <v>6</v>
@@ -30973,13 +31079,13 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H259" t="n">
         <v>3.5</v>
       </c>
       <c r="I259" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J259" t="n">
         <v>1.05</v>
@@ -31006,7 +31112,7 @@
         <v>3</v>
       </c>
       <c r="R259" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S259" t="n">
         <v>2.05</v>
@@ -31051,13 +31157,13 @@
         <v>15</v>
       </c>
       <c r="AG259" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH259" t="n">
         <v>29</v>
       </c>
       <c r="AI259" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ259" t="n">
         <v>29</v>
@@ -31217,19 +31323,19 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H261" t="n">
         <v>3.4</v>
       </c>
       <c r="I261" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J261" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K261" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L261" t="n">
         <v>1.25</v>
@@ -31238,10 +31344,10 @@
         <v>3.75</v>
       </c>
       <c r="N261" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O261" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P261" t="n">
         <v>1.36</v>
@@ -31259,7 +31365,7 @@
         <v>8.5</v>
       </c>
       <c r="U261" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V261" t="n">
         <v>9</v>
@@ -31268,10 +31374,10 @@
         <v>19</v>
       </c>
       <c r="X261" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y261" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z261" t="n">
         <v>11</v>
@@ -31286,22 +31392,22 @@
         <v>41</v>
       </c>
       <c r="AD261" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE261" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF261" t="n">
         <v>19</v>
       </c>
       <c r="AG261" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH261" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI261" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ261" t="n">
         <v>34</v>
@@ -31705,13 +31811,13 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I265" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
@@ -31740,19 +31846,19 @@
         <v>1.65</v>
       </c>
       <c r="T265" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U265" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V265" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W265" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X265" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y265" t="n">
         <v>50</v>
@@ -31773,22 +31879,22 @@
         <v>800</v>
       </c>
       <c r="AE265" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AF265" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG265" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH265" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI265" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ265" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="266">
@@ -31972,10 +32078,10 @@
         <v>1.53</v>
       </c>
       <c r="P267" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q267" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R267" t="n">
         <v>2.1</v>
@@ -32674,10 +32780,10 @@
         <v>5.25</v>
       </c>
       <c r="J273" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K273" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L273" t="n">
         <v>1.2</v>
@@ -33525,7 +33631,7 @@
         <v>3.9</v>
       </c>
       <c r="I280" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J280" t="n">
         <v>1.03</v>
@@ -33546,28 +33652,28 @@
         <v>2.25</v>
       </c>
       <c r="P280" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q280" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R280" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S280" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T280" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U280" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V280" t="n">
         <v>8.5</v>
       </c>
       <c r="W280" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X280" t="n">
         <v>13</v>
@@ -33594,7 +33700,7 @@
         <v>15</v>
       </c>
       <c r="AF280" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG280" t="n">
         <v>15</v>
@@ -33885,31 +33991,31 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H283" t="n">
         <v>3.2</v>
       </c>
       <c r="I283" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J283" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K283" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L283" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M283" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N283" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O283" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P283" t="n">
         <v>1.4</v>
@@ -33924,7 +34030,7 @@
         <v>2.05</v>
       </c>
       <c r="T283" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U283" t="n">
         <v>13</v>
@@ -34038,7 +34144,7 @@
         <v>2.05</v>
       </c>
       <c r="T284" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U284" t="n">
         <v>18.5</v>
@@ -34053,10 +34159,10 @@
         <v>27</v>
       </c>
       <c r="Y284" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z284" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA284" t="n">
         <v>6.7</v>
@@ -34083,7 +34189,7 @@
         <v>19.5</v>
       </c>
       <c r="AI284" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ284" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-26.xlsx
@@ -668,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H4" t="n">
         <v>7.5</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
         <v>1.01</v>
@@ -912,10 +912,10 @@
         <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P4" t="n">
         <v>1.18</v>
@@ -930,13 +930,13 @@
         <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U4" t="n">
         <v>8.5</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
@@ -951,10 +951,10 @@
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -975,7 +975,7 @@
         <v>201</v>
       </c>
       <c r="AI4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
@@ -1016,7 +1016,7 @@
         <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1.6</v>
@@ -1028,10 +1028,10 @@
         <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N5" t="n">
         <v>1.67</v>
@@ -1040,10 +1040,10 @@
         <v>2.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
         <v>1.7</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>8.5</v>
@@ -1082,13 +1082,13 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1162,22 +1162,22 @@
         <v>2.1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
@@ -1189,13 +1189,13 @@
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>19</v>
@@ -1204,13 +1204,13 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" t="n">
         <v>1.13</v>
@@ -1400,10 +1400,10 @@
         <v>6</v>
       </c>
       <c r="N8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P8" t="n">
         <v>1.22</v>
@@ -1418,7 +1418,7 @@
         <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U8" t="n">
         <v>41</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1638,16 +1638,16 @@
         <v>13</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N10" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -1680,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>9</v>
@@ -1692,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
@@ -1757,25 +1757,25 @@
         <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="O11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
         <v>1.7</v>
@@ -1790,7 +1790,7 @@
         <v>8.5</v>
       </c>
       <c r="V11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
         <v>9</v>
@@ -1802,10 +1802,10 @@
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -1829,7 +1829,7 @@
         <v>126</v>
       </c>
       <c r="AI11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
         <v>4.33</v>
       </c>
       <c r="I12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
         <v>1.02</v>
@@ -1882,10 +1882,10 @@
         <v>19</v>
       </c>
       <c r="L12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="n">
         <v>1.44</v>
@@ -1900,10 +1900,10 @@
         <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
         <v>19</v>
@@ -1912,19 +1912,19 @@
         <v>26</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
         <v>41</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
@@ -1945,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2117,7 +2117,7 @@
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -2364,13 +2364,13 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="n">
         <v>2.25</v>
@@ -2391,7 +2391,7 @@
         <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
         <v>6</v>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
         <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="n">
         <v>2.1</v>
@@ -2513,7 +2513,7 @@
         <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T17" t="n">
         <v>5</v>
@@ -2605,25 +2605,25 @@
         <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
         <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
         <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
         <v>1.53</v>
@@ -2635,7 +2635,7 @@
         <v>2.1</v>
       </c>
       <c r="S18" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
         <v>7.5</v>
@@ -2736,10 +2736,10 @@
         <v>6.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N19" t="n">
         <v>2.7</v>
@@ -2858,10 +2858,10 @@
         <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N20" t="n">
         <v>3.1</v>
@@ -3218,16 +3218,16 @@
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N23" t="n">
         <v>2.88</v>
@@ -3840,10 +3840,10 @@
         <v>4.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O28" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P28" t="n">
         <v>1.29</v>
@@ -3941,19 +3941,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I29" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
         <v>1.01</v>
       </c>
       <c r="K29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L29" t="n">
         <v>1.08</v>
@@ -3968,16 +3968,16 @@
         <v>3.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
         <v>21</v>
@@ -3986,10 +3986,10 @@
         <v>23</v>
       </c>
       <c r="V29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -3998,10 +3998,10 @@
         <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
@@ -4010,7 +4010,7 @@
         <v>23</v>
       </c>
       <c r="AD29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
@@ -4078,10 +4078,10 @@
         <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N30" t="n">
         <v>1.4</v>
@@ -4090,10 +4090,10 @@
         <v>3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R30" t="n">
         <v>1.44</v>
@@ -4206,10 +4206,10 @@
         <v>2.75</v>
       </c>
       <c r="N31" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -4432,7 +4432,7 @@
         <v>2.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
         <v>3.15</v>
@@ -4447,7 +4447,7 @@
         <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N33" t="n">
         <v>1.91</v>
@@ -4468,22 +4468,22 @@
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V33" t="n">
         <v>8.75</v>
       </c>
       <c r="W33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z33" t="n">
         <v>7.1</v>
@@ -4501,22 +4501,22 @@
         <v>450</v>
       </c>
       <c r="AE33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH33" t="n">
         <v>40</v>
       </c>
       <c r="AI33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -4551,90 +4551,90 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M34" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="N34" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="O34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S34" t="n">
         <v>1.62</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U34" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V34" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W34" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="X34" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Y34" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD34" t="n">
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AG34" t="n">
         <v>8.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ34" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -4864,13 +4864,13 @@
         <v>3.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="n">
         <v>12</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
         <v>3.75</v>
@@ -4888,7 +4888,7 @@
         <v>3.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
         <v>2.1</v>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
@@ -4986,13 +4986,13 @@
         <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K39" t="n">
         <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
         <v>3.25</v>
@@ -5010,10 +5010,10 @@
         <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S39" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
         <v>7</v>
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H40" t="n">
         <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
         <v>19</v>
       </c>
       <c r="L40" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M40" t="n">
         <v>5.5</v>
@@ -5132,10 +5132,10 @@
         <v>3.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S40" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T40" t="n">
         <v>13</v>
@@ -5162,7 +5162,7 @@
         <v>7.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
         <v>29</v>
@@ -5180,13 +5180,13 @@
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI40" t="n">
         <v>21</v>
       </c>
       <c r="AJ40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -5242,10 +5242,10 @@
         <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O41" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P41" t="n">
         <v>1.33</v>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H42" t="n">
         <v>4.1</v>
@@ -5376,7 +5376,7 @@
         <v>4.33</v>
       </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S42" t="n">
         <v>2.75</v>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.8</v>
@@ -5498,7 +5498,7 @@
         <v>3.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S43" t="n">
         <v>2.25</v>
@@ -5593,7 +5593,7 @@
         <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J44" t="n">
         <v>1.04</v>
@@ -5620,10 +5620,10 @@
         <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T44" t="n">
         <v>11</v>
@@ -5723,7 +5723,7 @@
         <v>1.22</v>
       </c>
       <c r="M45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N45" t="n">
         <v>1.65</v>
@@ -5740,25 +5740,25 @@
         <v>2.15</v>
       </c>
       <c r="T45" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U45" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z45" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
         <v>6.7</v>
@@ -5773,10 +5773,10 @@
         <v>300</v>
       </c>
       <c r="AE45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AG45" t="n">
         <v>11</v>
@@ -5785,10 +5785,10 @@
         <v>45</v>
       </c>
       <c r="AI45" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ45" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I46" t="n">
         <v>1.52</v>
@@ -5837,7 +5837,7 @@
         <v>1.33</v>
       </c>
       <c r="M46" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="N46" t="n">
         <v>1.98</v>
@@ -5852,7 +5852,7 @@
         <v>2.42</v>
       </c>
       <c r="R46" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S46" t="n">
         <v>1.62</v>
@@ -5864,7 +5864,7 @@
         <v>40</v>
       </c>
       <c r="V46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W46" t="n">
         <v>150</v>
@@ -5879,7 +5879,7 @@
         <v>8.75</v>
       </c>
       <c r="AA46" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB46" t="n">
         <v>20</v>
@@ -5891,10 +5891,10 @@
         <v>800</v>
       </c>
       <c r="AE46" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG46" t="n">
         <v>8.25</v>
@@ -5906,7 +5906,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
@@ -5962,10 +5962,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O47" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="P47" t="n">
         <v>1.36</v>
@@ -6063,13 +6063,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H48" t="n">
         <v>2.9</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
         <v>1.11</v>
@@ -6084,10 +6084,10 @@
         <v>2.63</v>
       </c>
       <c r="N48" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
         <v>1.53</v>
@@ -6096,10 +6096,10 @@
         <v>2.38</v>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T48" t="n">
         <v>6</v>
@@ -6114,7 +6114,7 @@
         <v>21</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
         <v>41</v>
@@ -6126,25 +6126,25 @@
         <v>6</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD48" t="n">
         <v>501</v>
       </c>
       <c r="AE48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF48" t="n">
         <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI48" t="n">
         <v>34</v>
@@ -6185,13 +6185,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J49" t="n">
         <v>1.08</v>
@@ -6200,10 +6200,10 @@
         <v>8</v>
       </c>
       <c r="L49" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N49" t="n">
         <v>2.25</v>
@@ -6242,7 +6242,7 @@
         <v>41</v>
       </c>
       <c r="Z49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA49" t="n">
         <v>6.5</v>
@@ -6251,7 +6251,7 @@
         <v>17</v>
       </c>
       <c r="AC49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD49" t="n">
         <v>401</v>
@@ -6450,10 +6450,10 @@
         <v>2.75</v>
       </c>
       <c r="N51" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P51" t="n">
         <v>1.5</v>
@@ -7066,10 +7066,10 @@
         <v>1.67</v>
       </c>
       <c r="P56" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R56" t="n">
         <v>2.2</v>
@@ -7197,7 +7197,7 @@
         <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T57" t="n">
         <v>12</v>
@@ -7397,7 +7397,7 @@
         <v>4.4</v>
       </c>
       <c r="I59" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -7411,7 +7411,7 @@
         <v>1.72</v>
       </c>
       <c r="O59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -7422,7 +7422,7 @@
         <v>1.62</v>
       </c>
       <c r="T59" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U59" t="n">
         <v>5.1</v>
@@ -7440,10 +7440,10 @@
         <v>25</v>
       </c>
       <c r="Z59" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA59" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB59" t="n">
         <v>18.5</v>
@@ -7470,7 +7470,7 @@
         <v>70</v>
       </c>
       <c r="AJ59" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
@@ -7627,13 +7627,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7644,7 +7644,7 @@
         <v>2.48</v>
       </c>
       <c r="N61" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O61" t="n">
         <v>1.5</v>
@@ -7662,49 +7662,49 @@
         <v>1.51</v>
       </c>
       <c r="T61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V61" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="W61" t="n">
+        <v>80</v>
+      </c>
+      <c r="X61" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y61" t="n">
         <v>70</v>
-      </c>
-      <c r="X61" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>65</v>
       </c>
       <c r="Z61" t="n">
         <v>7</v>
       </c>
       <c r="AA61" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB61" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC61" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD61" t="n">
         <v>101</v>
       </c>
       <c r="AE61" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AF61" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AG61" t="n">
         <v>7.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI61" t="n">
         <v>13</v>
@@ -7745,13 +7745,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="H62" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I62" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -7772,19 +7772,19 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U62" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="V62" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="W62" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="X62" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y62" t="n">
         <v>28</v>
@@ -7793,32 +7793,32 @@
         <v>7.6</v>
       </c>
       <c r="AA62" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC62" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG62" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AI62" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AJ62" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
@@ -8040,13 +8040,13 @@
         <v>2.95</v>
       </c>
       <c r="H65" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I65" t="n">
         <v>2.25</v>
       </c>
       <c r="J65" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K65" t="n">
         <v>7.6</v>
@@ -8058,7 +8058,7 @@
         <v>3.15</v>
       </c>
       <c r="N65" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O65" t="n">
         <v>1.78</v>
@@ -8070,16 +8070,16 @@
         <v>2.67</v>
       </c>
       <c r="R65" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S65" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T65" t="n">
         <v>8.75</v>
       </c>
       <c r="U65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V65" t="n">
         <v>11.5</v>
@@ -8097,7 +8097,7 @@
         <v>7.6</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB65" t="n">
         <v>16</v>
@@ -8168,25 +8168,25 @@
         <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M66" t="n">
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O66" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P66" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q66" t="n">
         <v>3</v>
@@ -8281,22 +8281,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H67" t="n">
         <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J67" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
@@ -8305,22 +8305,22 @@
         <v>2.15</v>
       </c>
       <c r="O67" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P67" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T67" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U67" t="n">
         <v>7</v>
@@ -8347,7 +8347,7 @@
         <v>21</v>
       </c>
       <c r="AC67" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="n">
         <v>351</v>
@@ -8356,7 +8356,7 @@
         <v>11</v>
       </c>
       <c r="AF67" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG67" t="n">
         <v>17</v>
@@ -8403,13 +8403,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8427,13 +8427,13 @@
         <v>1.75</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P68" t="n">
         <v>1.37</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="R68" t="n">
         <v>1.62</v>
@@ -8442,19 +8442,19 @@
         <v>2.15</v>
       </c>
       <c r="T68" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="U68" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="V68" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W68" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X68" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y68" t="n">
         <v>35</v>
@@ -8463,10 +8463,10 @@
         <v>8.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB68" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC68" t="n">
         <v>55</v>
@@ -8475,19 +8475,19 @@
         <v>400</v>
       </c>
       <c r="AE68" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF68" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG68" t="n">
         <v>9</v>
       </c>
       <c r="AH68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI68" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ68" t="n">
         <v>25</v>
@@ -8525,13 +8525,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="H69" t="n">
         <v>3.35</v>
       </c>
       <c r="I69" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J69" t="n">
         <v>1.09</v>
@@ -8546,16 +8546,16 @@
         <v>2.75</v>
       </c>
       <c r="N69" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="O69" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P69" t="n">
         <v>1.47</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R69" t="n">
         <v>1.98</v>
@@ -8564,19 +8564,19 @@
         <v>1.75</v>
       </c>
       <c r="T69" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U69" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V69" t="n">
         <v>9.75</v>
       </c>
       <c r="W69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y69" t="n">
         <v>40</v>
@@ -8585,31 +8585,31 @@
         <v>6.7</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB69" t="n">
         <v>19</v>
       </c>
       <c r="AC69" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD69" t="n">
         <v>1250</v>
       </c>
       <c r="AE69" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF69" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH69" t="n">
         <v>50</v>
       </c>
       <c r="AI69" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ69" t="n">
         <v>55</v>
@@ -8891,13 +8891,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="H72" t="n">
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J72" t="n">
         <v>1.03</v>
@@ -8912,10 +8912,10 @@
         <v>4.5</v>
       </c>
       <c r="N72" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O72" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P72" t="n">
         <v>1.29</v>
@@ -8930,13 +8930,13 @@
         <v>1.95</v>
       </c>
       <c r="T72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U72" t="n">
         <v>34</v>
       </c>
       <c r="V72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W72" t="n">
         <v>67</v>
@@ -9013,13 +9013,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J73" t="n">
         <v>1.06</v>
@@ -9034,43 +9034,43 @@
         <v>3.25</v>
       </c>
       <c r="N73" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O73" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P73" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R73" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S73" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T73" t="n">
         <v>8.5</v>
       </c>
       <c r="U73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W73" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y73" t="n">
         <v>34</v>
       </c>
       <c r="Z73" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA73" t="n">
         <v>6.5</v>
@@ -9082,22 +9082,22 @@
         <v>51</v>
       </c>
       <c r="AD73" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG73" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ73" t="n">
         <v>29</v>
@@ -9135,13 +9135,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I74" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J74" t="n">
         <v>1.03</v>
@@ -9168,10 +9168,10 @@
         <v>3.75</v>
       </c>
       <c r="R74" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S74" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T74" t="n">
         <v>15</v>
@@ -9180,7 +9180,7 @@
         <v>19</v>
       </c>
       <c r="V74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W74" t="n">
         <v>34</v>
@@ -9192,7 +9192,7 @@
         <v>23</v>
       </c>
       <c r="Z74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA74" t="n">
         <v>7.5</v>
@@ -9213,7 +9213,7 @@
         <v>13</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
@@ -9222,7 +9222,7 @@
         <v>15</v>
       </c>
       <c r="AJ74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -9493,87 +9493,87 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H77" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I77" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M77" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="N77" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O77" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P77" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R77" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S77" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T77" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="U77" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V77" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="W77" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="X77" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y77" t="n">
         <v>75</v>
       </c>
       <c r="Z77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB77" t="n">
         <v>20</v>
       </c>
       <c r="AC77" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD77" t="n">
         <v>1000</v>
       </c>
       <c r="AE77" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF77" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG77" t="n">
         <v>8.25</v>
       </c>
       <c r="AH77" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AI77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ77" t="n">
         <v>32</v>
@@ -9753,7 +9753,7 @@
         <v>2.7</v>
       </c>
       <c r="O79" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P79" t="n">
         <v>1.62</v>
@@ -10592,13 +10592,13 @@
         <v>3.8</v>
       </c>
       <c r="J86" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K86" t="n">
         <v>8</v>
       </c>
       <c r="L86" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
@@ -10714,13 +10714,13 @@
         <v>2.35</v>
       </c>
       <c r="J87" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K87" t="n">
         <v>6.5</v>
       </c>
       <c r="L87" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M87" t="n">
         <v>2.5</v>
@@ -10836,16 +10836,16 @@
         <v>3.1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K88" t="n">
         <v>6.5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M88" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N88" t="n">
         <v>2.38</v>
@@ -10958,16 +10958,16 @@
         <v>2.15</v>
       </c>
       <c r="J89" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K89" t="n">
         <v>6.5</v>
       </c>
       <c r="L89" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M89" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N89" t="n">
         <v>2.63</v>
@@ -11080,16 +11080,16 @@
         <v>3.4</v>
       </c>
       <c r="J90" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K90" t="n">
         <v>6.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M90" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N90" t="n">
         <v>2.63</v>
@@ -11443,7 +11443,7 @@
         <v>3.9</v>
       </c>
       <c r="I93" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J93" t="n">
         <v>1.03</v>
@@ -11687,7 +11687,7 @@
         <v>4.5</v>
       </c>
       <c r="I95" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="J95" t="n">
         <v>1.04</v>
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>3.2</v>
@@ -12074,19 +12074,19 @@
         <v>1.9</v>
       </c>
       <c r="P98" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S98" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U98" t="n">
         <v>12</v>
@@ -12131,7 +12131,7 @@
         <v>29</v>
       </c>
       <c r="AI98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ98" t="n">
         <v>29</v>
@@ -12169,19 +12169,19 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I99" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J99" t="n">
         <v>1.04</v>
       </c>
       <c r="K99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L99" t="n">
         <v>1.22</v>
@@ -12190,10 +12190,10 @@
         <v>4</v>
       </c>
       <c r="N99" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O99" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P99" t="n">
         <v>1.33</v>
@@ -12223,13 +12223,13 @@
         <v>12</v>
       </c>
       <c r="Y99" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA99" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB99" t="n">
         <v>17</v>
@@ -12291,13 +12291,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J100" t="n">
         <v>1.04</v>
@@ -12312,10 +12312,10 @@
         <v>4</v>
       </c>
       <c r="N100" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O100" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P100" t="n">
         <v>1.33</v>
@@ -12330,7 +12330,7 @@
         <v>2.2</v>
       </c>
       <c r="T100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U100" t="n">
         <v>17</v>
@@ -12363,10 +12363,10 @@
         <v>151</v>
       </c>
       <c r="AE100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG100" t="n">
         <v>9</v>
@@ -12556,10 +12556,10 @@
         <v>3.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O102" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P102" t="n">
         <v>1.36</v>
@@ -12681,7 +12681,7 @@
         <v>2.1</v>
       </c>
       <c r="O103" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P103" t="n">
         <v>1.44</v>
@@ -12791,7 +12791,7 @@
         <v>1.06</v>
       </c>
       <c r="K104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L104" t="n">
         <v>1.3</v>
@@ -12800,10 +12800,10 @@
         <v>3.5</v>
       </c>
       <c r="N104" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="O104" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P104" t="n">
         <v>1.4</v>
@@ -12901,19 +12901,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I105" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J105" t="n">
         <v>1.07</v>
       </c>
       <c r="K105" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L105" t="n">
         <v>1.4</v>
@@ -12922,10 +12922,10 @@
         <v>3</v>
       </c>
       <c r="N105" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O105" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P105" t="n">
         <v>1.44</v>
@@ -12940,10 +12940,10 @@
         <v>1.73</v>
       </c>
       <c r="T105" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V105" t="n">
         <v>13</v>
@@ -12961,7 +12961,7 @@
         <v>8.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB105" t="n">
         <v>19</v>
@@ -12976,7 +12976,7 @@
         <v>6.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG105" t="n">
         <v>9</v>
@@ -12988,7 +12988,7 @@
         <v>17</v>
       </c>
       <c r="AJ105" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -13044,10 +13044,10 @@
         <v>3.5</v>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O106" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P106" t="n">
         <v>1.4</v>
@@ -13389,7 +13389,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H109" t="n">
         <v>4.33</v>
@@ -13440,7 +13440,7 @@
         <v>12</v>
       </c>
       <c r="X109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y109" t="n">
         <v>21</v>
@@ -13511,13 +13511,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H110" t="n">
         <v>3.25</v>
       </c>
       <c r="I110" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J110" t="n">
         <v>1.08</v>
@@ -13553,13 +13553,13 @@
         <v>6.5</v>
       </c>
       <c r="U110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V110" t="n">
         <v>9.5</v>
       </c>
       <c r="W110" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X110" t="n">
         <v>21</v>
@@ -13583,19 +13583,19 @@
         <v>451</v>
       </c>
       <c r="AE110" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG110" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ110" t="n">
         <v>41</v>
@@ -13633,13 +13633,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I111" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J111" t="n">
         <v>1.07</v>
@@ -13672,28 +13672,28 @@
         <v>1.83</v>
       </c>
       <c r="T111" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U111" t="n">
         <v>15</v>
       </c>
       <c r="V111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W111" t="n">
         <v>34</v>
       </c>
       <c r="X111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y111" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z111" t="n">
         <v>8.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB111" t="n">
         <v>15</v>
@@ -13702,22 +13702,22 @@
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE111" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG111" t="n">
         <v>9.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ111" t="n">
         <v>34</v>
@@ -13755,7 +13755,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H112" t="n">
         <v>3.6</v>
@@ -13767,7 +13767,7 @@
         <v>1.06</v>
       </c>
       <c r="K112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L112" t="n">
         <v>1.33</v>
@@ -13877,13 +13877,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J113" t="n">
         <v>1.04</v>
@@ -14020,10 +14020,10 @@
         <v>4</v>
       </c>
       <c r="N114" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O114" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P114" t="n">
         <v>1.33</v>
@@ -14130,22 +14130,22 @@
         <v>2.5</v>
       </c>
       <c r="J115" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L115" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M115" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N115" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P115" t="n">
         <v>1.4</v>
@@ -14264,10 +14264,10 @@
         <v>4.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O116" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P116" t="n">
         <v>1.29</v>
@@ -14621,7 +14621,7 @@
         <v>1.06</v>
       </c>
       <c r="K119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L119" t="n">
         <v>1.3</v>
@@ -14752,10 +14752,10 @@
         <v>5</v>
       </c>
       <c r="N120" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O120" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P120" t="n">
         <v>1.29</v>
@@ -15118,16 +15118,16 @@
         <v>3</v>
       </c>
       <c r="N123" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O123" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P123" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R123" t="n">
         <v>1.95</v>
@@ -15139,7 +15139,7 @@
         <v>7</v>
       </c>
       <c r="U123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V123" t="n">
         <v>9.5</v>
@@ -15166,10 +15166,10 @@
         <v>51</v>
       </c>
       <c r="AD123" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF123" t="n">
         <v>15</v>
@@ -15463,13 +15463,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H126" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J126" t="n">
         <v>1.04</v>
@@ -15505,10 +15505,10 @@
         <v>12</v>
       </c>
       <c r="U126" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W126" t="n">
         <v>51</v>
@@ -15523,7 +15523,7 @@
         <v>12</v>
       </c>
       <c r="AA126" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB126" t="n">
         <v>17</v>
@@ -15707,31 +15707,31 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>3.6</v>
       </c>
       <c r="I128" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J128" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K128" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M128" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N128" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O128" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P128" t="n">
         <v>1.36</v>
@@ -15740,10 +15740,10 @@
         <v>3</v>
       </c>
       <c r="R128" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S128" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T128" t="n">
         <v>9.5</v>
@@ -15764,13 +15764,13 @@
         <v>29</v>
       </c>
       <c r="Z128" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA128" t="n">
         <v>7</v>
       </c>
       <c r="AB128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC128" t="n">
         <v>41</v>
@@ -15779,7 +15779,7 @@
         <v>201</v>
       </c>
       <c r="AE128" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF128" t="n">
         <v>12</v>
@@ -15844,10 +15844,10 @@
         <v>17</v>
       </c>
       <c r="L129" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M129" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N129" t="n">
         <v>1.53</v>
@@ -15856,28 +15856,28 @@
         <v>2.4</v>
       </c>
       <c r="P129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q129" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R129" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S129" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T129" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V129" t="n">
         <v>9</v>
       </c>
       <c r="W129" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X129" t="n">
         <v>11</v>
@@ -15886,19 +15886,19 @@
         <v>26</v>
       </c>
       <c r="Z129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB129" t="n">
         <v>21</v>
       </c>
       <c r="AC129" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD129" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE129" t="n">
         <v>23</v>
@@ -15907,13 +15907,13 @@
         <v>41</v>
       </c>
       <c r="AG129" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH129" t="n">
         <v>101</v>
       </c>
       <c r="AI129" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ129" t="n">
         <v>51</v>
@@ -15972,10 +15972,10 @@
         <v>4</v>
       </c>
       <c r="N130" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O130" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P130" t="n">
         <v>1.33</v>
@@ -16797,10 +16797,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H137" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I137" t="n">
         <v>1.14</v>
@@ -16818,19 +16818,19 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="n">
-        <v>2.13</v>
+        <v>2.08</v>
       </c>
       <c r="S137" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="T137" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U137" t="n">
         <v>90</v>
       </c>
       <c r="V137" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W137" t="n">
         <v>350</v>
@@ -16839,7 +16839,7 @@
         <v>150</v>
       </c>
       <c r="Y137" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z137" t="n">
         <v>20</v>
@@ -16851,7 +16851,7 @@
         <v>25</v>
       </c>
       <c r="AC137" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD137" t="n">
         <v>600</v>
@@ -16860,19 +16860,19 @@
         <v>8.5</v>
       </c>
       <c r="AF137" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG137" t="n">
         <v>9</v>
       </c>
       <c r="AH137" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI137" t="n">
         <v>9</v>
       </c>
       <c r="AJ137" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138">
@@ -17021,13 +17021,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H139" t="n">
         <v>3.4</v>
       </c>
       <c r="I139" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="J139" t="n">
         <v>1.05</v>
@@ -17060,16 +17060,16 @@
         <v>1.95</v>
       </c>
       <c r="T139" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U139" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V139" t="n">
         <v>15</v>
       </c>
       <c r="W139" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X139" t="n">
         <v>34</v>
@@ -17093,10 +17093,10 @@
         <v>251</v>
       </c>
       <c r="AE139" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF139" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG139" t="n">
         <v>8.5</v>
@@ -17143,13 +17143,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H140" t="n">
         <v>3.4</v>
       </c>
       <c r="I140" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J140" t="n">
         <v>1.05</v>
@@ -17176,16 +17176,16 @@
         <v>3</v>
       </c>
       <c r="R140" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S140" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T140" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V140" t="n">
         <v>9</v>
@@ -17200,7 +17200,7 @@
         <v>26</v>
       </c>
       <c r="Z140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA140" t="n">
         <v>6.5</v>
@@ -17221,13 +17221,13 @@
         <v>19</v>
       </c>
       <c r="AG140" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH140" t="n">
         <v>41</v>
       </c>
       <c r="AI140" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ140" t="n">
         <v>34</v>
@@ -17532,7 +17532,7 @@
         <v>1.88</v>
       </c>
       <c r="P143" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q143" t="n">
         <v>2.75</v>
@@ -17627,19 +17627,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H144" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J144" t="n">
         <v>1.03</v>
       </c>
       <c r="K144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L144" t="n">
         <v>1.17</v>
@@ -17648,22 +17648,22 @@
         <v>5</v>
       </c>
       <c r="N144" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O144" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P144" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q144" t="n">
         <v>3.75</v>
       </c>
       <c r="R144" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S144" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T144" t="n">
         <v>8</v>
@@ -17708,7 +17708,7 @@
         <v>29</v>
       </c>
       <c r="AH144" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI144" t="n">
         <v>67</v>
@@ -17749,13 +17749,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H145" t="n">
         <v>3.9</v>
       </c>
       <c r="I145" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J145" t="n">
         <v>1.04</v>
@@ -17776,7 +17776,7 @@
         <v>2.08</v>
       </c>
       <c r="P145" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q145" t="n">
         <v>3.25</v>
@@ -17791,7 +17791,7 @@
         <v>15</v>
       </c>
       <c r="U145" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V145" t="n">
         <v>15</v>
@@ -17886,16 +17886,16 @@
         <v>15</v>
       </c>
       <c r="L146" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M146" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N146" t="n">
         <v>1.57</v>
       </c>
       <c r="O146" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P146" t="n">
         <v>1.3</v>
@@ -18014,7 +18014,7 @@
         <v>4.33</v>
       </c>
       <c r="N147" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O147" t="n">
         <v>2.1</v>
@@ -18115,13 +18115,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H148" t="n">
         <v>3.5</v>
       </c>
       <c r="I148" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J148" t="n">
         <v>1.05</v>
@@ -18154,19 +18154,19 @@
         <v>2</v>
       </c>
       <c r="T148" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W148" t="n">
         <v>29</v>
       </c>
       <c r="X148" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y148" t="n">
         <v>29</v>
@@ -18190,13 +18190,13 @@
         <v>8.5</v>
       </c>
       <c r="AF148" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG148" t="n">
         <v>9.5</v>
       </c>
       <c r="AH148" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI148" t="n">
         <v>19</v>
@@ -18603,13 +18603,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H152" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I152" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J152" t="n">
         <v>1.03</v>
@@ -18645,7 +18645,7 @@
         <v>9</v>
       </c>
       <c r="U152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V152" t="n">
         <v>8.5</v>
@@ -18666,7 +18666,7 @@
         <v>9</v>
       </c>
       <c r="AB152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC152" t="n">
         <v>41</v>
@@ -18681,10 +18681,10 @@
         <v>34</v>
       </c>
       <c r="AG152" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH152" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI152" t="n">
         <v>41</v>
@@ -19836,10 +19836,10 @@
         <v>3.75</v>
       </c>
       <c r="N162" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O162" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P162" t="n">
         <v>1.36</v>
@@ -20531,7 +20531,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="H168" t="n">
         <v>5</v>
@@ -20571,7 +20571,7 @@
         <v>27</v>
       </c>
       <c r="W168" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="X168" t="n">
         <v>100</v>
@@ -20592,7 +20592,7 @@
         <v>110</v>
       </c>
       <c r="AD168" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE168" t="n">
         <v>7.5</v>
@@ -21145,13 +21145,13 @@
         <v>1.03</v>
       </c>
       <c r="K173" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L173" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M173" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N173" t="n">
         <v>1.62</v>
@@ -21261,13 +21261,13 @@
         <v>3.1</v>
       </c>
       <c r="I174" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J174" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K174" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L174" t="n">
         <v>1.5</v>
@@ -21327,7 +21327,7 @@
         <v>501</v>
       </c>
       <c r="AE174" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF174" t="n">
         <v>17</v>
@@ -21389,7 +21389,7 @@
         <v>1.08</v>
       </c>
       <c r="K175" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L175" t="n">
         <v>1.44</v>
@@ -21520,10 +21520,10 @@
         <v>2.5</v>
       </c>
       <c r="N176" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O176" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P176" t="n">
         <v>1.57</v>
@@ -21627,7 +21627,7 @@
         <v>3.05</v>
       </c>
       <c r="I177" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -21653,7 +21653,7 @@
         <v>1.81</v>
       </c>
       <c r="S177" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T177" t="n">
         <v>6.8</v>
@@ -21668,22 +21668,22 @@
         <v>24</v>
       </c>
       <c r="X177" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y177" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z177" t="n">
         <v>8.25</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB177" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC177" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD177" t="n">
         <v>400</v>
@@ -21701,7 +21701,7 @@
         <v>21</v>
       </c>
       <c r="AI177" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ177" t="n">
         <v>26</v>
@@ -21978,24 +21978,24 @@
         <v>1.57</v>
       </c>
       <c r="H180" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I180" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M180" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="N180" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O180" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="P180" t="n">
         <v>1.38</v>
@@ -22004,28 +22004,28 @@
         <v>2.6</v>
       </c>
       <c r="R180" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S180" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T180" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U180" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="V180" t="n">
         <v>8.25</v>
       </c>
       <c r="W180" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X180" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y180" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z180" t="n">
         <v>11</v>
@@ -22034,10 +22034,10 @@
         <v>7.7</v>
       </c>
       <c r="AB180" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC180" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD180" t="n">
         <v>700</v>
@@ -22049,7 +22049,7 @@
         <v>29</v>
       </c>
       <c r="AG180" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH180" t="n">
         <v>90</v>
@@ -22211,22 +22211,22 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H182" t="n">
         <v>2.9</v>
       </c>
       <c r="I182" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J182" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K182" t="n">
         <v>7</v>
       </c>
       <c r="L182" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M182" t="n">
         <v>2.5</v>
@@ -22253,7 +22253,7 @@
         <v>6.5</v>
       </c>
       <c r="U182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V182" t="n">
         <v>11</v>
@@ -22286,16 +22286,16 @@
         <v>7</v>
       </c>
       <c r="AF182" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG182" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH182" t="n">
         <v>29</v>
       </c>
       <c r="AI182" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ182" t="n">
         <v>41</v>
@@ -22582,10 +22582,10 @@
         <v>3.75</v>
       </c>
       <c r="J185" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K185" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L185" t="n">
         <v>1.36</v>
@@ -22594,10 +22594,10 @@
         <v>3</v>
       </c>
       <c r="N185" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O185" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P185" t="n">
         <v>1.44</v>
@@ -22695,19 +22695,19 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H186" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I186" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J186" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K186" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L186" t="n">
         <v>1.33</v>
@@ -22770,7 +22770,7 @@
         <v>6</v>
       </c>
       <c r="AF186" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG186" t="n">
         <v>8.5</v>
@@ -22838,10 +22838,10 @@
         <v>4</v>
       </c>
       <c r="N187" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O187" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P187" t="n">
         <v>1.33</v>
@@ -23314,16 +23314,16 @@
         <v>4.1</v>
       </c>
       <c r="J191" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K191" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L191" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M191" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="N191" t="n">
         <v>2.35</v>
@@ -23332,16 +23332,16 @@
         <v>1.57</v>
       </c>
       <c r="P191" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q191" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R191" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="S191" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T191" t="n">
         <v>5.5</v>
@@ -23713,7 +23713,7 @@
         <v>6</v>
       </c>
       <c r="U194" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V194" t="n">
         <v>9</v>
@@ -23728,10 +23728,10 @@
         <v>34</v>
       </c>
       <c r="Z194" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA194" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB194" t="n">
         <v>19</v>
@@ -23743,10 +23743,10 @@
         <v>501</v>
       </c>
       <c r="AE194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF194" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG194" t="n">
         <v>17</v>
@@ -23802,10 +23802,10 @@
         <v>3.3</v>
       </c>
       <c r="J195" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K195" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L195" t="n">
         <v>1.36</v>
@@ -23814,10 +23814,10 @@
         <v>3</v>
       </c>
       <c r="N195" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O195" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P195" t="n">
         <v>1.5</v>
@@ -23915,13 +23915,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H196" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I196" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="J196" t="n">
         <v>1.06</v>
@@ -23930,16 +23930,16 @@
         <v>10</v>
       </c>
       <c r="L196" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M196" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N196" t="n">
         <v>2.05</v>
       </c>
       <c r="O196" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -23948,10 +23948,10 @@
         <v>2.75</v>
       </c>
       <c r="R196" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S196" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T196" t="n">
         <v>13</v>
@@ -23966,40 +23966,40 @@
         <v>67</v>
       </c>
       <c r="X196" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y196" t="n">
         <v>51</v>
       </c>
       <c r="Z196" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA196" t="n">
         <v>7.5</v>
       </c>
       <c r="AB196" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC196" t="n">
         <v>67</v>
       </c>
       <c r="AD196" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE196" t="n">
         <v>6</v>
       </c>
       <c r="AF196" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG196" t="n">
         <v>8.5</v>
       </c>
       <c r="AH196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI196" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ196" t="n">
         <v>29</v>
@@ -24159,7 +24159,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H198" t="n">
         <v>3.75</v>
@@ -24180,10 +24180,10 @@
         <v>3.75</v>
       </c>
       <c r="N198" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="O198" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="P198" t="n">
         <v>1.4</v>
@@ -25116,22 +25116,22 @@
         <v>4.5</v>
       </c>
       <c r="J206" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K206" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L206" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M206" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N206" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O206" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P206" t="n">
         <v>1.5</v>
@@ -25143,7 +25143,7 @@
         <v>2</v>
       </c>
       <c r="S206" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T206" t="n">
         <v>6</v>
@@ -25262,10 +25262,10 @@
         <v>2.63</v>
       </c>
       <c r="R207" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S207" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T207" t="n">
         <v>8.5</v>
@@ -25363,7 +25363,7 @@
         <v>1.11</v>
       </c>
       <c r="K208" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L208" t="n">
         <v>1.47</v>
@@ -25390,10 +25390,10 @@
         <v>1.75</v>
       </c>
       <c r="T208" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U208" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V208" t="n">
         <v>10.25</v>
@@ -25402,31 +25402,31 @@
         <v>27</v>
       </c>
       <c r="X208" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y208" t="n">
         <v>45</v>
       </c>
       <c r="Z208" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA208" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB208" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC208" t="n">
         <v>110</v>
       </c>
       <c r="AD208" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE208" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AF208" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG208" t="n">
         <v>12.5</v>
@@ -25435,10 +25435,10 @@
         <v>50</v>
       </c>
       <c r="AI208" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ208" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
@@ -25473,94 +25473,94 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="H209" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I209" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="J209" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K209" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="L209" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M209" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="N209" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="O209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S209" t="n">
         <v>1.65</v>
       </c>
-      <c r="P209" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q209" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R209" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S209" t="n">
-        <v>1.78</v>
-      </c>
       <c r="T209" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="U209" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="V209" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W209" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="X209" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y209" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z209" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB209" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC209" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AD209" t="n">
         <v>900</v>
       </c>
       <c r="AE209" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AF209" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AG209" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AH209" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AI209" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AJ209" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210">
@@ -25595,13 +25595,13 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="H210" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I210" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="J210" t="n">
         <v>1.07</v>
@@ -25610,46 +25610,46 @@
         <v>7.1</v>
       </c>
       <c r="L210" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M210" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="N210" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R210" t="n">
         <v>1.8</v>
       </c>
-      <c r="P210" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q210" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R210" t="n">
-        <v>1.78</v>
-      </c>
       <c r="S210" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T210" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="U210" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V210" t="n">
         <v>9</v>
       </c>
-      <c r="V210" t="n">
-        <v>8.25</v>
-      </c>
       <c r="W210" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="X210" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y210" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z210" t="n">
         <v>7.1</v>
@@ -25658,31 +25658,31 @@
         <v>6.5</v>
       </c>
       <c r="AB210" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC210" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD210" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG210" t="n">
         <v>10.75</v>
       </c>
-      <c r="AF210" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG210" t="n">
-        <v>13</v>
-      </c>
       <c r="AH210" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AI210" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ210" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ210" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="211">
@@ -25717,90 +25717,90 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I211" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M211" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="N211" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R211" t="n">
         <v>1.88</v>
       </c>
-      <c r="O211" t="n">
+      <c r="S211" t="n">
         <v>1.72</v>
       </c>
-      <c r="P211" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q211" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R211" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S211" t="n">
-        <v>1.9</v>
-      </c>
       <c r="T211" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="U211" t="n">
-        <v>10.75</v>
+        <v>8.75</v>
       </c>
       <c r="V211" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W211" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X211" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE211" t="n">
         <v>9</v>
       </c>
-      <c r="W211" t="n">
-        <v>22</v>
-      </c>
-      <c r="X211" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y211" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z211" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA211" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB211" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC211" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD211" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE211" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AF211" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG211" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH211" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AI211" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AJ211" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212">
@@ -25835,94 +25835,94 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="H212" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I212" t="n">
-        <v>2.18</v>
+        <v>1.85</v>
       </c>
       <c r="J212" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K212" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="L212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M212" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P212" t="n">
         <v>1.36</v>
       </c>
-      <c r="M212" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="N212" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O212" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P212" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q212" t="n">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="R212" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="S212" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T212" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="U212" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="V212" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="W212" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="X212" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y212" t="n">
         <v>37</v>
       </c>
       <c r="Z212" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA212" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="AB212" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC212" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AD212" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AE212" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AF212" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG212" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AH212" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI212" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ212" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213">
@@ -25957,94 +25957,94 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="H213" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I213" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="J213" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K213" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="L213" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M213" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="N213" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="O213" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="P213" t="n">
         <v>1.45</v>
       </c>
       <c r="Q213" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R213" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S213" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T213" t="n">
-        <v>9.25</v>
+        <v>7.6</v>
       </c>
       <c r="U213" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V213" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="W213" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="X213" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y213" t="n">
         <v>35</v>
       </c>
       <c r="Z213" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AA213" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB213" t="n">
         <v>14</v>
       </c>
       <c r="AC213" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD213" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE213" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AF213" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AG213" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH213" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AI213" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ213" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214">
@@ -26079,84 +26079,88 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="H214" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="I214" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M214" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="N214" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O214" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
+        <v>1.83</v>
+      </c>
+      <c r="P214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>2.57</v>
+      </c>
       <c r="R214" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="S214" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="T214" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="U214" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V214" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="W214" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="X214" t="n">
         <v>12</v>
       </c>
       <c r="Y214" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z214" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA214" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AB214" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AC214" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD214" t="inlineStr"/>
       <c r="AE214" t="n">
         <v>22</v>
       </c>
       <c r="AF214" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG214" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AH214" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AI214" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AJ214" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="215">
@@ -26809,13 +26813,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H224" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I224" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J224" t="n">
         <v>1.06</v>
@@ -26830,10 +26834,10 @@
         <v>3.4</v>
       </c>
       <c r="N224" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O224" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P224" t="n">
         <v>1.4</v>
@@ -26848,7 +26852,7 @@
         <v>1.75</v>
       </c>
       <c r="T224" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U224" t="n">
         <v>7</v>
@@ -26857,10 +26861,10 @@
         <v>8.5</v>
       </c>
       <c r="W224" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X224" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y224" t="n">
         <v>29</v>
@@ -26875,7 +26879,7 @@
         <v>19</v>
       </c>
       <c r="AC224" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD224" t="n">
         <v>401</v>
@@ -26887,10 +26891,10 @@
         <v>29</v>
       </c>
       <c r="AG224" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH224" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI224" t="n">
         <v>41</v>
@@ -27175,19 +27179,19 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H227" t="n">
         <v>3.4</v>
       </c>
       <c r="I227" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J227" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K227" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L227" t="n">
         <v>1.25</v>
@@ -27196,16 +27200,16 @@
         <v>4</v>
       </c>
       <c r="N227" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O227" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P227" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q227" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R227" t="n">
         <v>1.67</v>
@@ -27214,10 +27218,10 @@
         <v>2.1</v>
       </c>
       <c r="T227" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U227" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V227" t="n">
         <v>9.5</v>
@@ -27232,7 +27236,7 @@
         <v>26</v>
       </c>
       <c r="Z227" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA227" t="n">
         <v>6.5</v>
@@ -27253,7 +27257,7 @@
         <v>15</v>
       </c>
       <c r="AG227" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH227" t="n">
         <v>29</v>
@@ -27312,16 +27316,16 @@
         <v>13</v>
       </c>
       <c r="L228" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M228" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N228" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O228" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P228" t="n">
         <v>1.33</v>
@@ -27684,10 +27688,10 @@
         <v>3.5</v>
       </c>
       <c r="N231" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O231" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P231" t="n">
         <v>1.4</v>
@@ -27907,31 +27911,31 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H233" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I233" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="J233" t="n">
         <v>1.05</v>
       </c>
       <c r="K233" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L233" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M233" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N233" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O233" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P233" t="n">
         <v>1.38</v>
@@ -27940,61 +27944,61 @@
         <v>2.8</v>
       </c>
       <c r="R233" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S233" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T233" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U233" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="V233" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W233" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="X233" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y233" t="n">
         <v>30</v>
       </c>
       <c r="Z233" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA233" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB233" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC233" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD233" t="n">
         <v>900</v>
       </c>
       <c r="AE233" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF233" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG233" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH233" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI233" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ233" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234">
@@ -28273,13 +28277,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H236" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I236" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="J236" t="n">
         <v>1.04</v>
@@ -28309,52 +28313,52 @@
         <v>1.53</v>
       </c>
       <c r="S236" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T236" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U236" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V236" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W236" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X236" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y236" t="n">
         <v>28</v>
-      </c>
-      <c r="Y236" t="n">
-        <v>29</v>
       </c>
       <c r="Z236" t="n">
         <v>9.5</v>
       </c>
       <c r="AA236" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB236" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC236" t="n">
         <v>45</v>
       </c>
       <c r="AD236" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE236" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG236" t="n">
         <v>9.25</v>
       </c>
-      <c r="AF236" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG236" t="n">
-        <v>9</v>
-      </c>
       <c r="AH236" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI236" t="n">
         <v>15.5</v>
@@ -28639,22 +28643,22 @@
         </is>
       </c>
       <c r="G239" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H239" t="n">
         <v>3.4</v>
       </c>
-      <c r="H239" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I239" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J239" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K239" t="n">
         <v>10</v>
       </c>
       <c r="L239" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M239" t="n">
         <v>3.4</v>
@@ -28696,7 +28700,7 @@
         <v>34</v>
       </c>
       <c r="Z239" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA239" t="n">
         <v>6.5</v>
@@ -28770,13 +28774,13 @@
         <v>2.7</v>
       </c>
       <c r="J240" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K240" t="n">
         <v>10</v>
       </c>
       <c r="L240" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M240" t="n">
         <v>3.25</v>
@@ -28892,13 +28896,13 @@
         <v>2.6</v>
       </c>
       <c r="J241" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K241" t="n">
         <v>11</v>
       </c>
       <c r="L241" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M241" t="n">
         <v>3.4</v>
@@ -29026,10 +29030,10 @@
         <v>3.75</v>
       </c>
       <c r="N242" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O242" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P242" t="n">
         <v>1.36</v>
@@ -29142,16 +29146,16 @@
         <v>11</v>
       </c>
       <c r="L243" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M243" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N243" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O243" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P243" t="n">
         <v>1.4</v>
@@ -29493,13 +29497,13 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H246" t="n">
         <v>3.25</v>
       </c>
       <c r="I246" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J246" t="n">
         <v>1.05</v>
@@ -29580,7 +29584,7 @@
         <v>23</v>
       </c>
       <c r="AJ246" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="247">
@@ -29615,13 +29619,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H247" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I247" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J247" t="n">
         <v>1.07</v>
@@ -29636,10 +29640,10 @@
         <v>3</v>
       </c>
       <c r="N247" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O247" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P247" t="n">
         <v>1.44</v>
@@ -29660,10 +29664,10 @@
         <v>10</v>
       </c>
       <c r="V247" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W247" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X247" t="n">
         <v>19</v>
@@ -29687,16 +29691,16 @@
         <v>301</v>
       </c>
       <c r="AE247" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF247" t="n">
         <v>17</v>
       </c>
       <c r="AG247" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH247" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI247" t="n">
         <v>29</v>
@@ -30362,10 +30366,10 @@
         <v>7</v>
       </c>
       <c r="L253" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M253" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N253" t="n">
         <v>2.35</v>
@@ -30734,10 +30738,10 @@
         <v>2.63</v>
       </c>
       <c r="N256" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="O256" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P256" t="n">
         <v>1.5</v>
@@ -30835,13 +30839,13 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H257" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I257" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I257" t="n">
-        <v>3.3</v>
       </c>
       <c r="J257" t="n">
         <v>1.03</v>
@@ -30862,10 +30866,10 @@
         <v>2.15</v>
       </c>
       <c r="P257" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q257" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R257" t="n">
         <v>1.62</v>
@@ -30874,28 +30878,28 @@
         <v>2.2</v>
       </c>
       <c r="T257" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U257" t="n">
         <v>11</v>
       </c>
       <c r="V257" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W257" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X257" t="n">
         <v>15</v>
       </c>
       <c r="Y257" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA257" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB257" t="n">
         <v>13</v>
@@ -30910,7 +30914,7 @@
         <v>13</v>
       </c>
       <c r="AF257" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG257" t="n">
         <v>12</v>
@@ -30957,13 +30961,13 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H258" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I258" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J258" t="n">
         <v>1.07</v>
@@ -30984,16 +30988,16 @@
         <v>1.62</v>
       </c>
       <c r="P258" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q258" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R258" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S258" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T258" t="n">
         <v>6</v>
@@ -31014,34 +31018,34 @@
         <v>34</v>
       </c>
       <c r="Z258" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA258" t="n">
         <v>6.5</v>
       </c>
       <c r="AB258" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC258" t="n">
         <v>67</v>
       </c>
       <c r="AD258" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE258" t="n">
         <v>9.5</v>
       </c>
       <c r="AF258" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG258" t="n">
         <v>15</v>
       </c>
       <c r="AH258" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI258" t="n">
         <v>41</v>
-      </c>
-      <c r="AI258" t="n">
-        <v>34</v>
       </c>
       <c r="AJ258" t="n">
         <v>41</v>
@@ -31088,22 +31092,22 @@
         <v>2.8</v>
       </c>
       <c r="J259" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K259" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L259" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M259" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N259" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O259" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P259" t="n">
         <v>1.36</v>
@@ -31329,13 +31333,13 @@
         <v>3.4</v>
       </c>
       <c r="I261" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J261" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K261" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L261" t="n">
         <v>1.25</v>
@@ -31344,16 +31348,16 @@
         <v>3.75</v>
       </c>
       <c r="N261" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O261" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P261" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q261" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R261" t="n">
         <v>1.67</v>
@@ -31365,7 +31369,7 @@
         <v>8.5</v>
       </c>
       <c r="U261" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V261" t="n">
         <v>9</v>
@@ -31380,7 +31384,7 @@
         <v>23</v>
       </c>
       <c r="Z261" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA261" t="n">
         <v>6.5</v>
@@ -31401,13 +31405,13 @@
         <v>19</v>
       </c>
       <c r="AG261" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH261" t="n">
         <v>41</v>
       </c>
       <c r="AI261" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ261" t="n">
         <v>34</v>
@@ -31695,10 +31699,10 @@
         <v>2.95</v>
       </c>
       <c r="I264" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J264" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K264" t="n">
         <v>6</v>
@@ -31710,52 +31714,52 @@
         <v>2.32</v>
       </c>
       <c r="N264" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O264" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P264" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R264" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S264" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T264" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U264" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V264" t="n">
         <v>11.25</v>
       </c>
       <c r="W264" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X264" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y264" t="n">
         <v>50</v>
       </c>
       <c r="Z264" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA264" t="n">
         <v>5.9</v>
       </c>
       <c r="AB264" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC264" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD264" t="n">
         <v>101</v>
@@ -31767,7 +31771,7 @@
         <v>10.75</v>
       </c>
       <c r="AG264" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH264" t="n">
         <v>26</v>
@@ -32535,18 +32539,18 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H271" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I271" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M271" t="n">
         <v>2.4</v>
@@ -32558,43 +32562,43 @@
         <v>1.5</v>
       </c>
       <c r="P271" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q271" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R271" t="n">
         <v>2.05</v>
       </c>
       <c r="S271" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T271" t="n">
         <v>5.4</v>
       </c>
       <c r="U271" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="V271" t="n">
         <v>8.75</v>
       </c>
       <c r="W271" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X271" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y271" t="n">
         <v>40</v>
       </c>
       <c r="Z271" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA271" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB271" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC271" t="n">
         <v>120</v>
@@ -32609,16 +32613,16 @@
         <v>21</v>
       </c>
       <c r="AG271" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH271" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI271" t="n">
         <v>50</v>
       </c>
       <c r="AJ271" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="272">
@@ -32774,10 +32778,10 @@
         <v>1.62</v>
       </c>
       <c r="H273" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I273" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J273" t="n">
         <v>1.03</v>
@@ -32792,10 +32796,10 @@
         <v>4.33</v>
       </c>
       <c r="N273" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O273" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P273" t="n">
         <v>1.3</v>
@@ -32813,13 +32817,13 @@
         <v>8</v>
       </c>
       <c r="U273" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V273" t="n">
         <v>8.5</v>
       </c>
       <c r="W273" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X273" t="n">
         <v>12</v>
@@ -32837,7 +32841,7 @@
         <v>15</v>
       </c>
       <c r="AC273" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD273" t="n">
         <v>201</v>
@@ -34585,10 +34589,10 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H288" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I288" t="n">
         <v>2.9</v>
@@ -34600,16 +34604,16 @@
         <v>6.9</v>
       </c>
       <c r="L288" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M288" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N288" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O288" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P288" t="n">
         <v>1.39</v>
@@ -34618,28 +34622,28 @@
         <v>2.77</v>
       </c>
       <c r="R288" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S288" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T288" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U288" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V288" t="n">
         <v>9</v>
       </c>
       <c r="W288" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X288" t="n">
         <v>19</v>
       </c>
       <c r="Y288" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z288" t="n">
         <v>6.9</v>
@@ -34648,13 +34652,13 @@
         <v>6.1</v>
       </c>
       <c r="AB288" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC288" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD288" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE288" t="n">
         <v>9</v>
